--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF655208-9998-41A4-ABE9-452A75A4D53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC84D20-5257-4821-980B-E74A29D792FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="250">
   <si>
     <t>URL</t>
   </si>
@@ -777,28 +777,13 @@
     <t>lawyer123@avantis.info</t>
   </si>
   <si>
-    <t>Case No3237</t>
-  </si>
-  <si>
-    <t>Ref-34353</t>
-  </si>
-  <si>
-    <t>No 22220</t>
-  </si>
-  <si>
-    <t>New Task 098</t>
-  </si>
-  <si>
-    <t>New Task 5285 Description</t>
-  </si>
-  <si>
-    <t>New Expected Outcome 551</t>
-  </si>
-  <si>
-    <t>order as on date 2feb2023</t>
-  </si>
-  <si>
-    <t>Automate Test Neww</t>
+    <t>Ref-3453</t>
+  </si>
+  <si>
+    <t>Case No323037</t>
+  </si>
+  <si>
+    <t>No 232220</t>
   </si>
 </sst>
 </file>
@@ -1403,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EBB0F7-12CA-4928-9CA8-B80D156AD083}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1443,7 +1428,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1661,7 +1646,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1672,7 +1657,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1683,7 +1668,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -1772,7 +1757,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -2055,7 +2040,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>254</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2067,8 +2052,8 @@
       <c r="A83" t="s">
         <v>97</v>
       </c>
-      <c r="B83" t="s">
-        <v>253</v>
+      <c r="B83">
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2076,7 +2061,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>253</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:2">

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC84D20-5257-4821-980B-E74A29D792FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD922D-D2E3-400A-9E42-658A5909DD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Task Open - CompanyAdmin" sheetId="8" r:id="rId8"/>
     <sheet name="CFO" sheetId="9" r:id="rId9"/>
     <sheet name="ExternalLawyer" sheetId="10" r:id="rId10"/>
+    <sheet name="FE" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="256">
   <si>
     <t>URL</t>
   </si>
@@ -777,13 +778,31 @@
     <t>lawyer123@avantis.info</t>
   </si>
   <si>
-    <t>Ref-3453</t>
-  </si>
-  <si>
-    <t>Case No323037</t>
-  </si>
-  <si>
-    <t>No 232220</t>
+    <t>Case No3237</t>
+  </si>
+  <si>
+    <t>Ref-34353</t>
+  </si>
+  <si>
+    <t>No 22220</t>
+  </si>
+  <si>
+    <t>New Task 098</t>
+  </si>
+  <si>
+    <t>New Task 5285 Description</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 551</t>
+  </si>
+  <si>
+    <t>order as on date 2feb2023</t>
+  </si>
+  <si>
+    <t>Automate Test Neww</t>
+  </si>
+  <si>
+    <t>fe@bitaconsulting.co.in</t>
   </si>
 </sst>
 </file>
@@ -1388,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EBB0F7-12CA-4928-9CA8-B80D156AD083}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1428,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1646,7 +1665,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1657,7 +1676,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1668,7 +1687,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -1757,7 +1776,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -2040,7 +2059,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2052,8 +2071,8 @@
       <c r="A83" t="s">
         <v>97</v>
       </c>
-      <c r="B83">
-        <v>90</v>
+      <c r="B83" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2061,7 +2080,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2118,6 +2137,52 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{32609F3B-4E12-4FDA-934E-3735B8652D3A}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{7A5774E0-DEBC-4CC9-8098-B1F299DF5F10}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891A7014-DEBE-4836-94D4-AA06B16D87D9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123" xr:uid="{2BACB189-3764-445B-A4EF-16E50FBA329C}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{25CCD688-D32D-43A1-B399-B73AE340FF50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4342,8 +4407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD922D-D2E3-400A-9E42-658A5909DD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5DBDD6-B562-4EE0-BA36-C5862F3495F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="260">
   <si>
     <t>URL</t>
   </si>
@@ -382,18 +382,9 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>Ref no-354672</t>
-  </si>
-  <si>
     <t>New Task Automate20</t>
   </si>
   <si>
-    <t>New Task  Description20</t>
-  </si>
-  <si>
-    <t>New Expected Outcome 4</t>
-  </si>
-  <si>
     <t>Case No0937856</t>
   </si>
   <si>
@@ -649,9 +640,6 @@
     <t>Ref No *</t>
   </si>
   <si>
-    <t>Ref no7869</t>
-  </si>
-  <si>
     <t>Opponent *</t>
   </si>
   <si>
@@ -664,9 +652,6 @@
     <t>Finance Executive</t>
   </si>
   <si>
-    <t>Case No 2702309</t>
-  </si>
-  <si>
     <t>RefNo-1246709</t>
   </si>
   <si>
@@ -679,99 +664,42 @@
     <t>Case No09375</t>
   </si>
   <si>
-    <t xml:space="preserve">New Task 15jan </t>
-  </si>
-  <si>
     <t>New Expected Outcome 15</t>
   </si>
   <si>
-    <t>New Task 15jan2023</t>
-  </si>
-  <si>
-    <t>Task as on 15012023</t>
-  </si>
-  <si>
     <t>Edit Opponent Name</t>
   </si>
   <si>
-    <t>H Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Amol</t>
-  </si>
-  <si>
-    <t>amol@itc.com</t>
-  </si>
-  <si>
     <t>S Pvt Ltd</t>
   </si>
   <si>
-    <t>C Pvt Ltd</t>
-  </si>
-  <si>
-    <t>ab@gmail.com</t>
-  </si>
-  <si>
-    <t>Shreya</t>
-  </si>
-  <si>
-    <t>J Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Mr.Dikshit</t>
-  </si>
-  <si>
-    <t>Mr.Sachan</t>
-  </si>
-  <si>
     <t>High Court of Gujarat</t>
   </si>
   <si>
     <t>High Court of Panjab</t>
   </si>
   <si>
-    <t>Implied Notice</t>
-  </si>
-  <si>
     <t>UPI</t>
   </si>
   <si>
-    <t>AEPS</t>
-  </si>
-  <si>
     <t>Automate Test New One</t>
   </si>
   <si>
-    <t>Institution of suit.</t>
-  </si>
-  <si>
     <t>Framing of Issues.</t>
   </si>
   <si>
     <t>XHTML</t>
   </si>
   <si>
-    <t xml:space="preserve"> HTML</t>
-  </si>
-  <si>
-    <t>Financial Ratio New</t>
-  </si>
-  <si>
     <t>Graphic rating</t>
   </si>
   <si>
-    <t xml:space="preserve">New Notice of intention </t>
-  </si>
-  <si>
     <t>Komal</t>
   </si>
   <si>
     <t>komal@itc.com</t>
   </si>
   <si>
-    <t>Order 25jan23</t>
-  </si>
-  <si>
     <t>CBI</t>
   </si>
   <si>
@@ -803,6 +731,90 @@
   </si>
   <si>
     <t>fe@bitaconsulting.co.in</t>
+  </si>
+  <si>
+    <t>New Task  Description201</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 44</t>
+  </si>
+  <si>
+    <t>New Task Automate53</t>
+  </si>
+  <si>
+    <t>Ref no-40972</t>
+  </si>
+  <si>
+    <t>Q Pvt Ltd</t>
+  </si>
+  <si>
+    <t>L Pvt Ltd</t>
+  </si>
+  <si>
+    <t>ab@itc.com</t>
+  </si>
+  <si>
+    <t>Kajal</t>
+  </si>
+  <si>
+    <t>Z Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Rudransh</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>rudra@itc.com</t>
+  </si>
+  <si>
+    <t>Mr.Desai</t>
+  </si>
+  <si>
+    <t>Mr.Jadhav</t>
+  </si>
+  <si>
+    <t>High Court of Rajsthan</t>
+  </si>
+  <si>
+    <t>Implied Notice New</t>
+  </si>
+  <si>
+    <t>AEPSW</t>
+  </si>
+  <si>
+    <t>ABCE</t>
+  </si>
+  <si>
+    <t>Institution of suit One.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HTML Text</t>
+  </si>
+  <si>
+    <t>Financial Ratio New Automate</t>
+  </si>
+  <si>
+    <t>New Notice of intention one</t>
+  </si>
+  <si>
+    <t>Ref no790837</t>
+  </si>
+  <si>
+    <t>Case No 20987</t>
+  </si>
+  <si>
+    <t>New Task 10 02 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Task 10 02 2023 </t>
+  </si>
+  <si>
+    <t>Task as on 152023</t>
+  </si>
+  <si>
+    <t>Order 25jan023</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1420,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1431,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1447,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1570,7 +1582,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1665,7 +1677,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1676,7 +1688,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1687,7 +1699,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -1776,7 +1788,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1820,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1916,7 +1928,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2059,7 +2071,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2072,7 +2084,7 @@
         <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2080,7 +2092,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2146,7 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891A7014-DEBE-4836-94D4-AA06B16D87D9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2168,7 +2180,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2176,7 +2188,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2220,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2431,7 +2443,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2442,7 +2454,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2453,7 +2465,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2545,7 +2557,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2613,7 +2625,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2709,7 +2721,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2854,7 +2866,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2865,7 +2877,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2876,7 +2888,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -3020,7 +3032,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -3031,7 +3043,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -3042,7 +3054,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -3126,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3139,79 +3151,79 @@
     </row>
     <row r="9" spans="1:2" s="9" customFormat="1" ht="15.6">
       <c r="A9" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="16" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="16" customFormat="1">
       <c r="A16" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19">
         <v>8796543294</v>
@@ -3219,23 +3231,23 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -3243,36 +3255,36 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -3280,15 +3292,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B29">
         <v>9943234594</v>
@@ -3296,31 +3308,31 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="16" customFormat="1">
       <c r="A31" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="16" customFormat="1">
@@ -3330,141 +3342,141 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="16" customFormat="1">
       <c r="A37" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="16" customFormat="1">
       <c r="A40" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="16" customFormat="1">
       <c r="A43" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="16" customFormat="1">
       <c r="A46" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="16" customFormat="1">
       <c r="A49" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="18" customFormat="1">
       <c r="A52" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B54" t="s">
         <v>91</v>
@@ -3472,23 +3484,23 @@
     </row>
     <row r="55" spans="1:2" s="18" customFormat="1">
       <c r="A55" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3529,7 +3541,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3652,7 +3664,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3753,7 +3765,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -3764,7 +3776,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3775,7 +3787,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -3864,7 +3876,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -3933,7 +3945,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4174,7 +4186,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4185,7 +4197,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4196,7 +4208,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -4257,7 +4269,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4341,7 +4353,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -4352,7 +4364,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -4363,7 +4375,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -4407,8 +4419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4430,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4438,15 +4450,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4459,7 +4471,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -4506,7 +4518,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4517,7 +4529,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4528,7 +4540,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -4539,7 +4551,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4547,7 +4559,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4563,13 +4575,13 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4593,7 +4605,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4626,7 +4638,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4655,7 +4667,7 @@
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4663,7 +4675,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -4751,7 +4763,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4759,7 +4771,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4783,7 +4795,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4804,7 +4816,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4817,7 +4829,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>7480</v>
+        <v>740680</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4825,7 +4837,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4843,25 +4855,25 @@
     </row>
     <row r="62" spans="1:2" s="9" customFormat="1" ht="15.6">
       <c r="A62" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="16" customFormat="1">
       <c r="A63" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
@@ -4869,53 +4881,53 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
       <c r="A71" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B71" s="17"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B74">
         <v>8796543294</v>
@@ -4923,23 +4935,23 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -4947,36 +4959,36 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -4984,7 +4996,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>243</v>
@@ -4992,7 +5004,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B85">
         <v>9943234594</v>
@@ -5000,7 +5012,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
@@ -5008,23 +5020,23 @@
     </row>
     <row r="88" spans="1:2" s="16" customFormat="1">
       <c r="A88" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B90" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5034,39 +5046,39 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
       <c r="A98" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5077,128 +5089,128 @@
     </row>
     <row r="103" spans="1:2" s="16" customFormat="1">
       <c r="A103" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
       <c r="A108" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B110" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
       <c r="A113" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B114" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
       <c r="A118" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
       <c r="A123" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B124" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B125" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
       <c r="A128" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B130" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5DBDD6-B562-4EE0-BA36-C5862F3495F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11592EC8-1343-4DA2-88D4-B918BC7CA47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <sheet name="CFO" sheetId="9" r:id="rId9"/>
     <sheet name="ExternalLawyer" sheetId="10" r:id="rId10"/>
     <sheet name="FE" sheetId="11" r:id="rId11"/>
+    <sheet name="Mgmt" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="269">
   <si>
     <t>URL</t>
   </si>
@@ -661,45 +662,15 @@
     <t>Deepali Dev</t>
   </si>
   <si>
-    <t>Case No09375</t>
-  </si>
-  <si>
     <t>New Expected Outcome 15</t>
   </si>
   <si>
     <t>Edit Opponent Name</t>
   </si>
   <si>
-    <t>S Pvt Ltd</t>
-  </si>
-  <si>
     <t>High Court of Gujarat</t>
   </si>
   <si>
-    <t>High Court of Panjab</t>
-  </si>
-  <si>
-    <t>UPI</t>
-  </si>
-  <si>
-    <t>Automate Test New One</t>
-  </si>
-  <si>
-    <t>Framing of Issues.</t>
-  </si>
-  <si>
-    <t>XHTML</t>
-  </si>
-  <si>
-    <t>Graphic rating</t>
-  </si>
-  <si>
-    <t>Komal</t>
-  </si>
-  <si>
-    <t>komal@itc.com</t>
-  </si>
-  <si>
     <t>CBI</t>
   </si>
   <si>
@@ -745,76 +716,133 @@
     <t>Ref no-40972</t>
   </si>
   <si>
-    <t>Q Pvt Ltd</t>
-  </si>
-  <si>
-    <t>L Pvt Ltd</t>
-  </si>
-  <si>
-    <t>ab@itc.com</t>
-  </si>
-  <si>
-    <t>Kajal</t>
-  </si>
-  <si>
-    <t>Z Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Rudransh</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
     <t>rudra@itc.com</t>
   </si>
   <si>
-    <t>Mr.Desai</t>
-  </si>
-  <si>
-    <t>Mr.Jadhav</t>
-  </si>
-  <si>
-    <t>High Court of Rajsthan</t>
-  </si>
-  <si>
-    <t>Implied Notice New</t>
-  </si>
-  <si>
-    <t>AEPSW</t>
-  </si>
-  <si>
-    <t>ABCE</t>
-  </si>
-  <si>
-    <t>Institution of suit One.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HTML Text</t>
-  </si>
-  <si>
-    <t>Financial Ratio New Automate</t>
-  </si>
-  <si>
-    <t>New Notice of intention one</t>
-  </si>
-  <si>
-    <t>Ref no790837</t>
-  </si>
-  <si>
-    <t>Case No 20987</t>
-  </si>
-  <si>
-    <t>New Task 10 02 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Task 10 02 2023 </t>
-  </si>
-  <si>
     <t>Task as on 152023</t>
   </si>
   <si>
-    <t>Order 25jan023</t>
+    <t>Subunits</t>
+  </si>
+  <si>
+    <t>LNT pvt ltd</t>
+  </si>
+  <si>
+    <t>Task as on date 16022023</t>
+  </si>
+  <si>
+    <t>Order16feb2023</t>
+  </si>
+  <si>
+    <t>Ref no 290930</t>
+  </si>
+  <si>
+    <t>Case No 010450704</t>
+  </si>
+  <si>
+    <t>Case No 25099870</t>
+  </si>
+  <si>
+    <t>Automate Test New 109706023</t>
+  </si>
+  <si>
+    <t>mgmt@avantis.info</t>
+  </si>
+  <si>
+    <t>Previous notice (parliamentary procedure)</t>
+  </si>
+  <si>
+    <t>AutoPay</t>
+  </si>
+  <si>
+    <t>Mobile Wallet</t>
+  </si>
+  <si>
+    <t>ABCEY</t>
+  </si>
+  <si>
+    <t>Parameter 17feb23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Filing of Plaint</t>
+  </si>
+  <si>
+    <t>Issuing of Summons</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HTML Text one</t>
+  </si>
+  <si>
+    <t>XHTML one</t>
+  </si>
+  <si>
+    <t>Solvency Ratios</t>
+  </si>
+  <si>
+    <t>Market Prospect Ratios.</t>
+  </si>
+  <si>
+    <t>New Notice of intention one automate</t>
+  </si>
+  <si>
+    <t>Statement of estimated costs automate</t>
+  </si>
+  <si>
+    <t>Sawant</t>
+  </si>
+  <si>
+    <t>Gaikwad</t>
+  </si>
+  <si>
+    <t>Akola</t>
+  </si>
+  <si>
+    <t>Shobha</t>
+  </si>
+  <si>
+    <t>shobha@gmail.com</t>
+  </si>
+  <si>
+    <t>Amravati</t>
+  </si>
+  <si>
+    <t>Amritsar</t>
+  </si>
+  <si>
+    <t>sagar@gmail.com</t>
+  </si>
+  <si>
+    <t>QRS Pvt Ltd</t>
+  </si>
+  <si>
+    <t>rutuja@itc.com</t>
+  </si>
+  <si>
+    <t>Mayu</t>
+  </si>
+  <si>
+    <t>ZPS Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Sojal</t>
+  </si>
+  <si>
+    <t>sojal@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mr.Mane</t>
+  </si>
+  <si>
+    <t>Mrs.Chopade</t>
+  </si>
+  <si>
+    <t>MP HIGH COURT</t>
+  </si>
+  <si>
+    <t>UP HIGH COURT</t>
+  </si>
+  <si>
+    <t>ABCZ</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1459,7 +1487,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1677,7 +1705,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1688,7 +1716,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1699,7 +1727,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -1788,7 +1816,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1832,7 +1860,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1928,7 +1956,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2071,7 +2099,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2084,7 +2112,7 @@
         <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2092,7 +2120,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2159,7 +2187,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2180,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2195,6 +2223,52 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="admin@123" xr:uid="{2BACB189-3764-445B-A4EF-16E50FBA329C}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{25CCD688-D32D-43A1-B399-B73AE340FF50}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE381358-C991-4A6A-B6DF-463DDEB991C8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D7D0218F-5DAE-4295-8535-2DAC634E6188}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{2782D8F8-FE40-45FE-99FF-143190FBD99D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2220,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2443,7 +2517,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2454,7 +2528,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2465,7 +2539,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2721,7 +2795,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3112,10 +3186,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3199,307 +3273,323 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="16" customFormat="1">
-      <c r="A16" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="17"/>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="16" customFormat="1">
+      <c r="A18" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19">
-        <v>8796543294</v>
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" t="s">
-        <v>179</v>
+        <v>128</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" t="s">
-        <v>164</v>
+        <v>144</v>
+      </c>
+      <c r="B21">
+        <v>8796543294</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A24" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" t="s">
-        <v>167</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>184</v>
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29">
-        <v>9943234594</v>
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="16" customFormat="1">
-      <c r="A31" s="18" t="s">
-        <v>152</v>
+        <v>128</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31">
+        <v>9943234594</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="16" customFormat="1">
+      <c r="A33" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>148</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="16" customFormat="1">
-      <c r="A34" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="16" customFormat="1">
+      <c r="A36" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>149</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="16" customFormat="1">
-      <c r="A37" s="18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="16" customFormat="1">
+      <c r="A39" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>150</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="16" customFormat="1">
-      <c r="A40" s="18" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="16" customFormat="1">
+      <c r="A42" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>155</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="16" customFormat="1">
-      <c r="A43" s="18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="16" customFormat="1">
+      <c r="A45" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>157</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="16" customFormat="1">
-      <c r="A46" s="18" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="16" customFormat="1">
+      <c r="A48" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>159</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="16" customFormat="1">
-      <c r="A49" s="18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="16" customFormat="1">
+      <c r="A51" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="18" customFormat="1">
-      <c r="A52" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="18" customFormat="1">
+      <c r="A54" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>162</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>162</v>
-      </c>
-      <c r="B54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="18" customFormat="1">
-      <c r="A55" s="18" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="18" customFormat="1">
+      <c r="A57" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>163</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3508,12 +3598,13 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{CAC18B71-01F6-4D0E-8555-7B54C2321DEA}"/>
     <hyperlink ref="B14" r:id="rId3" xr:uid="{14D7A191-A921-482C-BC45-AD160CC1BABE}"/>
-    <hyperlink ref="B18" r:id="rId4" xr:uid="{687081DC-AF3B-442D-98F3-593F00E7E410}"/>
-    <hyperlink ref="B28" r:id="rId5" xr:uid="{860EF50E-A108-4410-BDBB-B038861632B7}"/>
-    <hyperlink ref="B39" r:id="rId6" display="ABCD@itc.com" xr:uid="{B0F41859-D600-4926-93BC-907215950128}"/>
+    <hyperlink ref="B20" r:id="rId4" xr:uid="{687081DC-AF3B-442D-98F3-593F00E7E410}"/>
+    <hyperlink ref="B30" r:id="rId5" xr:uid="{860EF50E-A108-4410-BDBB-B038861632B7}"/>
+    <hyperlink ref="B41" r:id="rId6" display="ABCD@itc.com" xr:uid="{B0F41859-D600-4926-93BC-907215950128}"/>
+    <hyperlink ref="B17" r:id="rId7" xr:uid="{5250EC48-6C5D-44C8-8A7B-023DDA7269E8}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3525,7 +3616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -3929,7 +4020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:XFD54"/>
     </sheetView>
   </sheetViews>
@@ -4419,14 +4510,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4458,7 +4549,7 @@
         <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4518,7 +4609,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4529,7 +4620,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4540,7 +4631,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -4575,7 +4666,7 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4638,7 +4729,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4675,7 +4766,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -4771,7 +4862,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4816,7 +4907,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4829,7 +4920,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>740680</v>
+        <v>8432307</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4837,7 +4928,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4868,7 +4959,7 @@
         <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4884,7 +4975,7 @@
         <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4892,7 +4983,7 @@
         <v>128</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4900,7 +4991,23 @@
         <v>169</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>236</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -4914,7 +5021,7 @@
         <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4922,7 +5029,7 @@
         <v>128</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4938,7 +5045,7 @@
         <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4946,7 +5053,7 @@
         <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4962,7 +5069,7 @@
         <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
@@ -4975,7 +5082,7 @@
         <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4983,7 +5090,7 @@
         <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4999,7 +5106,7 @@
         <v>128</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5028,15 +5135,15 @@
         <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5049,7 +5156,7 @@
         <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5057,7 +5164,7 @@
         <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5070,7 +5177,7 @@
         <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5078,7 +5185,7 @@
         <v>150</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5097,7 +5204,7 @@
         <v>155</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5105,7 +5212,7 @@
         <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5118,7 +5225,7 @@
         <v>157</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5126,7 +5233,7 @@
         <v>157</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5139,7 +5246,7 @@
         <v>159</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5147,7 +5254,7 @@
         <v>159</v>
       </c>
       <c r="B115" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5160,7 +5267,7 @@
         <v>160</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5168,7 +5275,7 @@
         <v>160</v>
       </c>
       <c r="B120" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5181,7 +5288,7 @@
         <v>162</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5189,7 +5296,7 @@
         <v>162</v>
       </c>
       <c r="B125" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5202,7 +5309,7 @@
         <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5210,7 +5317,7 @@
         <v>163</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5221,8 +5328,9 @@
     <hyperlink ref="B73" r:id="rId4" xr:uid="{2059D86D-C042-4175-BAC8-3B9C0EBADE99}"/>
     <hyperlink ref="B84" r:id="rId5" xr:uid="{5AE42020-86AD-422A-9FA2-D451A3CC4D6D}"/>
     <hyperlink ref="B100" r:id="rId6" display="ABCD@itc.com" xr:uid="{5DF98E99-1E86-4022-ACA2-6ED88F1426C3}"/>
+    <hyperlink ref="B70" r:id="rId7" xr:uid="{B1C87BA6-B9D8-4EB2-AE72-597B29140368}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11592EC8-1343-4DA2-88D4-B918BC7CA47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF1BDC4-0A7B-495B-8998-E9273B9310B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <sheet name="ExternalLawyer" sheetId="10" r:id="rId10"/>
     <sheet name="FE" sheetId="11" r:id="rId11"/>
     <sheet name="Mgmt" sheetId="12" r:id="rId12"/>
+    <sheet name="Login" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="272">
   <si>
     <t>URL</t>
   </si>
@@ -716,6 +717,9 @@
     <t>Ref no-40972</t>
   </si>
   <si>
+    <t>Patil</t>
+  </si>
+  <si>
     <t>rudra@itc.com</t>
   </si>
   <si>
@@ -749,100 +753,106 @@
     <t>mgmt@avantis.info</t>
   </si>
   <si>
-    <t>Previous notice (parliamentary procedure)</t>
-  </si>
-  <si>
-    <t>AutoPay</t>
-  </si>
-  <si>
-    <t>Mobile Wallet</t>
-  </si>
-  <si>
-    <t>ABCEY</t>
-  </si>
-  <si>
-    <t>Parameter 17feb23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Filing of Plaint</t>
-  </si>
-  <si>
-    <t>Issuing of Summons</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HTML Text one</t>
-  </si>
-  <si>
-    <t>XHTML one</t>
-  </si>
-  <si>
-    <t>Solvency Ratios</t>
-  </si>
-  <si>
-    <t>Market Prospect Ratios.</t>
-  </si>
-  <si>
-    <t>New Notice of intention one automate</t>
-  </si>
-  <si>
-    <t>Statement of estimated costs automate</t>
-  </si>
-  <si>
-    <t>Sawant</t>
-  </si>
-  <si>
-    <t>Gaikwad</t>
-  </si>
-  <si>
-    <t>Akola</t>
-  </si>
-  <si>
-    <t>Shobha</t>
-  </si>
-  <si>
-    <t>shobha@gmail.com</t>
-  </si>
-  <si>
-    <t>Amravati</t>
-  </si>
-  <si>
-    <t>Amritsar</t>
-  </si>
-  <si>
-    <t>sagar@gmail.com</t>
-  </si>
-  <si>
-    <t>QRS Pvt Ltd</t>
-  </si>
-  <si>
-    <t>rutuja@itc.com</t>
-  </si>
-  <si>
-    <t>Mayu</t>
-  </si>
-  <si>
-    <t>ZPS Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Sojal</t>
-  </si>
-  <si>
-    <t>sojal@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mr.Mane</t>
-  </si>
-  <si>
-    <t>Mrs.Chopade</t>
-  </si>
-  <si>
-    <t>MP HIGH COURT</t>
-  </si>
-  <si>
-    <t>UP HIGH COURT</t>
-  </si>
-  <si>
-    <t>ABCZ</t>
+    <t xml:space="preserve"> debit cards For SBI</t>
+  </si>
+  <si>
+    <t>Credit Cards for SBI</t>
+  </si>
+  <si>
+    <t>ACYBZY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter 18 feb 23 </t>
+  </si>
+  <si>
+    <t>Documents Required. For case</t>
+  </si>
+  <si>
+    <t>The appearance of the Parties to the Dispute.</t>
+  </si>
+  <si>
+    <t>XML File for Doc</t>
+  </si>
+  <si>
+    <t>SOBJ</t>
+  </si>
+  <si>
+    <t>Documents Required new</t>
+  </si>
+  <si>
+    <t>Written Statement new</t>
+  </si>
+  <si>
+    <t>Graphic Rating Scale New test</t>
+  </si>
+  <si>
+    <t>Numerical Rating Scale test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> final one is Constructive notice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> third one is an Actual Notice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kashmir High Court</t>
+  </si>
+  <si>
+    <t>Koregaon</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>krishna@yahoo.com</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Kashmir</t>
+  </si>
+  <si>
+    <t>asmita8920@itc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAS PQR PARTNERS ABC </t>
+  </si>
+  <si>
+    <t>gmailo7689@itc.com</t>
+  </si>
+  <si>
+    <t>Dilip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYRIL PQR ABC MANGALDAS </t>
+  </si>
+  <si>
+    <t>Sumit</t>
+  </si>
+  <si>
+    <t>sumit@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mr. Kumar</t>
+  </si>
+  <si>
+    <t>Mr. Kasare</t>
+  </si>
+  <si>
+    <t>Kochin High Court</t>
+  </si>
+  <si>
+    <t>ganesh123@avantis.info</t>
+  </si>
+  <si>
+    <t>ganesh13@avantis.info</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc firm </t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2243,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2254,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2269,6 +2279,88 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{D7D0218F-5DAE-4295-8535-2DAC634E6188}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{2782D8F8-FE40-45FE-99FF-143190FBD99D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5889D98-19EB-4DE2-A578-EADE97833F4C}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{FD5C26A6-36A0-43F1-B8ED-E2E0A4CE60B5}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{D1E8B811-B6D6-4C42-8F6E-2B4AA658733F}"/>
+    <hyperlink ref="B7" r:id="rId3" display="admin@123" xr:uid="{DAD6E838-4B8A-4139-8A89-85289AB8B055}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{D2A3D594-27EE-42F8-BC6D-8DB96CD0383B}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{D7714A63-2C2F-446D-AA30-87615FB40CA9}"/>
+    <hyperlink ref="B4" r:id="rId6" display="admin@123" xr:uid="{E07A122F-87A9-43A3-90D3-FBA87FD802E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2279,7 +2371,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2488,7 +2580,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3275,10 +3367,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3286,7 +3378,7 @@
         <v>128</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3616,8 +3708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3826,7 +3918,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4510,8 +4602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4549,7 +4641,7 @@
         <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4582,7 +4674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26.4">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4609,7 +4701,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4620,7 +4712,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4666,7 +4758,7 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4729,7 +4821,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4766,7 +4858,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -4907,7 +4999,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4928,7 +5020,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4959,7 +5051,7 @@
         <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4975,7 +5067,7 @@
         <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4983,7 +5075,7 @@
         <v>128</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4991,15 +5083,15 @@
         <v>169</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5007,7 +5099,7 @@
         <v>128</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -5021,7 +5113,7 @@
         <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5029,7 +5121,7 @@
         <v>128</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5044,8 +5136,8 @@
       <c r="A75" t="s">
         <v>145</v>
       </c>
-      <c r="B75" t="s">
-        <v>260</v>
+      <c r="B75" s="15" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5053,7 +5145,7 @@
         <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5069,7 +5161,7 @@
         <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
@@ -5082,7 +5174,7 @@
         <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5090,7 +5182,7 @@
         <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5106,7 +5198,7 @@
         <v>128</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5135,7 +5227,7 @@
         <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5143,7 +5235,7 @@
         <v>209</v>
       </c>
       <c r="B90" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5156,7 +5248,7 @@
         <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5164,7 +5256,7 @@
         <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5177,7 +5269,7 @@
         <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5185,7 +5277,7 @@
         <v>150</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5288,7 +5380,7 @@
         <v>162</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5296,7 +5388,7 @@
         <v>162</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5309,7 +5401,7 @@
         <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5317,7 +5409,7 @@
         <v>163</v>
       </c>
       <c r="B130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5329,8 +5421,9 @@
     <hyperlink ref="B84" r:id="rId5" xr:uid="{5AE42020-86AD-422A-9FA2-D451A3CC4D6D}"/>
     <hyperlink ref="B100" r:id="rId6" display="ABCD@itc.com" xr:uid="{5DF98E99-1E86-4022-ACA2-6ED88F1426C3}"/>
     <hyperlink ref="B70" r:id="rId7" xr:uid="{B1C87BA6-B9D8-4EB2-AE72-597B29140368}"/>
+    <hyperlink ref="B75" r:id="rId8" display="siddhi@itc.com" xr:uid="{1B138B29-0AAD-4192-96AE-899BD0BC07BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF1BDC4-0A7B-495B-8998-E9273B9310B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F90C24-B45B-4A40-9D0C-AECE6D49FFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="267">
   <si>
     <t>URL</t>
   </si>
@@ -669,9 +669,36 @@
     <t>Edit Opponent Name</t>
   </si>
   <si>
+    <t>S Pvt Ltd</t>
+  </si>
+  <si>
     <t>High Court of Gujarat</t>
   </si>
   <si>
+    <t>High Court of Panjab</t>
+  </si>
+  <si>
+    <t>UPI</t>
+  </si>
+  <si>
+    <t>Automate Test New One</t>
+  </si>
+  <si>
+    <t>Framing of Issues.</t>
+  </si>
+  <si>
+    <t>XHTML</t>
+  </si>
+  <si>
+    <t>Graphic rating</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>komal@itc.com</t>
+  </si>
+  <si>
     <t>CBI</t>
   </si>
   <si>
@@ -717,12 +744,60 @@
     <t>Ref no-40972</t>
   </si>
   <si>
+    <t>Q Pvt Ltd</t>
+  </si>
+  <si>
+    <t>L Pvt Ltd</t>
+  </si>
+  <si>
+    <t>ab@itc.com</t>
+  </si>
+  <si>
+    <t>Kajal</t>
+  </si>
+  <si>
+    <t>Z Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Rudransh</t>
+  </si>
+  <si>
     <t>Patil</t>
   </si>
   <si>
     <t>rudra@itc.com</t>
   </si>
   <si>
+    <t>Mr.Desai</t>
+  </si>
+  <si>
+    <t>Mr.Jadhav</t>
+  </si>
+  <si>
+    <t>High Court of Rajsthan</t>
+  </si>
+  <si>
+    <t>Implied Notice New</t>
+  </si>
+  <si>
+    <t>AEPSW</t>
+  </si>
+  <si>
+    <t>ABCE</t>
+  </si>
+  <si>
+    <t>Institution of suit One.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HTML Text</t>
+  </si>
+  <si>
+    <t>Financial Ratio New Automate</t>
+  </si>
+  <si>
+    <t>New Notice of intention one</t>
+  </si>
+  <si>
     <t>Task as on 152023</t>
   </si>
   <si>
@@ -751,96 +826,6 @@
   </si>
   <si>
     <t>mgmt@avantis.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> debit cards For SBI</t>
-  </si>
-  <si>
-    <t>Credit Cards for SBI</t>
-  </si>
-  <si>
-    <t>ACYBZY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter 18 feb 23 </t>
-  </si>
-  <si>
-    <t>Documents Required. For case</t>
-  </si>
-  <si>
-    <t>The appearance of the Parties to the Dispute.</t>
-  </si>
-  <si>
-    <t>XML File for Doc</t>
-  </si>
-  <si>
-    <t>SOBJ</t>
-  </si>
-  <si>
-    <t>Documents Required new</t>
-  </si>
-  <si>
-    <t>Written Statement new</t>
-  </si>
-  <si>
-    <t>Graphic Rating Scale New test</t>
-  </si>
-  <si>
-    <t>Numerical Rating Scale test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> final one is Constructive notice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> third one is an Actual Notice. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Kashmir High Court</t>
-  </si>
-  <si>
-    <t>Koregaon</t>
-  </si>
-  <si>
-    <t>Krishna</t>
-  </si>
-  <si>
-    <t>krishna@yahoo.com</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Kashmir</t>
-  </si>
-  <si>
-    <t>asmita8920@itc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAS PQR PARTNERS ABC </t>
-  </si>
-  <si>
-    <t>gmailo7689@itc.com</t>
-  </si>
-  <si>
-    <t>Dilip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYRIL PQR ABC MANGALDAS </t>
-  </si>
-  <si>
-    <t>Sumit</t>
-  </si>
-  <si>
-    <t>sumit@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mr. Kumar</t>
-  </si>
-  <si>
-    <t>Mr. Kasare</t>
-  </si>
-  <si>
-    <t>Kochin High Court</t>
   </si>
   <si>
     <t>ganesh123@avantis.info</t>
@@ -1481,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1497,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1715,7 +1700,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1726,7 +1711,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1737,7 +1722,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -1826,7 +1811,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1870,7 +1855,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1966,7 +1951,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2109,7 +2094,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2122,7 +2107,7 @@
         <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2130,7 +2115,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2218,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2243,7 +2228,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2264,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2285,16 +2270,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5889D98-19EB-4DE2-A578-EADE97833F4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777FA101-43EE-4E1F-9BC7-659D2E9D41AB}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2309,15 +2294,15 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>268</v>
+      <c r="B2" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2325,15 +2310,15 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>269</v>
+      <c r="B4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2341,27 +2326,19 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>269</v>
+      <c r="B6" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>270</v>
+      <c r="B7" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{FD5C26A6-36A0-43F1-B8ED-E2E0A4CE60B5}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{D1E8B811-B6D6-4C42-8F6E-2B4AA658733F}"/>
-    <hyperlink ref="B7" r:id="rId3" display="admin@123" xr:uid="{DAD6E838-4B8A-4139-8A89-85289AB8B055}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{D2A3D594-27EE-42F8-BC6D-8DB96CD0383B}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{D7714A63-2C2F-446D-AA30-87615FB40CA9}"/>
-    <hyperlink ref="B4" r:id="rId6" display="admin@123" xr:uid="{E07A122F-87A9-43A3-90D3-FBA87FD802E5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2370,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2386,7 +2363,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2580,7 +2557,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2609,7 +2586,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2620,7 +2597,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2631,7 +2608,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2887,7 +2864,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3367,10 +3344,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3378,7 +3355,7 @@
         <v>128</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3709,7 +3686,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3918,7 +3895,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4602,14 +4579,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4641,7 +4618,7 @@
         <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4674,7 +4651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="26.4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4701,7 +4678,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4712,7 +4689,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4758,7 +4735,7 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4821,7 +4798,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4858,7 +4835,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -4954,7 +4931,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4999,7 +4976,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5020,7 +4997,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5051,7 +5028,7 @@
         <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5067,7 +5044,7 @@
         <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5075,7 +5052,7 @@
         <v>128</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5083,15 +5060,15 @@
         <v>169</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5099,7 +5076,7 @@
         <v>128</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -5113,7 +5090,7 @@
         <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5121,7 +5098,7 @@
         <v>128</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5136,8 +5113,8 @@
       <c r="A75" t="s">
         <v>145</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>261</v>
+      <c r="B75" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5145,7 +5122,7 @@
         <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5161,7 +5138,7 @@
         <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
@@ -5174,7 +5151,7 @@
         <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5182,7 +5159,7 @@
         <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5198,7 +5175,7 @@
         <v>128</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5227,7 +5204,7 @@
         <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5235,7 +5212,7 @@
         <v>209</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5248,7 +5225,7 @@
         <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5256,7 +5233,7 @@
         <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5269,7 +5246,7 @@
         <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5277,7 +5254,7 @@
         <v>150</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5296,7 +5273,7 @@
         <v>155</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5304,7 +5281,7 @@
         <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5317,7 +5294,7 @@
         <v>157</v>
       </c>
       <c r="B109" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5325,7 +5302,7 @@
         <v>157</v>
       </c>
       <c r="B110" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5338,7 +5315,7 @@
         <v>159</v>
       </c>
       <c r="B114" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5346,7 +5323,7 @@
         <v>159</v>
       </c>
       <c r="B115" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5359,7 +5336,7 @@
         <v>160</v>
       </c>
       <c r="B119" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5367,7 +5344,7 @@
         <v>160</v>
       </c>
       <c r="B120" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5380,7 +5357,7 @@
         <v>162</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5388,7 +5365,7 @@
         <v>162</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5401,7 +5378,7 @@
         <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5409,7 +5386,7 @@
         <v>163</v>
       </c>
       <c r="B130" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -5421,9 +5398,8 @@
     <hyperlink ref="B84" r:id="rId5" xr:uid="{5AE42020-86AD-422A-9FA2-D451A3CC4D6D}"/>
     <hyperlink ref="B100" r:id="rId6" display="ABCD@itc.com" xr:uid="{5DF98E99-1E86-4022-ACA2-6ED88F1426C3}"/>
     <hyperlink ref="B70" r:id="rId7" xr:uid="{B1C87BA6-B9D8-4EB2-AE72-597B29140368}"/>
-    <hyperlink ref="B75" r:id="rId8" display="siddhi@itc.com" xr:uid="{1B138B29-0AAD-4192-96AE-899BD0BC07BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F90C24-B45B-4A40-9D0C-AECE6D49FFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF1BDC4-0A7B-495B-8998-E9273B9310B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="272">
   <si>
     <t>URL</t>
   </si>
@@ -669,36 +669,9 @@
     <t>Edit Opponent Name</t>
   </si>
   <si>
-    <t>S Pvt Ltd</t>
-  </si>
-  <si>
     <t>High Court of Gujarat</t>
   </si>
   <si>
-    <t>High Court of Panjab</t>
-  </si>
-  <si>
-    <t>UPI</t>
-  </si>
-  <si>
-    <t>Automate Test New One</t>
-  </si>
-  <si>
-    <t>Framing of Issues.</t>
-  </si>
-  <si>
-    <t>XHTML</t>
-  </si>
-  <si>
-    <t>Graphic rating</t>
-  </si>
-  <si>
-    <t>Komal</t>
-  </si>
-  <si>
-    <t>komal@itc.com</t>
-  </si>
-  <si>
     <t>CBI</t>
   </si>
   <si>
@@ -744,60 +717,12 @@
     <t>Ref no-40972</t>
   </si>
   <si>
-    <t>Q Pvt Ltd</t>
-  </si>
-  <si>
-    <t>L Pvt Ltd</t>
-  </si>
-  <si>
-    <t>ab@itc.com</t>
-  </si>
-  <si>
-    <t>Kajal</t>
-  </si>
-  <si>
-    <t>Z Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Rudransh</t>
-  </si>
-  <si>
     <t>Patil</t>
   </si>
   <si>
     <t>rudra@itc.com</t>
   </si>
   <si>
-    <t>Mr.Desai</t>
-  </si>
-  <si>
-    <t>Mr.Jadhav</t>
-  </si>
-  <si>
-    <t>High Court of Rajsthan</t>
-  </si>
-  <si>
-    <t>Implied Notice New</t>
-  </si>
-  <si>
-    <t>AEPSW</t>
-  </si>
-  <si>
-    <t>ABCE</t>
-  </si>
-  <si>
-    <t>Institution of suit One.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HTML Text</t>
-  </si>
-  <si>
-    <t>Financial Ratio New Automate</t>
-  </si>
-  <si>
-    <t>New Notice of intention one</t>
-  </si>
-  <si>
     <t>Task as on 152023</t>
   </si>
   <si>
@@ -826,6 +751,96 @@
   </si>
   <si>
     <t>mgmt@avantis.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> debit cards For SBI</t>
+  </si>
+  <si>
+    <t>Credit Cards for SBI</t>
+  </si>
+  <si>
+    <t>ACYBZY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter 18 feb 23 </t>
+  </si>
+  <si>
+    <t>Documents Required. For case</t>
+  </si>
+  <si>
+    <t>The appearance of the Parties to the Dispute.</t>
+  </si>
+  <si>
+    <t>XML File for Doc</t>
+  </si>
+  <si>
+    <t>SOBJ</t>
+  </si>
+  <si>
+    <t>Documents Required new</t>
+  </si>
+  <si>
+    <t>Written Statement new</t>
+  </si>
+  <si>
+    <t>Graphic Rating Scale New test</t>
+  </si>
+  <si>
+    <t>Numerical Rating Scale test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> final one is Constructive notice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> third one is an Actual Notice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Kashmir High Court</t>
+  </si>
+  <si>
+    <t>Koregaon</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>krishna@yahoo.com</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Kashmir</t>
+  </si>
+  <si>
+    <t>asmita8920@itc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAS PQR PARTNERS ABC </t>
+  </si>
+  <si>
+    <t>gmailo7689@itc.com</t>
+  </si>
+  <si>
+    <t>Dilip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYRIL PQR ABC MANGALDAS </t>
+  </si>
+  <si>
+    <t>Sumit</t>
+  </si>
+  <si>
+    <t>sumit@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mr. Kumar</t>
+  </si>
+  <si>
+    <t>Mr. Kasare</t>
+  </si>
+  <si>
+    <t>Kochin High Court</t>
   </si>
   <si>
     <t>ganesh123@avantis.info</t>
@@ -1466,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1482,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1700,7 +1715,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1711,7 +1726,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1722,7 +1737,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -1811,7 +1826,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1855,7 +1870,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1951,7 +1966,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2094,7 +2109,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2107,7 +2122,7 @@
         <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2115,7 +2130,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2203,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2228,7 +2243,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2249,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2270,16 +2285,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777FA101-43EE-4E1F-9BC7-659D2E9D41AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5889D98-19EB-4DE2-A578-EADE97833F4C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2294,15 +2309,15 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>263</v>
+      <c r="B2" s="15" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2310,15 +2325,15 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>264</v>
+      <c r="B4" s="15" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2326,19 +2341,27 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>264</v>
+      <c r="B6" s="15" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>265</v>
+      <c r="B7" s="15" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{FD5C26A6-36A0-43F1-B8ED-E2E0A4CE60B5}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{D1E8B811-B6D6-4C42-8F6E-2B4AA658733F}"/>
+    <hyperlink ref="B7" r:id="rId3" display="admin@123" xr:uid="{DAD6E838-4B8A-4139-8A89-85289AB8B055}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{D2A3D594-27EE-42F8-BC6D-8DB96CD0383B}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{D7714A63-2C2F-446D-AA30-87615FB40CA9}"/>
+    <hyperlink ref="B4" r:id="rId6" display="admin@123" xr:uid="{E07A122F-87A9-43A3-90D3-FBA87FD802E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2347,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2363,7 +2386,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2557,7 +2580,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2586,7 +2609,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2597,7 +2620,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2608,7 +2631,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2864,7 +2887,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3344,10 +3367,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3355,7 +3378,7 @@
         <v>128</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3686,7 +3709,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3895,7 +3918,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4579,14 +4602,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4618,7 +4641,7 @@
         <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4651,7 +4674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26.4">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4678,7 +4701,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4689,7 +4712,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4735,7 +4758,7 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4798,7 +4821,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4835,7 +4858,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -4931,7 +4954,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4976,7 +4999,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4997,7 +5020,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5028,7 +5051,7 @@
         <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5044,7 +5067,7 @@
         <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5052,7 +5075,7 @@
         <v>128</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5060,15 +5083,15 @@
         <v>169</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5076,7 +5099,7 @@
         <v>128</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -5090,7 +5113,7 @@
         <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5098,7 +5121,7 @@
         <v>128</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5113,8 +5136,8 @@
       <c r="A75" t="s">
         <v>145</v>
       </c>
-      <c r="B75" t="s">
-        <v>238</v>
+      <c r="B75" s="15" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5122,7 +5145,7 @@
         <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5138,7 +5161,7 @@
         <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
@@ -5151,7 +5174,7 @@
         <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5159,7 +5182,7 @@
         <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5175,7 +5198,7 @@
         <v>128</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5204,7 +5227,7 @@
         <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5212,7 +5235,7 @@
         <v>209</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5225,7 +5248,7 @@
         <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5233,7 +5256,7 @@
         <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5246,7 +5269,7 @@
         <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5254,7 +5277,7 @@
         <v>150</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5273,7 +5296,7 @@
         <v>155</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5281,7 +5304,7 @@
         <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5294,7 +5317,7 @@
         <v>157</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5302,7 +5325,7 @@
         <v>157</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5315,7 +5338,7 @@
         <v>159</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5323,7 +5346,7 @@
         <v>159</v>
       </c>
       <c r="B115" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5336,7 +5359,7 @@
         <v>160</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5344,7 +5367,7 @@
         <v>160</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5357,7 +5380,7 @@
         <v>162</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5365,7 +5388,7 @@
         <v>162</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5378,7 +5401,7 @@
         <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5386,7 +5409,7 @@
         <v>163</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5398,8 +5421,9 @@
     <hyperlink ref="B84" r:id="rId5" xr:uid="{5AE42020-86AD-422A-9FA2-D451A3CC4D6D}"/>
     <hyperlink ref="B100" r:id="rId6" display="ABCD@itc.com" xr:uid="{5DF98E99-1E86-4022-ACA2-6ED88F1426C3}"/>
     <hyperlink ref="B70" r:id="rId7" xr:uid="{B1C87BA6-B9D8-4EB2-AE72-597B29140368}"/>
+    <hyperlink ref="B75" r:id="rId8" display="siddhi@itc.com" xr:uid="{1B138B29-0AAD-4192-96AE-899BD0BC07BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F90C24-B45B-4A40-9D0C-AECE6D49FFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A0C435-7810-44E7-900C-834C4F9F8B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="278">
   <si>
     <t>URL</t>
   </si>
@@ -375,33 +375,12 @@
     <t xml:space="preserve">Amount </t>
   </si>
   <si>
-    <t>Automate Test7</t>
-  </si>
-  <si>
-    <t>Automation Test 6</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
-    <t>New Task Automate20</t>
-  </si>
-  <si>
-    <t>Case No0937856</t>
-  </si>
-  <si>
-    <t>case no 846753</t>
-  </si>
-  <si>
-    <t>New Task  Description05</t>
-  </si>
-  <si>
     <t>New Expected Outcome 46</t>
   </si>
   <si>
-    <t>New Task 45</t>
-  </si>
-  <si>
     <t>New Task 038 Description</t>
   </si>
   <si>
@@ -438,36 +417,15 @@
     <t>New Expected Outcome 55</t>
   </si>
   <si>
-    <t>New Task 587</t>
-  </si>
-  <si>
     <t>New Task 585 Description</t>
   </si>
   <si>
-    <t>No 23202309</t>
-  </si>
-  <si>
-    <t>New Task Automate2011</t>
-  </si>
-  <si>
     <t>New Task  Description0555</t>
   </si>
   <si>
-    <t>Automation Test 67</t>
-  </si>
-  <si>
-    <t>Case No0937567</t>
-  </si>
-  <si>
-    <t>New Task Automate243</t>
-  </si>
-  <si>
     <t>New Task  Description243</t>
   </si>
   <si>
-    <t>Ref-98796857</t>
-  </si>
-  <si>
     <t xml:space="preserve">Law Firm </t>
   </si>
   <si>
@@ -540,9 +498,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>yadav</t>
-  </si>
-  <si>
     <t>Dehli</t>
   </si>
   <si>
@@ -555,84 +510,6 @@
     <t>Edit Opponenet Name</t>
   </si>
   <si>
-    <t xml:space="preserve"> Internet Banking</t>
-  </si>
-  <si>
-    <t>Banking Cards.</t>
-  </si>
-  <si>
-    <t>Automate Test New</t>
-  </si>
-  <si>
-    <t>Financial Ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tamilnadu High Court </t>
-  </si>
-  <si>
-    <t>Telanagna HIGH COURT</t>
-  </si>
-  <si>
-    <t>Satara</t>
-  </si>
-  <si>
-    <t>Sayali</t>
-  </si>
-  <si>
-    <t>sayali@itc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D Pvt Ltd</t>
-  </si>
-  <si>
-    <t>D Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Teju</t>
-  </si>
-  <si>
-    <t>teju@gmail.com</t>
-  </si>
-  <si>
-    <t>Mr.Oberoy</t>
-  </si>
-  <si>
-    <t>Mr.Sawant</t>
-  </si>
-  <si>
-    <t>Public notice.</t>
-  </si>
-  <si>
-    <t>Judicial notice</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>Notice of intention</t>
-  </si>
-  <si>
-    <t>Statement of estimated costs</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> XHTML</t>
-  </si>
-  <si>
-    <t>Case filing</t>
-  </si>
-  <si>
-    <t>Judgement and decree</t>
-  </si>
-  <si>
-    <t>Y Pvt Ltd</t>
-  </si>
-  <si>
-    <t>ABCDY@itc.com</t>
-  </si>
-  <si>
     <t>cfo@bitaconsulting.co.in</t>
   </si>
   <si>
@@ -669,36 +546,9 @@
     <t>Edit Opponent Name</t>
   </si>
   <si>
-    <t>S Pvt Ltd</t>
-  </si>
-  <si>
     <t>High Court of Gujarat</t>
   </si>
   <si>
-    <t>High Court of Panjab</t>
-  </si>
-  <si>
-    <t>UPI</t>
-  </si>
-  <si>
-    <t>Automate Test New One</t>
-  </si>
-  <si>
-    <t>Framing of Issues.</t>
-  </si>
-  <si>
-    <t>XHTML</t>
-  </si>
-  <si>
-    <t>Graphic rating</t>
-  </si>
-  <si>
-    <t>Komal</t>
-  </si>
-  <si>
-    <t>komal@itc.com</t>
-  </si>
-  <si>
     <t>CBI</t>
   </si>
   <si>
@@ -732,99 +582,15 @@
     <t>fe@bitaconsulting.co.in</t>
   </si>
   <si>
-    <t>New Task  Description201</t>
-  </si>
-  <si>
-    <t>New Expected Outcome 44</t>
-  </si>
-  <si>
-    <t>New Task Automate53</t>
-  </si>
-  <si>
-    <t>Ref no-40972</t>
-  </si>
-  <si>
-    <t>Q Pvt Ltd</t>
-  </si>
-  <si>
-    <t>L Pvt Ltd</t>
-  </si>
-  <si>
-    <t>ab@itc.com</t>
-  </si>
-  <si>
-    <t>Kajal</t>
-  </si>
-  <si>
-    <t>Z Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Rudransh</t>
-  </si>
-  <si>
     <t>Patil</t>
   </si>
   <si>
-    <t>rudra@itc.com</t>
-  </si>
-  <si>
-    <t>Mr.Desai</t>
-  </si>
-  <si>
-    <t>Mr.Jadhav</t>
-  </si>
-  <si>
-    <t>High Court of Rajsthan</t>
-  </si>
-  <si>
-    <t>Implied Notice New</t>
-  </si>
-  <si>
-    <t>AEPSW</t>
-  </si>
-  <si>
-    <t>ABCE</t>
-  </si>
-  <si>
-    <t>Institution of suit One.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HTML Text</t>
-  </si>
-  <si>
-    <t>Financial Ratio New Automate</t>
-  </si>
-  <si>
-    <t>New Notice of intention one</t>
-  </si>
-  <si>
-    <t>Task as on 152023</t>
-  </si>
-  <si>
     <t>Subunits</t>
   </si>
   <si>
-    <t>LNT pvt ltd</t>
-  </si>
-  <si>
     <t>Task as on date 16022023</t>
   </si>
   <si>
-    <t>Order16feb2023</t>
-  </si>
-  <si>
-    <t>Ref no 290930</t>
-  </si>
-  <si>
-    <t>Case No 010450704</t>
-  </si>
-  <si>
-    <t>Case No 25099870</t>
-  </si>
-  <si>
-    <t>Automate Test New 109706023</t>
-  </si>
-  <si>
     <t>mgmt@avantis.info</t>
   </si>
   <si>
@@ -838,6 +604,274 @@
   </si>
   <si>
     <t xml:space="preserve">abc firm </t>
+  </si>
+  <si>
+    <t>Automation Test 6237</t>
+  </si>
+  <si>
+    <t>Automate Test8</t>
+  </si>
+  <si>
+    <t>New Task  Description056</t>
+  </si>
+  <si>
+    <t>New Task  Description17</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 454</t>
+  </si>
+  <si>
+    <t>Automate Test4</t>
+  </si>
+  <si>
+    <t>Automation  20450233</t>
+  </si>
+  <si>
+    <t>Task as on 1520223</t>
+  </si>
+  <si>
+    <t>Task as on date 4217236</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>SAAP Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Krishu</t>
+  </si>
+  <si>
+    <t>krishu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Karnataka Pvt Ltdd</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>ashma89210@itc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+AQUILAW</t>
+  </si>
+  <si>
+    <t>aks@gmail.com</t>
+  </si>
+  <si>
+    <t>Priyal</t>
+  </si>
+  <si>
+    <t>Anhad Law</t>
+  </si>
+  <si>
+    <t>Unnati</t>
+  </si>
+  <si>
+    <t>unnati@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mr. Jagtap</t>
+  </si>
+  <si>
+    <t>Mr. Salunkhe</t>
+  </si>
+  <si>
+    <t>Telangana High Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Meghalaya High Court</t>
+  </si>
+  <si>
+    <t>Notice Drafting Process onetwo</t>
+  </si>
+  <si>
+    <t>Information Signatures on Notice one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Pay one </t>
+  </si>
+  <si>
+    <t>Google Pay. One</t>
+  </si>
+  <si>
+    <t>ACYBZYYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter 24mar 23 </t>
+  </si>
+  <si>
+    <t>New Documents Required. For case New new</t>
+  </si>
+  <si>
+    <t>New The appearance of the Parties to the Dispute new.</t>
+  </si>
+  <si>
+    <t>PowerPoint New</t>
+  </si>
+  <si>
+    <t>MicrosoftWord</t>
+  </si>
+  <si>
+    <t>New Graphic Rating Scale New test new</t>
+  </si>
+  <si>
+    <t>New Numerical Rating Scale test new</t>
+  </si>
+  <si>
+    <t>Two Written Statement new one</t>
+  </si>
+  <si>
+    <t>Two Documents Required new one</t>
+  </si>
+  <si>
+    <t>Order161feb20232</t>
+  </si>
+  <si>
+    <t>Automate Test New 52332573</t>
+  </si>
+  <si>
+    <t>Ref no 52138765</t>
+  </si>
+  <si>
+    <t>Case No 6427864</t>
+  </si>
+  <si>
+    <t>Case No 5234756</t>
+  </si>
+  <si>
+    <t>Ref-7456457</t>
+  </si>
+  <si>
+    <t>New Task Automate243233</t>
+  </si>
+  <si>
+    <t>Case No68657867</t>
+  </si>
+  <si>
+    <t>No 98730359</t>
+  </si>
+  <si>
+    <t>New Task Automate2112231</t>
+  </si>
+  <si>
+    <t>New Task 51287</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 32435463</t>
+  </si>
+  <si>
+    <t>New Task 63451123</t>
+  </si>
+  <si>
+    <t>case no 098167345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 6541345 new test</t>
+  </si>
+  <si>
+    <t>Case 23141323</t>
+  </si>
+  <si>
+    <t>Ref no-7654134560</t>
+  </si>
+  <si>
+    <t>Arora</t>
+  </si>
+  <si>
+    <t>Test Test One</t>
+  </si>
+  <si>
+    <t>Test Automate Test New1</t>
+  </si>
+  <si>
+    <t>One Person Company</t>
+  </si>
+  <si>
+    <t>Kanpur</t>
+  </si>
+  <si>
+    <t>Swapna</t>
+  </si>
+  <si>
+    <t>swapna@gmail.com</t>
+  </si>
+  <si>
+    <t>XPYZ Pvt Ltd</t>
+  </si>
+  <si>
+    <t>AAP Pvt Ltd</t>
+  </si>
+  <si>
+    <t>shrejay@ITC.com</t>
+  </si>
+  <si>
+    <t>PQRST Pvt Ltd</t>
+  </si>
+  <si>
+    <t>ABCDXY@gmail.com</t>
+  </si>
+  <si>
+    <t>Shrijaya</t>
+  </si>
+  <si>
+    <t>ABD Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>arjun@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mr.shaha</t>
+  </si>
+  <si>
+    <t>Mr.Jog</t>
+  </si>
+  <si>
+    <t>MUMBAI SUPRIME COURT.</t>
+  </si>
+  <si>
+    <t>PUNE SUPRIME COURT.</t>
+  </si>
+  <si>
+    <t>NEW ONE Public notice Test</t>
+  </si>
+  <si>
+    <t>Judicial notice Test Test Test</t>
+  </si>
+  <si>
+    <t>New New Banking Cards New.</t>
+  </si>
+  <si>
+    <t>New New Internet Banking New</t>
+  </si>
+  <si>
+    <t>Case filing One</t>
+  </si>
+  <si>
+    <t>Judgement and decree Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XHTMLLLL</t>
+  </si>
+  <si>
+    <t>HTMLLLL</t>
+  </si>
+  <si>
+    <t>Financial Ratio One</t>
+  </si>
+  <si>
+    <t>Automate Test One</t>
+  </si>
+  <si>
+    <t>New Notice of intention New One</t>
+  </si>
+  <si>
+    <t>New Statement of estimated costs New One</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1482,7 +1516,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1605,7 +1639,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1676,7 +1710,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1700,7 +1734,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1711,7 +1745,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1722,7 +1756,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -1811,7 +1845,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1855,7 +1889,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1951,7 +1985,7 @@
         <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2094,7 +2128,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2107,7 +2141,7 @@
         <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2115,7 +2149,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2203,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2211,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2262,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2249,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2270,16 +2304,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777FA101-43EE-4E1F-9BC7-659D2E9D41AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5889D98-19EB-4DE2-A578-EADE97833F4C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2294,15 +2328,15 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>263</v>
+      <c r="B2" s="15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2310,15 +2344,15 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>264</v>
+      <c r="B4" s="15" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2326,19 +2360,27 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>264</v>
+      <c r="B6" s="15" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>265</v>
+      <c r="B7" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{FD5C26A6-36A0-43F1-B8ED-E2E0A4CE60B5}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{D1E8B811-B6D6-4C42-8F6E-2B4AA658733F}"/>
+    <hyperlink ref="B7" r:id="rId3" display="admin@123" xr:uid="{DAD6E838-4B8A-4139-8A89-85289AB8B055}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{D2A3D594-27EE-42F8-BC6D-8DB96CD0383B}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{D7714A63-2C2F-446D-AA30-87615FB40CA9}"/>
+    <hyperlink ref="B4" r:id="rId6" display="admin@123" xr:uid="{E07A122F-87A9-43A3-90D3-FBA87FD802E5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2347,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2363,7 +2405,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2557,7 +2599,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2586,7 +2628,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2597,7 +2639,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2608,7 +2650,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2700,7 +2742,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2752,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2768,7 +2810,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2864,7 +2906,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3009,7 +3051,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3020,7 +3062,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -3031,7 +3073,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -3071,7 +3113,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3084,7 +3126,7 @@
         <v>97</v>
       </c>
       <c r="B40">
-        <v>70</v>
+        <v>5334631412</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3092,7 +3134,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3160,7 +3202,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3175,7 +3217,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -3186,7 +3228,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -3197,7 +3239,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -3257,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3281,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3294,119 +3336,119 @@
     </row>
     <row r="9" spans="1:2" s="9" customFormat="1" ht="15.6">
       <c r="A9" s="19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="16" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
       <c r="A18" s="18" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B21">
-        <v>8796543294</v>
+        <v>7696524324</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -3414,36 +3456,36 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -3451,15 +3493,15 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B31">
         <v>9943234594</v>
@@ -3467,31 +3509,31 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="16" customFormat="1">
       <c r="A33" s="18" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3501,165 +3543,165 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="18" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
       <c r="A42" s="18" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
       <c r="A45" s="18" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
       <c r="A48" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
       <c r="A51" s="18" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
       <c r="A54" s="18" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
       <c r="A57" s="18" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3686,7 +3728,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3701,7 +3743,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3824,7 +3866,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3895,7 +3937,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3925,7 +3967,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -3936,7 +3978,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3947,7 +3989,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4036,7 +4078,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4089,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD54"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4105,7 +4147,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4346,7 +4388,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4357,7 +4399,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4368,7 +4410,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -4408,7 +4450,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4421,7 +4463,7 @@
         <v>97</v>
       </c>
       <c r="B40">
-        <v>90</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4429,7 +4471,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4497,7 +4539,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4513,7 +4555,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -4524,7 +4566,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -4535,7 +4577,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -4579,14 +4621,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4602,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4610,15 +4652,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4631,7 +4673,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -4651,7 +4693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="26.4">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4678,7 +4720,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4689,7 +4731,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4700,7 +4742,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -4711,7 +4753,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4719,7 +4761,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4735,13 +4777,13 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4765,7 +4807,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4798,7 +4840,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4827,7 +4869,7 @@
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4835,7 +4877,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -4923,7 +4965,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4931,7 +4973,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4955,7 +4997,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4976,7 +5018,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4989,7 +5031,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>8432307</v>
+        <v>843222923307</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4997,7 +5039,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5010,30 +5052,30 @@
         <v>101</v>
       </c>
       <c r="B59">
-        <v>4567</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="9" customFormat="1" ht="15.6">
       <c r="A62" s="19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="16" customFormat="1">
       <c r="A63" s="18" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
@@ -5041,69 +5083,69 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
       <c r="A71" s="18" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" ht="26.4">
       <c r="A72" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" t="s">
-        <v>236</v>
+        <v>129</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B74">
         <v>8796543294</v>
@@ -5111,23 +5153,23 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>145</v>
-      </c>
-      <c r="B75" t="s">
-        <v>238</v>
+        <v>131</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -5135,36 +5177,36 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -5172,15 +5214,15 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B85">
         <v>9943234594</v>
@@ -5188,7 +5230,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
@@ -5196,23 +5238,23 @@
     </row>
     <row r="88" spans="1:2" s="16" customFormat="1">
       <c r="A88" s="18" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5222,39 +5264,39 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
       <c r="A98" s="18" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5265,128 +5307,128 @@
     </row>
     <row r="103" spans="1:2" s="16" customFormat="1">
       <c r="A103" s="18" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
       <c r="A108" s="18" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
       <c r="A113" s="18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
       <c r="A118" s="18" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
       <c r="A123" s="18" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
       <c r="A128" s="18" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5398,8 +5440,9 @@
     <hyperlink ref="B84" r:id="rId5" xr:uid="{5AE42020-86AD-422A-9FA2-D451A3CC4D6D}"/>
     <hyperlink ref="B100" r:id="rId6" display="ABCD@itc.com" xr:uid="{5DF98E99-1E86-4022-ACA2-6ED88F1426C3}"/>
     <hyperlink ref="B70" r:id="rId7" xr:uid="{B1C87BA6-B9D8-4EB2-AE72-597B29140368}"/>
+    <hyperlink ref="B75" r:id="rId8" display="siddhi@itc.com" xr:uid="{1B138B29-0AAD-4192-96AE-899BD0BC07BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A0C435-7810-44E7-900C-834C4F9F8B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5C21FB-A968-4B07-AC7F-69DC1CA557F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="281">
   <si>
     <t>URL</t>
   </si>
@@ -366,9 +366,6 @@
     <t>600000Rs</t>
   </si>
   <si>
-    <t>RefNo-124</t>
-  </si>
-  <si>
     <t>Payment Log</t>
   </si>
   <si>
@@ -378,12 +375,6 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>New Expected Outcome 46</t>
-  </si>
-  <si>
-    <t>New Task 038 Description</t>
-  </si>
-  <si>
     <t>New Expected Outcome 92</t>
   </si>
   <si>
@@ -408,24 +399,12 @@
     <t>Masters</t>
   </si>
   <si>
-    <t>New Expected Outcome 45</t>
-  </si>
-  <si>
-    <t>New Expected Outcome 464</t>
-  </si>
-  <si>
     <t>New Expected Outcome 55</t>
   </si>
   <si>
     <t>New Task 585 Description</t>
   </si>
   <si>
-    <t>New Task  Description0555</t>
-  </si>
-  <si>
-    <t>New Task  Description243</t>
-  </si>
-  <si>
     <t xml:space="preserve">Law Firm </t>
   </si>
   <si>
@@ -489,9 +468,6 @@
     <t>Notice Stage</t>
   </si>
   <si>
-    <t>Desai</t>
-  </si>
-  <si>
     <t>Users</t>
   </si>
   <si>
@@ -531,54 +507,24 @@
     <t>Finance Executive</t>
   </si>
   <si>
-    <t>RefNo-1246709</t>
-  </si>
-  <si>
     <t>edit</t>
   </si>
   <si>
     <t>Deepali Dev</t>
   </si>
   <si>
-    <t>New Expected Outcome 15</t>
-  </si>
-  <si>
     <t>Edit Opponent Name</t>
   </si>
   <si>
     <t>High Court of Gujarat</t>
   </si>
   <si>
-    <t>CBI</t>
-  </si>
-  <si>
     <t>lawyer123@avantis.info</t>
   </si>
   <si>
-    <t>Case No3237</t>
-  </si>
-  <si>
-    <t>Ref-34353</t>
-  </si>
-  <si>
-    <t>No 22220</t>
-  </si>
-  <si>
-    <t>New Task 098</t>
-  </si>
-  <si>
-    <t>New Task 5285 Description</t>
-  </si>
-  <si>
     <t>New Expected Outcome 551</t>
   </si>
   <si>
-    <t>order as on date 2feb2023</t>
-  </si>
-  <si>
-    <t>Automate Test Neww</t>
-  </si>
-  <si>
     <t>fe@bitaconsulting.co.in</t>
   </si>
   <si>
@@ -588,9 +534,6 @@
     <t>Subunits</t>
   </si>
   <si>
-    <t>Task as on date 16022023</t>
-  </si>
-  <si>
     <t>mgmt@avantis.info</t>
   </si>
   <si>
@@ -606,31 +549,7 @@
     <t xml:space="preserve">abc firm </t>
   </si>
   <si>
-    <t>Automation Test 6237</t>
-  </si>
-  <si>
-    <t>Automate Test8</t>
-  </si>
-  <si>
-    <t>New Task  Description056</t>
-  </si>
-  <si>
-    <t>New Task  Description17</t>
-  </si>
-  <si>
-    <t>New Expected Outcome 454</t>
-  </si>
-  <si>
-    <t>Automate Test4</t>
-  </si>
-  <si>
-    <t>Automation  20450233</t>
-  </si>
-  <si>
     <t>Task as on 1520223</t>
-  </si>
-  <si>
-    <t>Task as on date 4217236</t>
   </si>
   <si>
     <t>Kumar</t>
@@ -727,158 +646,248 @@
     <t>Two Documents Required new one</t>
   </si>
   <si>
-    <t>Order161feb20232</t>
-  </si>
-  <si>
-    <t>Automate Test New 52332573</t>
-  </si>
-  <si>
-    <t>Ref no 52138765</t>
-  </si>
-  <si>
-    <t>Case No 6427864</t>
-  </si>
-  <si>
-    <t>Case No 5234756</t>
-  </si>
-  <si>
-    <t>Ref-7456457</t>
-  </si>
-  <si>
-    <t>New Task Automate243233</t>
-  </si>
-  <si>
-    <t>Case No68657867</t>
-  </si>
-  <si>
-    <t>No 98730359</t>
-  </si>
-  <si>
-    <t>New Task Automate2112231</t>
-  </si>
-  <si>
     <t>New Task 51287</t>
   </si>
   <si>
-    <t xml:space="preserve"> Task New 32435463</t>
-  </si>
-  <si>
-    <t>New Task 63451123</t>
-  </si>
-  <si>
-    <t>case no 098167345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 6541345 new test</t>
-  </si>
-  <si>
-    <t>Case 23141323</t>
-  </si>
-  <si>
-    <t>Ref no-7654134560</t>
-  </si>
-  <si>
-    <t>Arora</t>
-  </si>
-  <si>
-    <t>Test Test One</t>
-  </si>
-  <si>
-    <t>Test Automate Test New1</t>
-  </si>
-  <si>
-    <t>One Person Company</t>
-  </si>
-  <si>
-    <t>Kanpur</t>
-  </si>
-  <si>
-    <t>Swapna</t>
-  </si>
-  <si>
-    <t>swapna@gmail.com</t>
-  </si>
-  <si>
-    <t>XPYZ Pvt Ltd</t>
-  </si>
-  <si>
-    <t>AAP Pvt Ltd</t>
-  </si>
-  <si>
-    <t>shrejay@ITC.com</t>
-  </si>
-  <si>
-    <t>PQRST Pvt Ltd</t>
-  </si>
-  <si>
-    <t>ABCDXY@gmail.com</t>
-  </si>
-  <si>
-    <t>Shrijaya</t>
-  </si>
-  <si>
-    <t>ABD Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Arjun</t>
-  </si>
-  <si>
-    <t>arjun@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mr.shaha</t>
-  </si>
-  <si>
-    <t>Mr.Jog</t>
-  </si>
-  <si>
-    <t>MUMBAI SUPRIME COURT.</t>
-  </si>
-  <si>
-    <t>PUNE SUPRIME COURT.</t>
-  </si>
-  <si>
-    <t>NEW ONE Public notice Test</t>
-  </si>
-  <si>
-    <t>Judicial notice Test Test Test</t>
-  </si>
-  <si>
-    <t>New New Banking Cards New.</t>
-  </si>
-  <si>
-    <t>New New Internet Banking New</t>
-  </si>
-  <si>
-    <t>Case filing One</t>
-  </si>
-  <si>
-    <t>Judgement and decree Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> XHTMLLLL</t>
-  </si>
-  <si>
-    <t>HTMLLLL</t>
-  </si>
-  <si>
-    <t>Financial Ratio One</t>
-  </si>
-  <si>
-    <t>Automate Test One</t>
-  </si>
-  <si>
-    <t>New Notice of intention New One</t>
-  </si>
-  <si>
-    <t>New Statement of estimated costs New One</t>
+    <t>devkar</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 153</t>
+  </si>
+  <si>
+    <t>RefNo-12463709</t>
+  </si>
+  <si>
+    <t>Automate Testt</t>
+  </si>
+  <si>
+    <t>Ref no 65434234</t>
+  </si>
+  <si>
+    <t>Case No 6545345</t>
+  </si>
+  <si>
+    <t>Case No 2312342</t>
+  </si>
+  <si>
+    <t>Task as on date 654374</t>
+  </si>
+  <si>
+    <t>Task as on date 343244</t>
+  </si>
+  <si>
+    <t>Automate Test New 324323</t>
+  </si>
+  <si>
+    <t>order 12april</t>
+  </si>
+  <si>
+    <t>New Task  Description2043</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 405</t>
+  </si>
+  <si>
+    <t>New Task  Description05255</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 4264</t>
+  </si>
+  <si>
+    <t>Automate Test83</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 4543</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 466</t>
+  </si>
+  <si>
+    <t>CIT(A)</t>
+  </si>
+  <si>
+    <t>New Task 0895658 Description</t>
+  </si>
+  <si>
+    <t>New Task  Description0567621</t>
+  </si>
+  <si>
+    <t>New Task  Description1760</t>
+  </si>
+  <si>
+    <t>order as on date 14april2023</t>
+  </si>
+  <si>
+    <t>Automate Test New test</t>
+  </si>
+  <si>
+    <t>RefNo-6554</t>
+  </si>
+  <si>
+    <t>High Court</t>
+  </si>
+  <si>
+    <t>No15643467</t>
+  </si>
+  <si>
+    <t>Ref-87674877807</t>
+  </si>
+  <si>
+    <t>Case 9638423510</t>
+  </si>
+  <si>
+    <t>No 834689203230</t>
+  </si>
+  <si>
+    <t>New Task 75567 Description</t>
+  </si>
+  <si>
+    <t>Automation  34656</t>
+  </si>
+  <si>
+    <t>New Task 2343231</t>
+  </si>
+  <si>
+    <t>New Task Automate01062023</t>
+  </si>
+  <si>
+    <t>RefNo-104</t>
+  </si>
+  <si>
+    <t>Case 723415640</t>
+  </si>
+  <si>
+    <t>IZT  Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Akshata</t>
+  </si>
+  <si>
+    <t>akshata@itc.com</t>
+  </si>
+  <si>
+    <t>LOP Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVC Ltd </t>
+  </si>
+  <si>
+    <t>shubham@itc.com</t>
+  </si>
+  <si>
+    <t>RND Pvt Ltd</t>
+  </si>
+  <si>
+    <t>qwe@itc.com</t>
+  </si>
+  <si>
+    <t>Diksha</t>
+  </si>
+  <si>
+    <t>Test Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>jadhav</t>
+  </si>
+  <si>
+    <t>vijay@itc.com</t>
+  </si>
+  <si>
+    <t>Mrs.Spruha Kadam</t>
+  </si>
+  <si>
+    <t>Mr.Ajay jadhav</t>
+  </si>
+  <si>
+    <t>Allahabad High Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Chhattisgarh High Court</t>
+  </si>
+  <si>
+    <t>Public notice, Implied notice new</t>
+  </si>
+  <si>
+    <t>Actual notice, and Constructive notice new</t>
+  </si>
+  <si>
+    <t>BHIM</t>
+  </si>
+  <si>
+    <t>Debit card</t>
+  </si>
+  <si>
+    <t>LUHRBSOFO</t>
+  </si>
+  <si>
+    <t>POSHETTFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-admission hearing. </t>
+  </si>
+  <si>
+    <t>Admission hearing.</t>
+  </si>
+  <si>
+    <t>SGML</t>
+  </si>
+  <si>
+    <t>GML</t>
+  </si>
+  <si>
+    <t>Interval Scales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Issuing of Summons</t>
+  </si>
+  <si>
+    <t>Interlocutory Proceedings</t>
+  </si>
+  <si>
+    <t>Automation Test 432</t>
+  </si>
+  <si>
+    <t>No 5410976373</t>
+  </si>
+  <si>
+    <t>Ref-9609568657</t>
+  </si>
+  <si>
+    <t>Ref no-538473283</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 1jun2023</t>
+  </si>
+  <si>
+    <t>RefNo-1124</t>
+  </si>
+  <si>
+    <t>Case 623123430</t>
+  </si>
+  <si>
+    <t>case no 73245301</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 1jun23 new test</t>
+  </si>
+  <si>
+    <t>Automate Test 544</t>
+  </si>
+  <si>
+    <t>New Task 84533</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -931,6 +940,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -964,7 +978,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1005,12 +1019,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1039,6 +1081,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1476,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EBB0F7-12CA-4928-9CA8-B80D156AD083}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1500,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1516,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1639,7 +1686,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1710,7 +1757,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1734,7 +1781,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1745,7 +1792,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1756,7 +1803,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -1812,7 +1859,7 @@
         <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>109</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1845,7 +1892,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1865,7 +1912,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1889,7 +1936,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1984,8 +2031,8 @@
       <c r="A62" t="s">
         <v>56</v>
       </c>
-      <c r="B62" t="s">
-        <v>170</v>
+      <c r="B62" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2128,7 +2175,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2140,8 +2187,8 @@
       <c r="A83" t="s">
         <v>97</v>
       </c>
-      <c r="B83" t="s">
-        <v>178</v>
+      <c r="B83">
+        <v>84650</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2149,7 +2196,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2170,7 +2217,7 @@
         <v>101</v>
       </c>
       <c r="B88">
-        <v>6578</v>
+        <v>6345578</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2178,12 +2225,12 @@
         <v>102</v>
       </c>
       <c r="B89">
-        <v>45600</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2196,7 +2243,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97">
         <v>50000</v>
@@ -2237,7 +2284,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2245,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2283,7 +2330,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2329,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2345,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2361,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2369,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2389,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2405,7 +2452,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2599,7 +2646,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2628,7 +2675,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2639,7 +2686,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2650,7 +2697,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2710,7 +2757,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2742,7 +2789,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2810,7 +2857,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2906,7 +2953,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3051,7 +3098,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3062,7 +3109,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -3073,7 +3120,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -3113,7 +3160,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3126,7 +3173,7 @@
         <v>97</v>
       </c>
       <c r="B40">
-        <v>5334631412</v>
+        <v>8672</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3134,7 +3181,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3168,7 +3215,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3181,7 +3228,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54">
         <v>50000</v>
@@ -3201,7 +3248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3217,7 +3264,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -3228,7 +3275,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -3239,7 +3286,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -3299,14 +3346,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
     <col min="3" max="1023" width="11.5546875"/>
   </cols>
   <sheetData>
@@ -3323,7 +3370,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3336,95 +3383,95 @@
     </row>
     <row r="9" spans="1:2" s="9" customFormat="1" ht="15.6">
       <c r="A9" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="16" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
       <c r="A18" s="18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B21">
         <v>7696524324</v>
@@ -3432,23 +3479,23 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -3456,36 +3503,36 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A26" s="16" t="s">
-        <v>151</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="22" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A26" s="21" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" t="s">
-        <v>246</v>
+        <v>125</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -3493,15 +3540,15 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B31">
         <v>9943234594</v>
@@ -3509,31 +3556,31 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="16" customFormat="1">
-      <c r="A33" s="18" t="s">
-        <v>138</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="24" customFormat="1">
+      <c r="A33" s="23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3543,165 +3590,165 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
       <c r="A42" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" t="s">
-        <v>268</v>
+        <v>134</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
       <c r="A45" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
       <c r="A48" s="18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
       <c r="A51" s="18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
       <c r="A54" s="18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
       <c r="A57" s="18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3713,9 +3760,10 @@
     <hyperlink ref="B30" r:id="rId5" xr:uid="{860EF50E-A108-4410-BDBB-B038861632B7}"/>
     <hyperlink ref="B41" r:id="rId6" display="ABCD@itc.com" xr:uid="{B0F41859-D600-4926-93BC-907215950128}"/>
     <hyperlink ref="B17" r:id="rId7" xr:uid="{5250EC48-6C5D-44C8-8A7B-023DDA7269E8}"/>
+    <hyperlink ref="B28" r:id="rId8" display="jadhav@jtyf.com" xr:uid="{EA477145-F0BA-4B34-B0DE-817ED5E87B79}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3728,7 +3776,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3743,7 +3791,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3866,7 +3914,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3937,7 +3985,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3967,7 +4015,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -3978,7 +4026,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3989,7 +4037,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4045,7 +4093,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4078,7 +4126,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4131,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4147,7 +4195,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4388,7 +4436,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4399,7 +4447,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4410,7 +4458,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -4450,7 +4498,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4463,7 +4511,7 @@
         <v>97</v>
       </c>
       <c r="B40">
-        <v>534</v>
+        <v>231234</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4471,7 +4519,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4505,7 +4553,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4518,7 +4566,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54">
         <v>50000</v>
@@ -4555,7 +4603,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -4566,7 +4614,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -4577,7 +4625,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -4621,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4644,7 +4692,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4652,15 +4700,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4673,7 +4721,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -4720,7 +4768,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4731,7 +4779,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4742,7 +4790,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -4753,7 +4801,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4761,7 +4809,7 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4777,13 +4825,13 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4807,7 +4855,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4815,7 +4863,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4840,7 +4888,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4869,7 +4917,7 @@
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4877,7 +4925,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -4965,7 +5013,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4973,7 +5021,7 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4997,7 +5045,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5018,7 +5066,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5031,7 +5079,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>843222923307</v>
+        <v>74561846</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5039,12 +5087,12 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5057,25 +5105,25 @@
     </row>
     <row r="62" spans="1:2" s="9" customFormat="1" ht="15.6">
       <c r="A62" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="16" customFormat="1">
       <c r="A63" s="18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
@@ -5083,69 +5131,69 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
       <c r="A71" s="18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B71" s="17"/>
     </row>
     <row r="72" spans="1:2" ht="26.4">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B74">
         <v>8796543294</v>
@@ -5153,23 +5201,23 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -5177,36 +5225,36 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -5214,15 +5262,15 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B85">
         <v>9943234594</v>
@@ -5230,7 +5278,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
@@ -5238,23 +5286,23 @@
     </row>
     <row r="88" spans="1:2" s="16" customFormat="1">
       <c r="A88" s="18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5264,39 +5312,39 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
       <c r="A98" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5307,128 +5355,128 @@
     </row>
     <row r="103" spans="1:2" s="16" customFormat="1">
       <c r="A103" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
       <c r="A108" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
       <c r="A113" s="18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
       <c r="A118" s="18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
       <c r="A123" s="18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B124" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
       <c r="A128" s="18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B129" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B130" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5C21FB-A968-4B07-AC7F-69DC1CA557F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0709F8B1-8C52-4010-8B07-B4FEE8E71FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="279">
   <si>
     <t>URL</t>
   </si>
@@ -649,9 +649,6 @@
     <t>New Task 51287</t>
   </si>
   <si>
-    <t>devkar</t>
-  </si>
-  <si>
     <t>New Expected Outcome 153</t>
   </si>
   <si>
@@ -742,9 +739,6 @@
     <t>New Task 75567 Description</t>
   </si>
   <si>
-    <t>Automation  34656</t>
-  </si>
-  <si>
     <t>New Task 2343231</t>
   </si>
   <si>
@@ -757,99 +751,6 @@
     <t>Case 723415640</t>
   </si>
   <si>
-    <t>IZT  Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Akshata</t>
-  </si>
-  <si>
-    <t>akshata@itc.com</t>
-  </si>
-  <si>
-    <t>LOP Pvt Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVC Ltd </t>
-  </si>
-  <si>
-    <t>shubham@itc.com</t>
-  </si>
-  <si>
-    <t>RND Pvt Ltd</t>
-  </si>
-  <si>
-    <t>qwe@itc.com</t>
-  </si>
-  <si>
-    <t>Diksha</t>
-  </si>
-  <si>
-    <t>Test Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Vijay</t>
-  </si>
-  <si>
-    <t>jadhav</t>
-  </si>
-  <si>
-    <t>vijay@itc.com</t>
-  </si>
-  <si>
-    <t>Mrs.Spruha Kadam</t>
-  </si>
-  <si>
-    <t>Mr.Ajay jadhav</t>
-  </si>
-  <si>
-    <t>Allahabad High Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Chhattisgarh High Court</t>
-  </si>
-  <si>
-    <t>Public notice, Implied notice new</t>
-  </si>
-  <si>
-    <t>Actual notice, and Constructive notice new</t>
-  </si>
-  <si>
-    <t>BHIM</t>
-  </si>
-  <si>
-    <t>Debit card</t>
-  </si>
-  <si>
-    <t>LUHRBSOFO</t>
-  </si>
-  <si>
-    <t>POSHETTFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-admission hearing. </t>
-  </si>
-  <si>
-    <t>Admission hearing.</t>
-  </si>
-  <si>
-    <t>SGML</t>
-  </si>
-  <si>
-    <t>GML</t>
-  </si>
-  <si>
-    <t>Interval Scales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinal </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Issuing of Summons</t>
-  </si>
-  <si>
-    <t>Interlocutory Proceedings</t>
-  </si>
-  <si>
     <t>Automation Test 432</t>
   </si>
   <si>
@@ -859,28 +760,121 @@
     <t>Ref-9609568657</t>
   </si>
   <si>
-    <t>Ref no-538473283</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task New 1jun2023</t>
-  </si>
-  <si>
-    <t>RefNo-1124</t>
-  </si>
-  <si>
-    <t>Case 623123430</t>
-  </si>
-  <si>
-    <t>case no 73245301</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 1jun23 new test</t>
-  </si>
-  <si>
     <t>Automate Test 544</t>
   </si>
   <si>
-    <t>New Task 84533</t>
+    <t>Chavan</t>
+  </si>
+  <si>
+    <t>India Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Ratnamala</t>
+  </si>
+  <si>
+    <t>ratnamala@itc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLLP </t>
+  </si>
+  <si>
+    <t>MH Pvt Ltd</t>
+  </si>
+  <si>
+    <t>nita@itc.com</t>
+  </si>
+  <si>
+    <t>Agama Law Associates. Pune.</t>
+  </si>
+  <si>
+    <t>abg@yahoo.com</t>
+  </si>
+  <si>
+    <t>Viraj</t>
+  </si>
+  <si>
+    <t>Agrud Partners. Pune.</t>
+  </si>
+  <si>
+    <t>Jagadish</t>
+  </si>
+  <si>
+    <t>jagdish@itc.com</t>
+  </si>
+  <si>
+    <t>Vrunda Kadam</t>
+  </si>
+  <si>
+    <t>Megha Kadam</t>
+  </si>
+  <si>
+    <t>ASAM HIGH COURT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Chandrapur High Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Documentation Step </t>
+  </si>
+  <si>
+    <t>One Notice Drafting Process</t>
+  </si>
+  <si>
+    <t>BHT</t>
+  </si>
+  <si>
+    <t>KHL</t>
+  </si>
+  <si>
+    <t>NFHT</t>
+  </si>
+  <si>
+    <t>RTTY</t>
+  </si>
+  <si>
+    <t>New write of Summon</t>
+  </si>
+  <si>
+    <t>New Final hearing</t>
+  </si>
+  <si>
+    <t>LNTM</t>
+  </si>
+  <si>
+    <t>XSXL</t>
+  </si>
+  <si>
+    <t>New Ordinal Criteris</t>
+  </si>
+  <si>
+    <t>One Interval Scales</t>
+  </si>
+  <si>
+    <t>Test Case filing one</t>
+  </si>
+  <si>
+    <t>Automation Test</t>
+  </si>
+  <si>
+    <t>New Task 140623</t>
+  </si>
+  <si>
+    <t>case no 624022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 14jun23 new test</t>
+  </si>
+  <si>
+    <t>Automation  14jun23</t>
+  </si>
+  <si>
+    <t>Ref no-8345234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 15jun2023</t>
+  </si>
+  <si>
+    <t>RefNo-9351</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1781,7 +1775,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1792,7 +1786,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1859,7 +1853,7 @@
         <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1892,7 +1886,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1912,7 +1906,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1936,7 +1930,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2032,7 +2026,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2175,7 +2169,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2196,7 +2190,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2436,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2452,7 +2446,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2646,7 +2640,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2675,7 +2669,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2686,7 +2680,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2697,7 +2691,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2757,7 +2751,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2788,8 +2782,8 @@
       <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>276</v>
+      <c r="B42" s="4">
+        <v>936217</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2841,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2857,7 +2851,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2953,7 +2947,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3067,7 +3061,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3098,7 +3092,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3109,7 +3103,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -3120,7 +3114,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -3160,7 +3154,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3173,7 +3167,7 @@
         <v>97</v>
       </c>
       <c r="B40">
-        <v>8672</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3181,7 +3175,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3248,7 +3242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3264,7 +3258,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -3275,7 +3269,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -3346,8 +3340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3396,7 +3390,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3412,7 +3406,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3420,7 +3414,7 @@
         <v>118</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3428,7 +3422,7 @@
         <v>146</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3436,7 +3430,7 @@
         <v>164</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3444,7 +3438,7 @@
         <v>118</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3458,7 +3452,7 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3466,7 +3460,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3482,7 +3476,7 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3490,7 +3484,7 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3506,7 +3500,7 @@
         <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.4" customHeight="1">
@@ -3519,7 +3513,7 @@
         <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3527,7 +3521,7 @@
         <v>125</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>250</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3543,7 +3537,7 @@
         <v>118</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3572,7 +3566,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3580,7 +3574,7 @@
         <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3593,15 +3587,15 @@
         <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>128</v>
       </c>
-      <c r="B38" t="s">
-        <v>255</v>
+      <c r="B38" s="20" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3614,7 +3608,7 @@
         <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3622,7 +3616,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3635,7 +3629,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3643,7 +3637,7 @@
         <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3656,7 +3650,7 @@
         <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3664,7 +3658,7 @@
         <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3677,7 +3671,7 @@
         <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3685,7 +3679,7 @@
         <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3698,7 +3692,7 @@
         <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3706,7 +3700,7 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3719,7 +3713,7 @@
         <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3727,7 +3721,7 @@
         <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3740,7 +3734,7 @@
         <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3748,7 +3742,7 @@
         <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3791,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4015,7 +4009,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -4026,7 +4020,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4037,7 +4031,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4093,7 +4087,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4126,7 +4120,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4195,7 +4189,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4436,7 +4430,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4447,7 +4441,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4458,7 +4452,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -4498,7 +4492,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4519,7 +4513,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4708,7 +4702,7 @@
         <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4768,7 +4762,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4779,7 +4773,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4790,7 +4784,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -4855,7 +4849,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4863,7 +4857,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4888,7 +4882,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4925,7 +4919,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5066,7 +5060,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5087,7 +5081,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:2">

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\ComplianceLatest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0709F8B1-8C52-4010-8B07-B4FEE8E71FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <sheet name="Mgmt" sheetId="12" r:id="rId12"/>
     <sheet name="Login" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="280">
   <si>
     <t>URL</t>
   </si>
@@ -760,127 +759,130 @@
     <t>Ref-9609568657</t>
   </si>
   <si>
-    <t>Automate Test 544</t>
-  </si>
-  <si>
-    <t>Chavan</t>
-  </si>
-  <si>
-    <t>India Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Ratnamala</t>
-  </si>
-  <si>
-    <t>ratnamala@itc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LLLP </t>
-  </si>
-  <si>
-    <t>MH Pvt Ltd</t>
-  </si>
-  <si>
-    <t>nita@itc.com</t>
-  </si>
-  <si>
-    <t>Agama Law Associates. Pune.</t>
-  </si>
-  <si>
-    <t>abg@yahoo.com</t>
-  </si>
-  <si>
-    <t>Viraj</t>
-  </si>
-  <si>
-    <t>Agrud Partners. Pune.</t>
-  </si>
-  <si>
-    <t>Jagadish</t>
-  </si>
-  <si>
-    <t>jagdish@itc.com</t>
-  </si>
-  <si>
-    <t>Vrunda Kadam</t>
-  </si>
-  <si>
-    <t>Megha Kadam</t>
-  </si>
-  <si>
-    <t>ASAM HIGH COURT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Chandrapur High Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Documentation Step </t>
-  </si>
-  <si>
-    <t>One Notice Drafting Process</t>
-  </si>
-  <si>
-    <t>BHT</t>
-  </si>
-  <si>
-    <t>KHL</t>
-  </si>
-  <si>
-    <t>NFHT</t>
-  </si>
-  <si>
-    <t>RTTY</t>
-  </si>
-  <si>
-    <t>New write of Summon</t>
-  </si>
-  <si>
-    <t>New Final hearing</t>
-  </si>
-  <si>
-    <t>LNTM</t>
-  </si>
-  <si>
-    <t>XSXL</t>
-  </si>
-  <si>
-    <t>New Ordinal Criteris</t>
-  </si>
-  <si>
-    <t>One Interval Scales</t>
-  </si>
-  <si>
-    <t>Test Case filing one</t>
-  </si>
-  <si>
-    <t>Automation Test</t>
-  </si>
-  <si>
-    <t>New Task 140623</t>
-  </si>
-  <si>
-    <t>case no 624022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 14jun23 new test</t>
-  </si>
-  <si>
-    <t>Automation  14jun23</t>
-  </si>
-  <si>
-    <t>Ref no-8345234</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task New 15jun2023</t>
-  </si>
-  <si>
-    <t>RefNo-9351</t>
+    <t>Shantanu</t>
+  </si>
+  <si>
+    <t>Bhosale</t>
+  </si>
+  <si>
+    <t>RefNo-7851</t>
+  </si>
+  <si>
+    <t>Kochin</t>
+  </si>
+  <si>
+    <t>Priyaanka</t>
+  </si>
+  <si>
+    <t>priynaka@itc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munnar </t>
+  </si>
+  <si>
+    <t>PP Pvt Ltd</t>
+  </si>
+  <si>
+    <t>shubham@itc.com</t>
+  </si>
+  <si>
+    <t>Agama Law Associates. Kanpur</t>
+  </si>
+  <si>
+    <t>azan@yahoo.com</t>
+  </si>
+  <si>
+    <t>Pawar</t>
+  </si>
+  <si>
+    <t>Agrud Partners. Kanpur</t>
+  </si>
+  <si>
+    <t>sushmita@yahoocom</t>
+  </si>
+  <si>
+    <t>Sushmita</t>
+  </si>
+  <si>
+    <t>Avirat Chavan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantasha </t>
+  </si>
+  <si>
+    <t>Chandrapur High Court</t>
+  </si>
+  <si>
+    <t>BSST</t>
+  </si>
+  <si>
+    <t>KSSL</t>
+  </si>
+  <si>
+    <t>NSST</t>
+  </si>
+  <si>
+    <t>RSSY</t>
+  </si>
+  <si>
+    <t>LSSTM</t>
+  </si>
+  <si>
+    <t>XSSXL</t>
+  </si>
+  <si>
+    <t>Automation Test 22</t>
+  </si>
+  <si>
+    <t>Case filing 22</t>
+  </si>
+  <si>
+    <t>Test Ordinal Criteris22</t>
+  </si>
+  <si>
+    <t>Test Interval Scales22</t>
+  </si>
+  <si>
+    <t>New write of Summon issues22</t>
+  </si>
+  <si>
+    <t>New Final hearing case22</t>
+  </si>
+  <si>
+    <t>New Notice Drafting Process22</t>
+  </si>
+  <si>
+    <t>New Documentation Step one22</t>
+  </si>
+  <si>
+    <t>VASIM HIGH COURT.</t>
+  </si>
+  <si>
+    <t>Automate Test 59</t>
+  </si>
+  <si>
+    <t>Ref no-97543567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 23062023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 230623 new test</t>
+  </si>
+  <si>
+    <t>Automation  230623</t>
+  </si>
+  <si>
+    <t>case no 45234556</t>
+  </si>
+  <si>
+    <t>New Task 2306023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -1462,18 +1464,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.5546875"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="1025" width="11.5546875"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1502,7 +1504,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -1514,18 +1516,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EBB0F7-12CA-4928-9CA8-B80D156AD083}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1623,7 +1625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26.4">
+    <row r="13" spans="1:4" ht="25.5">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2245,24 +2247,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{32609F3B-4E12-4FDA-934E-3735B8652D3A}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{7A5774E0-DEBC-4CC9-8098-B1F299DF5F10}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891A7014-DEBE-4836-94D4-AA06B16D87D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2291,24 +2293,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123" xr:uid="{2BACB189-3764-445B-A4EF-16E50FBA329C}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{25CCD688-D32D-43A1-B399-B73AE340FF50}"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE381358-C991-4A6A-B6DF-463DDEB991C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2337,24 +2339,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{D7D0218F-5DAE-4295-8535-2DAC634E6188}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{2782D8F8-FE40-45FE-99FF-143190FBD99D}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5889D98-19EB-4DE2-A578-EADE97833F4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2415,30 +2417,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{FD5C26A6-36A0-43F1-B8ED-E2E0A4CE60B5}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{D1E8B811-B6D6-4C42-8F6E-2B4AA658733F}"/>
-    <hyperlink ref="B7" r:id="rId3" display="admin@123" xr:uid="{DAD6E838-4B8A-4139-8A89-85289AB8B055}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{D2A3D594-27EE-42F8-BC6D-8DB96CD0383B}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{D7714A63-2C2F-446D-AA30-87615FB40CA9}"/>
-    <hyperlink ref="B4" r:id="rId6" display="admin@123" xr:uid="{E07A122F-87A9-43A3-90D3-FBA87FD802E5}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3" display="admin@123"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6" display="admin@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="3" customWidth="1"/>
-    <col min="3" max="1025" width="11.5546875"/>
+    <col min="2" max="2" width="25.5703125" style="3" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2446,7 +2448,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2512,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.4">
+    <row r="8" spans="1:4" ht="25.5">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2751,7 +2753,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2783,7 +2785,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>936217</v>
+        <v>8964577</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2832,18 +2834,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="1025" width="11.5546875"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2851,7 +2853,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3092,7 +3094,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3154,7 +3156,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3167,7 +3169,7 @@
         <v>97</v>
       </c>
       <c r="B40">
-        <v>546</v>
+        <v>76445</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3175,7 +3177,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3196,7 +3198,7 @@
         <v>101</v>
       </c>
       <c r="B45">
-        <v>6578</v>
+        <v>876</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3217,7 +3219,7 @@
         <v>101</v>
       </c>
       <c r="B53">
-        <v>4567</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3239,18 +3241,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
-    <col min="3" max="1025" width="11.5546875"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3258,7 +3260,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -3337,18 +3339,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" customWidth="1"/>
-    <col min="3" max="1023" width="11.5546875"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="1023" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3375,7 +3377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" ht="15.6">
+    <row r="9" spans="1:2" s="9" customFormat="1" ht="15.75">
       <c r="A9" s="19" t="s">
         <v>119</v>
       </c>
@@ -3390,7 +3392,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3406,7 +3408,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3414,7 +3416,7 @@
         <v>118</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3422,7 +3424,7 @@
         <v>146</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3430,7 +3432,7 @@
         <v>164</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3438,7 +3440,7 @@
         <v>118</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3452,7 +3454,7 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3460,7 +3462,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3476,7 +3478,7 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3484,7 +3486,7 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3500,10 +3502,10 @@
         <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="22" customFormat="1" ht="14.4" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
       <c r="A26" s="21" t="s">
         <v>143</v>
       </c>
@@ -3513,7 +3515,7 @@
         <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3521,7 +3523,7 @@
         <v>125</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3566,7 +3568,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3574,7 +3576,7 @@
         <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3587,7 +3589,7 @@
         <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3608,7 +3610,7 @@
         <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3616,7 +3618,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3629,7 +3631,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3637,7 +3639,7 @@
         <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3650,7 +3652,7 @@
         <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3658,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3671,7 +3673,7 @@
         <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3679,7 +3681,7 @@
         <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3692,7 +3694,7 @@
         <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3700,7 +3702,7 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3713,7 +3715,7 @@
         <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3721,7 +3723,7 @@
         <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3734,7 +3736,7 @@
         <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3742,19 +3744,19 @@
         <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{CAC18B71-01F6-4D0E-8555-7B54C2321DEA}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{14D7A191-A921-482C-BC45-AD160CC1BABE}"/>
-    <hyperlink ref="B20" r:id="rId4" xr:uid="{687081DC-AF3B-442D-98F3-593F00E7E410}"/>
-    <hyperlink ref="B30" r:id="rId5" xr:uid="{860EF50E-A108-4410-BDBB-B038861632B7}"/>
-    <hyperlink ref="B41" r:id="rId6" display="ABCD@itc.com" xr:uid="{B0F41859-D600-4926-93BC-907215950128}"/>
-    <hyperlink ref="B17" r:id="rId7" xr:uid="{5250EC48-6C5D-44C8-8A7B-023DDA7269E8}"/>
-    <hyperlink ref="B28" r:id="rId8" display="jadhav@jtyf.com" xr:uid="{EA477145-F0BA-4B34-B0DE-817ED5E87B79}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId3"/>
+    <hyperlink ref="B20" r:id="rId4"/>
+    <hyperlink ref="B30" r:id="rId5"/>
+    <hyperlink ref="B41" r:id="rId6" display="ABCD@itc.com"/>
+    <hyperlink ref="B17" r:id="rId7"/>
+    <hyperlink ref="B28" r:id="rId8" display="jadhav@jtyf.com"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
@@ -3766,18 +3768,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" customWidth="1"/>
-    <col min="3" max="1025" width="11.5546875"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3851,7 +3853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="26.4">
+    <row r="8" spans="1:4" ht="25.5">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4170,18 +4172,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="1025" width="11.5546875"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4577,19 +4579,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="1025" width="11.5546875"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4660,17 +4662,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6576C72-97BF-4E49-9AEB-8BC2F24791EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4735,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="25.5">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5097,7 +5099,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="9" customFormat="1" ht="15.6">
+    <row r="62" spans="1:2" s="9" customFormat="1" ht="15.75">
       <c r="A62" s="19" t="s">
         <v>119</v>
       </c>
@@ -5169,7 +5171,7 @@
       </c>
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="1:2" ht="26.4">
+    <row r="72" spans="1:2" ht="25.5">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -5225,7 +5227,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
+    <row r="80" spans="1:2" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A80" s="16" t="s">
         <v>143</v>
       </c>
@@ -5475,14 +5477,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123" xr:uid="{1C483EE2-0BC3-44B4-BF5F-61989A96955B}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{20E94110-131D-4B6E-896A-9FAD2D97B338}"/>
-    <hyperlink ref="B67" r:id="rId3" xr:uid="{FD0B497F-56B0-4A35-8A15-B5BD36C9962B}"/>
-    <hyperlink ref="B73" r:id="rId4" xr:uid="{2059D86D-C042-4175-BAC8-3B9C0EBADE99}"/>
-    <hyperlink ref="B84" r:id="rId5" xr:uid="{5AE42020-86AD-422A-9FA2-D451A3CC4D6D}"/>
-    <hyperlink ref="B100" r:id="rId6" display="ABCD@itc.com" xr:uid="{5DF98E99-1E86-4022-ACA2-6ED88F1426C3}"/>
-    <hyperlink ref="B70" r:id="rId7" xr:uid="{B1C87BA6-B9D8-4EB2-AE72-597B29140368}"/>
-    <hyperlink ref="B75" r:id="rId8" display="siddhi@itc.com" xr:uid="{1B138B29-0AAD-4192-96AE-899BD0BC07BF}"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B67" r:id="rId3"/>
+    <hyperlink ref="B73" r:id="rId4"/>
+    <hyperlink ref="B84" r:id="rId5"/>
+    <hyperlink ref="B100" r:id="rId6" display="ABCD@itc.com"/>
+    <hyperlink ref="B70" r:id="rId7"/>
+    <hyperlink ref="B75" r:id="rId8" display="siddhi@itc.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -858,25 +858,25 @@
     <t>VASIM HIGH COURT.</t>
   </si>
   <si>
-    <t>Automate Test 59</t>
-  </si>
-  <si>
-    <t>Ref no-97543567</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task New 23062023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 230623 new test</t>
-  </si>
-  <si>
-    <t>Automation  230623</t>
-  </si>
-  <si>
-    <t>case no 45234556</t>
-  </si>
-  <si>
-    <t>New Task 2306023</t>
+    <t>case no 765456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 250623 new test</t>
+  </si>
+  <si>
+    <t>Automate Test 61</t>
+  </si>
+  <si>
+    <t>Automation  250623</t>
+  </si>
+  <si>
+    <t>New Task 2506023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 25062023</t>
+  </si>
+  <si>
+    <t>Ref no-935120</t>
   </si>
 </sst>
 </file>
@@ -2432,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2448,7 +2448,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2671,7 +2671,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2785,7 +2785,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>8964577</v>
+        <v>853456</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2837,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2853,7 +2853,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3094,7 +3094,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3156,7 +3156,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3169,7 +3169,7 @@
         <v>97</v>
       </c>
       <c r="B40">
-        <v>76445</v>
+        <v>64563</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3177,7 +3177,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3244,7 +3244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3260,7 +3260,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -3342,7 +3342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -765,9 +765,6 @@
     <t>Bhosale</t>
   </si>
   <si>
-    <t>RefNo-7851</t>
-  </si>
-  <si>
     <t>Kochin</t>
   </si>
   <si>
@@ -858,25 +855,28 @@
     <t>VASIM HIGH COURT.</t>
   </si>
   <si>
-    <t>case no 765456</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 250623 new test</t>
-  </si>
-  <si>
     <t>Automate Test 61</t>
   </si>
   <si>
     <t>Automation  250623</t>
   </si>
   <si>
-    <t>New Task 2506023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task New 25062023</t>
-  </si>
-  <si>
-    <t>Ref no-935120</t>
+    <t xml:space="preserve"> Task New 28062023</t>
+  </si>
+  <si>
+    <t>RefNo-7657</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 28062023 new test</t>
+  </si>
+  <si>
+    <t>New Task 28062023</t>
+  </si>
+  <si>
+    <t>case no 8545723</t>
+  </si>
+  <si>
+    <t>Ref no-7246491</t>
   </si>
 </sst>
 </file>
@@ -2432,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2671,7 +2671,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2753,7 +2753,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2785,7 +2785,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>853456</v>
+        <v>86456754</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2837,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2853,7 +2853,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3094,7 +3094,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3156,7 +3156,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3169,7 +3169,7 @@
         <v>97</v>
       </c>
       <c r="B40">
-        <v>64563</v>
+        <v>8685</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3177,7 +3177,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>118</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>146</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>164</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>118</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3454,7 +3454,7 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3462,7 +3462,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3502,7 +3502,7 @@
         <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3515,7 +3515,7 @@
         <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3539,7 +3539,7 @@
         <v>118</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3568,7 +3568,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3589,7 +3589,7 @@
         <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>128</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3610,7 +3610,7 @@
         <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3618,7 +3618,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3631,7 +3631,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3652,7 +3652,7 @@
         <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3673,7 +3673,7 @@
         <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3681,7 +3681,7 @@
         <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3694,7 +3694,7 @@
         <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3702,7 +3702,7 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3715,7 +3715,7 @@
         <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3723,7 +3723,7 @@
         <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3736,7 +3736,7 @@
         <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="284">
   <si>
     <t>URL</t>
   </si>
@@ -858,25 +858,37 @@
     <t>Automate Test 61</t>
   </si>
   <si>
-    <t>Automation  250623</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task New 28062023</t>
-  </si>
-  <si>
     <t>RefNo-7657</t>
   </si>
   <si>
-    <t xml:space="preserve"> Automate 28062023 new test</t>
-  </si>
-  <si>
-    <t>New Task 28062023</t>
-  </si>
-  <si>
-    <t>case no 8545723</t>
-  </si>
-  <si>
-    <t>Ref no-7246491</t>
+    <t>45a#</t>
+  </si>
+  <si>
+    <t>SF%^2</t>
+  </si>
+  <si>
+    <t>234#a</t>
+  </si>
+  <si>
+    <t>4958#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 29062023</t>
+  </si>
+  <si>
+    <t>case no 5237519</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 30062023 new test</t>
+  </si>
+  <si>
+    <t>Automation  290623</t>
+  </si>
+  <si>
+    <t>New Task 30062023</t>
+  </si>
+  <si>
+    <t>Ref no-7453234</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2671,7 +2683,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2753,7 +2765,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2785,7 +2797,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>86456754</v>
+        <v>856467403</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2837,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2853,7 +2865,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3094,7 +3106,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3169,7 +3181,7 @@
         <v>97</v>
       </c>
       <c r="B40">
-        <v>8685</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3177,7 +3189,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3260,7 +3272,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -4665,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5052,12 +5064,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51" s="12" t="s">
         <v>95</v>
       </c>
@@ -5065,12 +5077,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -5078,7 +5090,7 @@
         <v>74561846</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -5086,12 +5098,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -5099,49 +5111,61 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="9" customFormat="1" ht="15.75">
+    <row r="62" spans="1:3" s="9" customFormat="1" ht="15.75">
       <c r="A62" s="19" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="16" customFormat="1">
+    <row r="63" spans="1:3" s="16" customFormat="1">
       <c r="A63" s="18" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>115</v>
       </c>
       <c r="B64" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>116</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>117</v>
       </c>
       <c r="B66" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>118</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>146</v>
       </c>
@@ -5149,7 +5173,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -5157,7 +5181,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -5165,13 +5189,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="16" customFormat="1">
+    <row r="71" spans="1:3" s="16" customFormat="1">
       <c r="A71" s="18" t="s">
         <v>122</v>
       </c>
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="1:2" ht="25.5">
+    <row r="72" spans="1:3" ht="25.5">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -5179,7 +5203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -5187,7 +5211,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -5195,7 +5219,7 @@
         <v>8796543294</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>124</v>
       </c>
@@ -5203,7 +5227,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>125</v>
       </c>
@@ -5211,7 +5235,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -5219,7 +5243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -5227,7 +5251,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="16" customFormat="1" ht="14.45" customHeight="1">
+    <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A80" s="16" t="s">
         <v>143</v>
       </c>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -2444,7 +2444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4677,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -551,344 +551,345 @@
     <t>Task as on 1520223</t>
   </si>
   <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>SAAP Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Krishu</t>
-  </si>
-  <si>
-    <t>krishu@yahoo.com</t>
-  </si>
-  <si>
-    <t>Karnataka Pvt Ltdd</t>
-  </si>
-  <si>
-    <t>Jammu and Kashmir</t>
-  </si>
-  <si>
-    <t>ashma89210@itc.com</t>
+    <t>Unnati</t>
+  </si>
+  <si>
+    <t>New Task 51287</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 153</t>
+  </si>
+  <si>
+    <t>RefNo-12463709</t>
+  </si>
+  <si>
+    <t>Automate Testt</t>
+  </si>
+  <si>
+    <t>Task as on date 654374</t>
+  </si>
+  <si>
+    <t>Task as on date 343244</t>
+  </si>
+  <si>
+    <t>order 12april</t>
+  </si>
+  <si>
+    <t>New Task  Description2043</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 405</t>
+  </si>
+  <si>
+    <t>New Task  Description05255</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 4264</t>
+  </si>
+  <si>
+    <t>Automate Test83</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 4543</t>
+  </si>
+  <si>
+    <t>New Expected Outcome 466</t>
+  </si>
+  <si>
+    <t>CIT(A)</t>
+  </si>
+  <si>
+    <t>New Task 0895658 Description</t>
+  </si>
+  <si>
+    <t>New Task  Description0567621</t>
+  </si>
+  <si>
+    <t>New Task  Description1760</t>
+  </si>
+  <si>
+    <t>order as on date 14april2023</t>
+  </si>
+  <si>
+    <t>Automate Test New test</t>
+  </si>
+  <si>
+    <t>RefNo-6554</t>
+  </si>
+  <si>
+    <t>High Court</t>
+  </si>
+  <si>
+    <t>No15643467</t>
+  </si>
+  <si>
+    <t>Ref-87674877807</t>
+  </si>
+  <si>
+    <t>Case 9638423510</t>
+  </si>
+  <si>
+    <t>No 834689203230</t>
+  </si>
+  <si>
+    <t>New Task 75567 Description</t>
+  </si>
+  <si>
+    <t>New Task 2343231</t>
+  </si>
+  <si>
+    <t>New Task Automate01062023</t>
+  </si>
+  <si>
+    <t>RefNo-104</t>
+  </si>
+  <si>
+    <t>Case 723415640</t>
+  </si>
+  <si>
+    <t>Automation Test 432</t>
+  </si>
+  <si>
+    <t>No 5410976373</t>
+  </si>
+  <si>
+    <t>Ref-9609568657</t>
+  </si>
+  <si>
+    <t>Shantanu</t>
+  </si>
+  <si>
+    <t>Bhosale</t>
+  </si>
+  <si>
+    <t>Kochin</t>
+  </si>
+  <si>
+    <t>Priyaanka</t>
+  </si>
+  <si>
+    <t>priynaka@itc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munnar </t>
+  </si>
+  <si>
+    <t>PP Pvt Ltd</t>
+  </si>
+  <si>
+    <t>shubham@itc.com</t>
+  </si>
+  <si>
+    <t>Agama Law Associates. Kanpur</t>
+  </si>
+  <si>
+    <t>azan@yahoo.com</t>
+  </si>
+  <si>
+    <t>Pawar</t>
+  </si>
+  <si>
+    <t>Agrud Partners. Kanpur</t>
+  </si>
+  <si>
+    <t>sushmita@yahoocom</t>
+  </si>
+  <si>
+    <t>Sushmita</t>
+  </si>
+  <si>
+    <t>Avirat Chavan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantasha </t>
+  </si>
+  <si>
+    <t>Chandrapur High Court</t>
+  </si>
+  <si>
+    <t>BSST</t>
+  </si>
+  <si>
+    <t>KSSL</t>
+  </si>
+  <si>
+    <t>NSST</t>
+  </si>
+  <si>
+    <t>RSSY</t>
+  </si>
+  <si>
+    <t>LSSTM</t>
+  </si>
+  <si>
+    <t>XSSXL</t>
+  </si>
+  <si>
+    <t>Automation Test 22</t>
+  </si>
+  <si>
+    <t>Case filing 22</t>
+  </si>
+  <si>
+    <t>Test Ordinal Criteris22</t>
+  </si>
+  <si>
+    <t>Test Interval Scales22</t>
+  </si>
+  <si>
+    <t>New write of Summon issues22</t>
+  </si>
+  <si>
+    <t>New Final hearing case22</t>
+  </si>
+  <si>
+    <t>New Notice Drafting Process22</t>
+  </si>
+  <si>
+    <t>New Documentation Step one22</t>
+  </si>
+  <si>
+    <t>VASIM HIGH COURT.</t>
+  </si>
+  <si>
+    <t>Automate Test 61</t>
+  </si>
+  <si>
+    <t>RefNo-7657</t>
+  </si>
+  <si>
+    <t>45a#</t>
+  </si>
+  <si>
+    <t>SF%^2</t>
+  </si>
+  <si>
+    <t>234#a</t>
+  </si>
+  <si>
+    <t>4958#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 29062023</t>
+  </si>
+  <si>
+    <t>case no 5237519</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 30062023 new test</t>
+  </si>
+  <si>
+    <t>Automation  290623</t>
+  </si>
+  <si>
+    <t>New Task 30062023</t>
+  </si>
+  <si>
+    <t>Ref no-7453234</t>
+  </si>
+  <si>
+    <t>Case No 8767545</t>
+  </si>
+  <si>
+    <t>Case No 345432</t>
+  </si>
+  <si>
+    <t>Automate Test New 76</t>
+  </si>
+  <si>
+    <t>AP Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Poonam</t>
+  </si>
+  <si>
+    <t>poonam@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ngar Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jammu </t>
+  </si>
+  <si>
+    <t>ashma87@itc.com</t>
   </si>
   <si>
     <t xml:space="preserve">
-AQUILAW</t>
-  </si>
-  <si>
-    <t>aks@gmail.com</t>
-  </si>
-  <si>
-    <t>Priyal</t>
-  </si>
-  <si>
-    <t>Anhad Law</t>
-  </si>
-  <si>
-    <t>Unnati</t>
-  </si>
-  <si>
-    <t>unnati@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mr. Jagtap</t>
-  </si>
-  <si>
-    <t>Mr. Salunkhe</t>
-  </si>
-  <si>
-    <t>Telangana High Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Meghalaya High Court</t>
-  </si>
-  <si>
-    <t>Notice Drafting Process onetwo</t>
-  </si>
-  <si>
-    <t>Information Signatures on Notice one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple Pay one </t>
-  </si>
-  <si>
-    <t>Google Pay. One</t>
-  </si>
-  <si>
-    <t>ACYBZYYY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter 24mar 23 </t>
-  </si>
-  <si>
-    <t>New Documents Required. For case New new</t>
-  </si>
-  <si>
-    <t>New The appearance of the Parties to the Dispute new.</t>
-  </si>
-  <si>
-    <t>PowerPoint New</t>
-  </si>
-  <si>
-    <t>MicrosoftWord</t>
-  </si>
-  <si>
-    <t>New Graphic Rating Scale New test new</t>
-  </si>
-  <si>
-    <t>New Numerical Rating Scale test new</t>
-  </si>
-  <si>
-    <t>Two Written Statement new one</t>
-  </si>
-  <si>
-    <t>Two Documents Required new one</t>
-  </si>
-  <si>
-    <t>New Task 51287</t>
-  </si>
-  <si>
-    <t>New Expected Outcome 153</t>
-  </si>
-  <si>
-    <t>RefNo-12463709</t>
-  </si>
-  <si>
-    <t>Automate Testt</t>
-  </si>
-  <si>
-    <t>Ref no 65434234</t>
-  </si>
-  <si>
-    <t>Case No 6545345</t>
-  </si>
-  <si>
-    <t>Case No 2312342</t>
-  </si>
-  <si>
-    <t>Task as on date 654374</t>
-  </si>
-  <si>
-    <t>Task as on date 343244</t>
-  </si>
-  <si>
-    <t>Automate Test New 324323</t>
-  </si>
-  <si>
-    <t>order 12april</t>
-  </si>
-  <si>
-    <t>New Task  Description2043</t>
-  </si>
-  <si>
-    <t>New Expected Outcome 405</t>
-  </si>
-  <si>
-    <t>New Task  Description05255</t>
-  </si>
-  <si>
-    <t>New Expected Outcome 4264</t>
-  </si>
-  <si>
-    <t>Automate Test83</t>
-  </si>
-  <si>
-    <t>New Expected Outcome 4543</t>
-  </si>
-  <si>
-    <t>New Expected Outcome 466</t>
-  </si>
-  <si>
-    <t>CIT(A)</t>
-  </si>
-  <si>
-    <t>New Task 0895658 Description</t>
-  </si>
-  <si>
-    <t>New Task  Description0567621</t>
-  </si>
-  <si>
-    <t>New Task  Description1760</t>
-  </si>
-  <si>
-    <t>order as on date 14april2023</t>
-  </si>
-  <si>
-    <t>Automate Test New test</t>
-  </si>
-  <si>
-    <t>RefNo-6554</t>
-  </si>
-  <si>
-    <t>High Court</t>
-  </si>
-  <si>
-    <t>No15643467</t>
-  </si>
-  <si>
-    <t>Ref-87674877807</t>
-  </si>
-  <si>
-    <t>Case 9638423510</t>
-  </si>
-  <si>
-    <t>No 834689203230</t>
-  </si>
-  <si>
-    <t>New Task 75567 Description</t>
-  </si>
-  <si>
-    <t>New Task 2343231</t>
-  </si>
-  <si>
-    <t>New Task Automate01062023</t>
-  </si>
-  <si>
-    <t>RefNo-104</t>
-  </si>
-  <si>
-    <t>Case 723415640</t>
-  </si>
-  <si>
-    <t>Automation Test 432</t>
-  </si>
-  <si>
-    <t>No 5410976373</t>
-  </si>
-  <si>
-    <t>Ref-9609568657</t>
-  </si>
-  <si>
-    <t>Shantanu</t>
-  </si>
-  <si>
-    <t>Bhosale</t>
-  </si>
-  <si>
-    <t>Kochin</t>
-  </si>
-  <si>
-    <t>Priyaanka</t>
-  </si>
-  <si>
-    <t>priynaka@itc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munnar </t>
-  </si>
-  <si>
-    <t>PP Pvt Ltd</t>
-  </si>
-  <si>
-    <t>shubham@itc.com</t>
-  </si>
-  <si>
-    <t>Agama Law Associates. Kanpur</t>
-  </si>
-  <si>
-    <t>azan@yahoo.com</t>
-  </si>
-  <si>
-    <t>Pawar</t>
-  </si>
-  <si>
-    <t>Agrud Partners. Kanpur</t>
-  </si>
-  <si>
-    <t>sushmita@yahoocom</t>
-  </si>
-  <si>
-    <t>Sushmita</t>
-  </si>
-  <si>
-    <t>Avirat Chavan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantasha </t>
-  </si>
-  <si>
-    <t>Chandrapur High Court</t>
-  </si>
-  <si>
-    <t>BSST</t>
-  </si>
-  <si>
-    <t>KSSL</t>
-  </si>
-  <si>
-    <t>NSST</t>
-  </si>
-  <si>
-    <t>RSSY</t>
-  </si>
-  <si>
-    <t>LSSTM</t>
-  </si>
-  <si>
-    <t>XSSXL</t>
-  </si>
-  <si>
-    <t>Automation Test 22</t>
-  </si>
-  <si>
-    <t>Case filing 22</t>
-  </si>
-  <si>
-    <t>Test Ordinal Criteris22</t>
-  </si>
-  <si>
-    <t>Test Interval Scales22</t>
-  </si>
-  <si>
-    <t>New write of Summon issues22</t>
-  </si>
-  <si>
-    <t>New Final hearing case22</t>
-  </si>
-  <si>
-    <t>New Notice Drafting Process22</t>
-  </si>
-  <si>
-    <t>New Documentation Step one22</t>
-  </si>
-  <si>
-    <t>VASIM HIGH COURT.</t>
-  </si>
-  <si>
-    <t>Automate Test 61</t>
-  </si>
-  <si>
-    <t>RefNo-7657</t>
-  </si>
-  <si>
-    <t>45a#</t>
-  </si>
-  <si>
-    <t>SF%^2</t>
-  </si>
-  <si>
-    <t>234#a</t>
-  </si>
-  <si>
-    <t>4958#2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task New 29062023</t>
-  </si>
-  <si>
-    <t>case no 5237519</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 30062023 new test</t>
-  </si>
-  <si>
-    <t>Automation  290623</t>
-  </si>
-  <si>
-    <t>New Task 30062023</t>
-  </si>
-  <si>
-    <t>Ref no-7453234</t>
+AZB &amp; Partners</t>
+  </si>
+  <si>
+    <t>abhi@gmail.com</t>
+  </si>
+  <si>
+    <t>Ranbir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Vaish associates</t>
+  </si>
+  <si>
+    <t>Kumbhar</t>
+  </si>
+  <si>
+    <t>unnati34@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mr. Kapoor</t>
+  </si>
+  <si>
+    <t>Mr. Kahanna</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh High Court</t>
+  </si>
+  <si>
+    <t>Jharkhand a High Court</t>
+  </si>
+  <si>
+    <t>ABCEF</t>
+  </si>
+  <si>
+    <t>BGHF</t>
+  </si>
+  <si>
+    <t>Modes of Digital Payments.</t>
+  </si>
+  <si>
+    <t>Bharat Interface for Money (BHIM):</t>
+  </si>
+  <si>
+    <t>BJGDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter10JULY 23 </t>
+  </si>
+  <si>
+    <t>BCVDGH</t>
+  </si>
+  <si>
+    <t>BDNHFT</t>
+  </si>
+  <si>
+    <t>Ration Card.</t>
+  </si>
+  <si>
+    <t>Educational Documents.</t>
+  </si>
+  <si>
+    <t>BNJDK</t>
+  </si>
+  <si>
+    <t>CVFFGT</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>GTFTRT</t>
+  </si>
+  <si>
+    <t>Ref no 764862</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1572,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1789,7 +1790,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1800,7 +1801,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1867,7 +1868,7 @@
         <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1900,7 +1901,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1920,7 +1921,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1944,7 +1945,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2040,7 +2041,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2183,7 +2184,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2204,7 +2205,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2460,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2683,7 +2684,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2694,7 +2695,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2705,7 +2706,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2765,7 +2766,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2865,7 +2866,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2961,7 +2962,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3106,7 +3107,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3117,7 +3118,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -3128,7 +3129,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -3168,7 +3169,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3189,7 +3190,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3272,7 +3273,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -3283,7 +3284,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -3404,7 +3405,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3420,7 +3421,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3428,7 +3429,7 @@
         <v>118</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3436,7 +3437,7 @@
         <v>146</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3444,7 +3445,7 @@
         <v>164</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3452,7 +3453,7 @@
         <v>118</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3466,7 +3467,7 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3474,7 +3475,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3490,7 +3491,7 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3498,7 +3499,7 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3514,7 +3515,7 @@
         <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3527,7 +3528,7 @@
         <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3535,7 +3536,7 @@
         <v>125</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3551,7 +3552,7 @@
         <v>118</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3580,7 +3581,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3588,7 +3589,7 @@
         <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3601,7 +3602,7 @@
         <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3609,7 +3610,7 @@
         <v>128</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3622,7 +3623,7 @@
         <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3630,7 +3631,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3643,7 +3644,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3651,7 +3652,7 @@
         <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3664,7 +3665,7 @@
         <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3672,7 +3673,7 @@
         <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3685,7 +3686,7 @@
         <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3693,7 +3694,7 @@
         <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3706,7 +3707,7 @@
         <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3714,7 +3715,7 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3727,7 +3728,7 @@
         <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3735,7 +3736,7 @@
         <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3748,7 +3749,7 @@
         <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3756,7 +3757,7 @@
         <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3799,7 +3800,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4023,7 +4024,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -4034,7 +4035,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4045,7 +4046,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4101,7 +4102,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4134,7 +4135,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4203,7 +4204,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4444,7 +4445,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4455,7 +4456,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4466,7 +4467,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -4506,7 +4507,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4527,7 +4528,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4611,7 +4612,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -4678,7 +4679,7 @@
   <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4716,7 +4717,7 @@
         <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4776,7 +4777,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4787,7 +4788,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4798,7 +4799,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -4863,7 +4864,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4871,7 +4872,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4896,7 +4897,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4933,7 +4934,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5074,7 +5075,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5087,7 +5088,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>74561846</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5095,7 +5096,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5126,10 +5127,10 @@
         <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="C64" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5140,7 +5141,7 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5148,10 +5149,10 @@
         <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="C66" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5159,10 +5160,10 @@
         <v>118</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5170,7 +5171,7 @@
         <v>146</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5178,7 +5179,7 @@
         <v>164</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5186,7 +5187,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5200,7 +5201,7 @@
         <v>122</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5208,7 +5209,7 @@
         <v>118</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5224,7 +5225,7 @@
         <v>124</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5243,12 +5244,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="25.5">
       <c r="A78" t="s">
         <v>147</v>
       </c>
-      <c r="B78" t="s">
-        <v>181</v>
+      <c r="B78" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5261,7 +5262,7 @@
         <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5269,7 +5270,7 @@
         <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5285,7 +5286,7 @@
         <v>118</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5314,7 +5315,7 @@
         <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5322,7 +5323,7 @@
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5335,7 +5336,7 @@
         <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5343,7 +5344,7 @@
         <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5356,7 +5357,7 @@
         <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5364,7 +5365,7 @@
         <v>129</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5383,7 +5384,7 @@
         <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5391,7 +5392,7 @@
         <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5404,7 +5405,7 @@
         <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5412,7 +5413,7 @@
         <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5425,7 +5426,7 @@
         <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5433,7 +5434,7 @@
         <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5446,7 +5447,7 @@
         <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5454,7 +5455,7 @@
         <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5467,7 +5468,7 @@
         <v>141</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5475,7 +5476,7 @@
         <v>141</v>
       </c>
       <c r="B125" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5488,7 +5489,7 @@
         <v>142</v>
       </c>
       <c r="B129" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5496,7 +5497,7 @@
         <v>142</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,11 +27,7 @@
     <sheet name="Login" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -27,12 +27,11 @@
     <sheet name="Login" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="284">
   <si>
     <t>URL</t>
   </si>
@@ -562,15 +561,6 @@
     <t>Automate Testt</t>
   </si>
   <si>
-    <t>Task as on date 654374</t>
-  </si>
-  <si>
-    <t>Task as on date 343244</t>
-  </si>
-  <si>
-    <t>order 12april</t>
-  </si>
-  <si>
     <t>New Task  Description2043</t>
   </si>
   <si>
@@ -782,15 +772,6 @@
   </si>
   <si>
     <t>Ref no-7453234</t>
-  </si>
-  <si>
-    <t>Case No 8767545</t>
-  </si>
-  <si>
-    <t>Case No 345432</t>
-  </si>
-  <si>
-    <t>Automate Test New 76</t>
   </si>
   <si>
     <t>AP Pvt Ltd</t>
@@ -885,7 +866,25 @@
     <t>GTFTRT</t>
   </si>
   <si>
-    <t>Ref no 764862</t>
+    <t>Case No 986785453</t>
+  </si>
+  <si>
+    <t>Case No 98678578</t>
+  </si>
+  <si>
+    <t>Ref no 73542451</t>
+  </si>
+  <si>
+    <t>Task as on date 544</t>
+  </si>
+  <si>
+    <t>Task as on date 232</t>
+  </si>
+  <si>
+    <t>Automate Test New 564</t>
+  </si>
+  <si>
+    <t>order 12july</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1786,7 +1785,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1797,7 +1796,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1864,7 +1863,7 @@
         <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1897,7 +1896,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1917,7 +1916,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1941,7 +1940,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2037,7 +2036,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2180,7 +2179,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2201,7 +2200,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2457,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2680,7 +2679,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2691,7 +2690,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2702,7 +2701,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2762,7 +2761,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2862,7 +2861,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2958,7 +2957,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3103,7 +3102,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3114,7 +3113,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -3125,7 +3124,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -3165,7 +3164,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3186,7 +3185,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3269,7 +3268,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -3280,7 +3279,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -3401,7 +3400,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3417,7 +3416,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3425,7 +3424,7 @@
         <v>118</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3433,7 +3432,7 @@
         <v>146</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3441,7 +3440,7 @@
         <v>164</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3449,7 +3448,7 @@
         <v>118</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3463,7 +3462,7 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3471,7 +3470,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3487,7 +3486,7 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3495,7 +3494,7 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3511,7 +3510,7 @@
         <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3524,7 +3523,7 @@
         <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3532,7 +3531,7 @@
         <v>125</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3548,7 +3547,7 @@
         <v>118</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3577,7 +3576,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3585,7 +3584,7 @@
         <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3598,7 +3597,7 @@
         <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3606,7 +3605,7 @@
         <v>128</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3619,7 +3618,7 @@
         <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3627,7 +3626,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3640,7 +3639,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3648,7 +3647,7 @@
         <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3661,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3669,7 +3668,7 @@
         <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3682,7 +3681,7 @@
         <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3690,7 +3689,7 @@
         <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3703,7 +3702,7 @@
         <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3711,7 +3710,7 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3724,7 +3723,7 @@
         <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3732,7 +3731,7 @@
         <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3745,7 +3744,7 @@
         <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3753,7 +3752,7 @@
         <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3780,8 +3779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3796,7 +3795,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4020,7 +4019,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -4031,7 +4030,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4042,7 +4041,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4098,7 +4097,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4131,7 +4130,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4200,7 +4199,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4441,7 +4440,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4452,7 +4451,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4463,7 +4462,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -4503,7 +4502,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4524,7 +4523,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4674,8 +4673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4708,12 +4707,20 @@
         <v>150</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4768,12 +4775,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4784,7 +4799,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4893,7 +4908,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4930,7 +4945,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5071,7 +5086,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5084,7 +5099,7 @@
         <v>97</v>
       </c>
       <c r="B54">
-        <v>342</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5092,7 +5107,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5123,10 +5138,10 @@
         <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5137,7 +5152,7 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5145,10 +5160,10 @@
         <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5156,10 +5171,10 @@
         <v>118</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5167,7 +5182,7 @@
         <v>146</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5175,7 +5190,7 @@
         <v>164</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5183,7 +5198,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5197,7 +5212,7 @@
         <v>122</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5205,7 +5220,7 @@
         <v>118</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5221,7 +5236,7 @@
         <v>124</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5245,7 +5260,7 @@
         <v>147</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5266,7 +5281,7 @@
         <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5282,7 +5297,7 @@
         <v>118</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5311,7 +5326,7 @@
         <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5319,7 +5334,7 @@
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5332,7 +5347,7 @@
         <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5340,7 +5355,7 @@
         <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5353,7 +5368,7 @@
         <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5361,7 +5376,7 @@
         <v>129</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5380,7 +5395,7 @@
         <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5388,7 +5403,7 @@
         <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5401,7 +5416,7 @@
         <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5409,7 +5424,7 @@
         <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5422,7 +5437,7 @@
         <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5430,7 +5445,7 @@
         <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5443,7 +5458,7 @@
         <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5451,7 +5466,7 @@
         <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5464,7 +5479,7 @@
         <v>141</v>
       </c>
       <c r="B124" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5472,7 +5487,7 @@
         <v>141</v>
       </c>
       <c r="B125" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5485,7 +5500,7 @@
         <v>142</v>
       </c>
       <c r="B129" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5493,7 +5508,7 @@
         <v>142</v>
       </c>
       <c r="B130" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -522,9 +522,6 @@
     <t>fe@bitaconsulting.co.in</t>
   </si>
   <si>
-    <t>Patil</t>
-  </si>
-  <si>
     <t>Subunits</t>
   </si>
   <si>
@@ -774,117 +771,120 @@
     <t>Ref no-7453234</t>
   </si>
   <si>
-    <t>AP Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Poonam</t>
-  </si>
-  <si>
-    <t>poonam@yahoo.com</t>
-  </si>
-  <si>
-    <t>Ngar Pvt Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jammu </t>
-  </si>
-  <si>
-    <t>ashma87@itc.com</t>
+    <t>Ranbir</t>
+  </si>
+  <si>
+    <t>Modes of Digital Payments.</t>
+  </si>
+  <si>
+    <t>Bharat Interface for Money (BHIM):</t>
+  </si>
+  <si>
+    <t>BJGDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter10JULY 23 </t>
+  </si>
+  <si>
+    <t>BCVDGH</t>
+  </si>
+  <si>
+    <t>BDNHFT</t>
+  </si>
+  <si>
+    <t>Ration Card.</t>
+  </si>
+  <si>
+    <t>Educational Documents.</t>
+  </si>
+  <si>
+    <t>BNJDK</t>
+  </si>
+  <si>
+    <t>CVFFGT</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>GTFTRT</t>
+  </si>
+  <si>
+    <t>Case No 986785453</t>
+  </si>
+  <si>
+    <t>Case No 98678578</t>
+  </si>
+  <si>
+    <t>Ref no 73542451</t>
+  </si>
+  <si>
+    <t>Task as on date 544</t>
+  </si>
+  <si>
+    <t>Task as on date 232</t>
+  </si>
+  <si>
+    <t>Automate Test New 564</t>
+  </si>
+  <si>
+    <t>order 12july</t>
+  </si>
+  <si>
+    <t>MP Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Davendra</t>
+  </si>
+  <si>
+    <t>davendra@yahoo.com</t>
+  </si>
+  <si>
+    <t>Anagar Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Kashmir</t>
+  </si>
+  <si>
+    <t>ashma76@itc.com</t>
   </si>
   <si>
     <t xml:space="preserve">
-AZB &amp; Partners</t>
-  </si>
-  <si>
-    <t>abhi@gmail.com</t>
-  </si>
-  <si>
-    <t>Ranbir</t>
+AQQB &amp; Partners</t>
+  </si>
+  <si>
+    <t>abhi45@gmail.com</t>
+  </si>
+  <si>
+    <t>Sawant</t>
   </si>
   <si>
     <t xml:space="preserve">
-Vaish associates</t>
-  </si>
-  <si>
-    <t>Kumbhar</t>
-  </si>
-  <si>
-    <t>unnati34@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mr. Kapoor</t>
-  </si>
-  <si>
-    <t>Mr. Kahanna</t>
-  </si>
-  <si>
-    <t>Himachal Pradesh High Court</t>
-  </si>
-  <si>
-    <t>Jharkhand a High Court</t>
-  </si>
-  <si>
-    <t>ABCEF</t>
-  </si>
-  <si>
-    <t>BGHF</t>
-  </si>
-  <si>
-    <t>Modes of Digital Payments.</t>
-  </si>
-  <si>
-    <t>Bharat Interface for Money (BHIM):</t>
-  </si>
-  <si>
-    <t>BJGDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter10JULY 23 </t>
-  </si>
-  <si>
-    <t>BCVDGH</t>
-  </si>
-  <si>
-    <t>BDNHFT</t>
-  </si>
-  <si>
-    <t>Ration Card.</t>
-  </si>
-  <si>
-    <t>Educational Documents.</t>
-  </si>
-  <si>
-    <t>BNJDK</t>
-  </si>
-  <si>
-    <t>CVFFGT</t>
-  </si>
-  <si>
-    <t>POWER</t>
-  </si>
-  <si>
-    <t>GTFTRT</t>
-  </si>
-  <si>
-    <t>Case No 986785453</t>
-  </si>
-  <si>
-    <t>Case No 98678578</t>
-  </si>
-  <si>
-    <t>Ref no 73542451</t>
-  </si>
-  <si>
-    <t>Task as on date 544</t>
-  </si>
-  <si>
-    <t>Task as on date 232</t>
-  </si>
-  <si>
-    <t>Automate Test New 564</t>
-  </si>
-  <si>
-    <t>order 12july</t>
+New vaish associates</t>
+  </si>
+  <si>
+    <t>Chavan</t>
+  </si>
+  <si>
+    <t>unnati56@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mr. Bari</t>
+  </si>
+  <si>
+    <t>Mr. Mokashi</t>
+  </si>
+  <si>
+    <t>HP High Court</t>
+  </si>
+  <si>
+    <t>Mizoram a High Court</t>
+  </si>
+  <si>
+    <t>ABWEF</t>
+  </si>
+  <si>
+    <t>BGHFD</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1785,7 +1785,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1796,7 +1796,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1863,7 +1863,7 @@
         <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1896,7 +1896,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1916,7 +1916,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1940,7 +1940,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2036,7 +2036,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2179,7 +2179,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2334,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2380,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2396,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2412,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2420,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2679,7 +2679,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2690,7 +2690,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2701,7 +2701,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2761,7 +2761,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2861,7 +2861,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2957,7 +2957,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3102,7 +3102,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3113,7 +3113,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -3124,7 +3124,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -3164,7 +3164,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3185,7 +3185,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -3279,7 +3279,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -3400,7 +3400,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>118</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3432,15 +3432,15 @@
         <v>146</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>118</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3462,7 +3462,7 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3523,7 +3523,7 @@
         <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3531,7 +3531,7 @@
         <v>125</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3547,7 +3547,7 @@
         <v>118</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3597,7 +3597,7 @@
         <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>128</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3618,7 +3618,7 @@
         <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3639,7 +3639,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3660,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3681,7 +3681,7 @@
         <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3689,7 +3689,7 @@
         <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3702,7 +3702,7 @@
         <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3723,7 +3723,7 @@
         <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3731,7 +3731,7 @@
         <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3744,7 +3744,7 @@
         <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3795,7 +3795,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3989,7 +3989,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4019,7 +4019,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -4030,7 +4030,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4041,7 +4041,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4097,7 +4097,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4130,7 +4130,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4199,7 +4199,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4440,7 +4440,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4451,7 +4451,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4462,7 +4462,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -4502,7 +4502,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4523,7 +4523,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -4673,8 +4673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4720,7 +4720,7 @@
         <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4780,7 +4780,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4788,7 +4788,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4799,7 +4799,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4810,7 +4810,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -4845,7 +4845,7 @@
         <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4875,7 +4875,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4883,7 +4883,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4908,7 +4908,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4945,7 +4945,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5086,7 +5086,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5107,7 +5107,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5138,10 +5138,10 @@
         <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5160,10 +5160,10 @@
         <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5171,10 +5171,10 @@
         <v>118</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5182,15 +5182,15 @@
         <v>146</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5212,7 +5212,7 @@
         <v>122</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5220,7 +5220,7 @@
         <v>118</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5236,7 +5236,7 @@
         <v>124</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5244,7 +5244,7 @@
         <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5260,7 +5260,7 @@
         <v>147</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5273,7 +5273,7 @@
         <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5281,7 +5281,7 @@
         <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5297,7 +5297,7 @@
         <v>118</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5347,7 +5347,7 @@
         <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5355,7 +5355,7 @@
         <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5368,7 +5368,7 @@
         <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5376,7 +5376,7 @@
         <v>129</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5395,7 +5395,7 @@
         <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5403,7 +5403,7 @@
         <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5416,7 +5416,7 @@
         <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5424,7 +5424,7 @@
         <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5437,7 +5437,7 @@
         <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5458,7 +5458,7 @@
         <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5466,7 +5466,7 @@
         <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5479,7 +5479,7 @@
         <v>141</v>
       </c>
       <c r="B124" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>141</v>
       </c>
       <c r="B125" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5500,7 +5500,7 @@
         <v>142</v>
       </c>
       <c r="B129" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5508,7 +5508,7 @@
         <v>142</v>
       </c>
       <c r="B130" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -543,9 +543,6 @@
     <t>Task as on 1520223</t>
   </si>
   <si>
-    <t>Unnati</t>
-  </si>
-  <si>
     <t>New Task 51287</t>
   </si>
   <si>
@@ -771,45 +768,6 @@
     <t>Ref no-7453234</t>
   </si>
   <si>
-    <t>Ranbir</t>
-  </si>
-  <si>
-    <t>Modes of Digital Payments.</t>
-  </si>
-  <si>
-    <t>Bharat Interface for Money (BHIM):</t>
-  </si>
-  <si>
-    <t>BJGDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter10JULY 23 </t>
-  </si>
-  <si>
-    <t>BCVDGH</t>
-  </si>
-  <si>
-    <t>BDNHFT</t>
-  </si>
-  <si>
-    <t>Ration Card.</t>
-  </si>
-  <si>
-    <t>Educational Documents.</t>
-  </si>
-  <si>
-    <t>BNJDK</t>
-  </si>
-  <si>
-    <t>CVFFGT</t>
-  </si>
-  <si>
-    <t>POWER</t>
-  </si>
-  <si>
-    <t>GTFTRT</t>
-  </si>
-  <si>
     <t>Case No 986785453</t>
   </si>
   <si>
@@ -831,60 +789,102 @@
     <t>order 12july</t>
   </si>
   <si>
-    <t>MP Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Davendra</t>
-  </si>
-  <si>
-    <t>davendra@yahoo.com</t>
-  </si>
-  <si>
-    <t>Anagar Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Kashmir</t>
-  </si>
-  <si>
-    <t>ashma76@itc.com</t>
+    <t>Sawant</t>
+  </si>
+  <si>
+    <t>Chavan</t>
+  </si>
+  <si>
+    <t>Yashodha Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Vinit</t>
+  </si>
+  <si>
+    <t>vinit45@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ashoka Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Hariyana</t>
+  </si>
+  <si>
+    <t>ashima783@itc.com</t>
   </si>
   <si>
     <t xml:space="preserve">
-AQQB &amp; Partners</t>
-  </si>
-  <si>
-    <t>abhi45@gmail.com</t>
-  </si>
-  <si>
-    <t>Sawant</t>
+AABC &amp; Partners</t>
+  </si>
+  <si>
+    <t>avnish75@gmail.com</t>
+  </si>
+  <si>
+    <t>Avirath</t>
   </si>
   <si>
     <t xml:space="preserve">
-New vaish associates</t>
-  </si>
-  <si>
-    <t>Chavan</t>
-  </si>
-  <si>
-    <t>unnati56@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mr. Bari</t>
-  </si>
-  <si>
-    <t>Mr. Mokashi</t>
-  </si>
-  <si>
-    <t>HP High Court</t>
-  </si>
-  <si>
-    <t>Mizoram a High Court</t>
-  </si>
-  <si>
-    <t>ABWEF</t>
-  </si>
-  <si>
-    <t>BGHFD</t>
+NCDG associates</t>
+  </si>
+  <si>
+    <t>Prutviraj</t>
+  </si>
+  <si>
+    <t>pruthviraj56@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mr. Bhoyar</t>
+  </si>
+  <si>
+    <t>Mr. Arun</t>
+  </si>
+  <si>
+    <t>HPP High Court</t>
+  </si>
+  <si>
+    <t>Manipura High Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PQR </t>
+  </si>
+  <si>
+    <t>BGJFD</t>
+  </si>
+  <si>
+    <t>Aadhaar Enabled Payment System (AePS)</t>
+  </si>
+  <si>
+    <t>Immediate Payment Services (IMPS)</t>
+  </si>
+  <si>
+    <t>NHSJT</t>
+  </si>
+  <si>
+    <t>LIP</t>
+  </si>
+  <si>
+    <t>RTS</t>
+  </si>
+  <si>
+    <t>Acrobat PDF</t>
+  </si>
+  <si>
+    <t>GZIP Archive</t>
+  </si>
+  <si>
+    <t>GHTD</t>
+  </si>
+  <si>
+    <t>HDT</t>
+  </si>
+  <si>
+    <t>Ex-parte Decree</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Execution of Decree</t>
+  </si>
+  <si>
+    <t>ASRD</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1785,7 +1785,7 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -1796,7 +1796,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -1863,7 +1863,7 @@
         <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1896,7 +1896,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1916,7 +1916,7 @@
         <v>92</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1940,7 +1940,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2036,7 +2036,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2179,7 +2179,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2679,7 +2679,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -2690,7 +2690,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -2701,7 +2701,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2761,7 +2761,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2861,7 +2861,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2957,7 +2957,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3102,7 +3102,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -3113,7 +3113,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -3124,7 +3124,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -3164,7 +3164,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3185,7 +3185,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -3279,7 +3279,7 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -3400,7 +3400,7 @@
         <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>118</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>146</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3440,7 +3440,7 @@
         <v>163</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>118</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3462,7 +3462,7 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3470,7 +3470,7 @@
         <v>118</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3486,7 +3486,7 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3494,7 +3494,7 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3510,7 +3510,7 @@
         <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3523,7 +3523,7 @@
         <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3531,7 +3531,7 @@
         <v>125</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3547,7 +3547,7 @@
         <v>118</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3597,7 +3597,7 @@
         <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>128</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3618,7 +3618,7 @@
         <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3639,7 +3639,7 @@
         <v>134</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3660,7 +3660,7 @@
         <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3681,7 +3681,7 @@
         <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3689,7 +3689,7 @@
         <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3702,7 +3702,7 @@
         <v>139</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3710,7 +3710,7 @@
         <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3723,7 +3723,7 @@
         <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3731,7 +3731,7 @@
         <v>141</v>
       </c>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3744,7 +3744,7 @@
         <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3795,7 +3795,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4019,7 +4019,7 @@
         <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -4030,7 +4030,7 @@
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4041,7 +4041,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4097,7 +4097,7 @@
         <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4130,7 +4130,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4199,7 +4199,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4440,7 +4440,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -4451,7 +4451,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -4462,7 +4462,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -4502,7 +4502,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4523,7 +4523,7 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -4673,8 +4673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4720,7 +4720,7 @@
         <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4788,7 +4788,7 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -4799,7 +4799,7 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -4810,7 +4810,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -4875,7 +4875,7 @@
         <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4883,7 +4883,7 @@
         <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4908,7 +4908,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4945,7 +4945,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5086,7 +5086,7 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5107,7 +5107,7 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5138,10 +5138,10 @@
         <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5160,10 +5160,10 @@
         <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5171,10 +5171,10 @@
         <v>118</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5182,7 +5182,7 @@
         <v>146</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5190,7 +5190,7 @@
         <v>163</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5198,7 +5198,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5212,7 +5212,7 @@
         <v>122</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5220,7 +5220,7 @@
         <v>118</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5236,7 +5236,7 @@
         <v>124</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5244,7 +5244,7 @@
         <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5260,7 +5260,7 @@
         <v>147</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5273,7 +5273,7 @@
         <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5281,7 +5281,7 @@
         <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5297,7 +5297,7 @@
         <v>118</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5326,7 +5326,7 @@
         <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5334,7 +5334,7 @@
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5347,7 +5347,7 @@
         <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5355,7 +5355,7 @@
         <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5368,7 +5368,7 @@
         <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5376,7 +5376,7 @@
         <v>129</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5395,7 +5395,7 @@
         <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5403,7 +5403,7 @@
         <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5416,7 +5416,7 @@
         <v>136</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5424,7 +5424,7 @@
         <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5437,7 +5437,7 @@
         <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5458,7 +5458,7 @@
         <v>139</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5466,7 +5466,7 @@
         <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5479,7 +5479,7 @@
         <v>141</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5487,7 +5487,7 @@
         <v>141</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5500,7 +5500,7 @@
         <v>142</v>
       </c>
       <c r="B129" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5508,7 +5508,7 @@
         <v>142</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="283">
   <si>
     <t>URL</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Court</t>
-  </si>
-  <si>
-    <t>Jammu</t>
   </si>
   <si>
     <t>Judge</t>
@@ -1551,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1567,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1624,7 +1621,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1638,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1690,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1761,7 +1758,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1782,48 +1779,48 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" t="s">
         <v>67</v>
-      </c>
-      <c r="B30" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
         <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
@@ -1834,44 +1831,44 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
         <v>103</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1896,7 +1893,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1907,32 +1904,32 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1940,7 +1937,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1954,7 +1951,7 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1968,7 +1965,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2036,15 +2033,15 @@
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
         <v>58</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -2052,10 +2049,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -2066,12 +2063,12 @@
         <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -2079,15 +2076,15 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
         <v>63</v>
-      </c>
-      <c r="B67" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>31</v>
@@ -2142,7 +2139,7 @@
         <v>34</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2171,25 +2168,25 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83">
         <v>84650</v>
@@ -2197,20 +2194,20 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B87" s="8">
         <v>44571</v>
@@ -2218,7 +2215,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88">
         <v>6345578</v>
@@ -2226,7 +2223,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89">
         <v>49600</v>
@@ -2234,12 +2231,12 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>4567</v>
@@ -2247,7 +2244,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B97">
         <v>50000</v>
@@ -2288,7 +2285,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2296,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2331,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2380,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2396,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2412,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2420,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2453,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2470,7 +2467,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2497,7 +2494,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2650,7 +2647,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2671,53 +2668,53 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -2728,7 +2725,7 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2736,40 +2733,40 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
         <v>103</v>
-      </c>
-      <c r="B35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2804,31 +2801,31 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2845,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2861,7 +2858,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2875,7 +2872,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2941,7 +2938,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2957,15 +2954,15 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -2973,10 +2970,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -2987,12 +2984,12 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -3000,15 +2997,15 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>31</v>
@@ -3063,7 +3060,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3071,7 +3068,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3092,55 +3089,55 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -3151,30 +3148,30 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40">
         <v>564</v>
@@ -3182,20 +3179,20 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="8">
         <v>44571</v>
@@ -3203,7 +3200,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>876</v>
@@ -3211,7 +3208,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>45600</v>
@@ -3219,12 +3216,12 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53">
         <v>5432</v>
@@ -3232,7 +3229,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>50000</v>
@@ -3265,48 +3262,48 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -3317,12 +3314,12 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="8">
         <v>44571</v>
@@ -3330,7 +3327,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="8">
         <v>44570</v>
@@ -3350,7 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -3374,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3387,25 +3384,25 @@
     </row>
     <row r="9" spans="1:2" s="9" customFormat="1" ht="15.75">
       <c r="A9" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="16" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -3413,69 +3410,69 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
       <c r="A18" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21">
         <v>7696524324</v>
@@ -3483,23 +3480,23 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -3507,36 +3504,36 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -3544,15 +3541,15 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31">
         <v>9943234594</v>
@@ -3560,31 +3557,31 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" t="s">
         <v>144</v>
-      </c>
-      <c r="B32" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="24" customFormat="1">
       <c r="A33" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3594,165 +3591,165 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
       <c r="A42" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
       <c r="A45" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
       <c r="A48" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
       <c r="A51" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
       <c r="A54" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
       <c r="A57" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3779,7 +3776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -3795,7 +3792,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3852,7 +3849,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -3866,7 +3863,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -3918,7 +3915,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3989,7 +3986,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4010,54 +4007,54 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
         <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -4068,44 +4065,44 @@
         <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
         <v>103</v>
-      </c>
-      <c r="B35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4130,7 +4127,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4141,32 +4138,32 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4184,7 +4181,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4199,7 +4196,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4213,7 +4210,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -4227,7 +4224,7 @@
         <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4295,15 +4292,15 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -4311,10 +4308,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -4325,12 +4322,12 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -4338,15 +4335,15 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>31</v>
@@ -4401,7 +4398,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4430,55 +4427,55 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
@@ -4489,30 +4486,30 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40">
         <v>231234</v>
@@ -4520,20 +4517,20 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="8">
         <v>44571</v>
@@ -4541,7 +4538,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>6578</v>
@@ -4549,7 +4546,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>45600</v>
@@ -4557,12 +4554,12 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53">
         <v>4567</v>
@@ -4570,7 +4567,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>50000</v>
@@ -4604,48 +4601,48 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
@@ -4656,7 +4653,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4673,7 +4670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
@@ -4696,7 +4693,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4704,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4717,10 +4714,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4733,7 +4730,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -4744,7 +4741,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -4758,7 +4755,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -4780,56 +4777,56 @@
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" t="s">
         <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4837,53 +4834,53 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
         <v>103</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4908,7 +4905,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4919,7 +4916,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3"/>
     </row>
@@ -4929,15 +4926,15 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4945,7 +4942,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -4959,7 +4956,7 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -4973,7 +4970,7 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -5033,7 +5030,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5041,12 +5038,12 @@
         <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -5054,18 +5051,18 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
         <v>63</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5078,25 +5075,25 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54">
         <v>3242</v>
@@ -5104,20 +5101,20 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59">
         <v>45167</v>
@@ -5125,107 +5122,107 @@
     </row>
     <row r="62" spans="1:3" s="9" customFormat="1" ht="15.75">
       <c r="A62" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="16" customFormat="1">
       <c r="A63" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
       <c r="A71" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" s="17"/>
     </row>
     <row r="72" spans="1:3" ht="25.5">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74">
         <v>8796543294</v>
@@ -5233,23 +5230,23 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -5257,36 +5254,36 @@
     </row>
     <row r="78" spans="1:3" ht="25.5">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -5294,15 +5291,15 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>9943234594</v>
@@ -5310,7 +5307,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
@@ -5318,23 +5315,23 @@
     </row>
     <row r="88" spans="1:2" s="16" customFormat="1">
       <c r="A88" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5344,39 +5341,39 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
       <c r="A98" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5387,128 +5384,128 @@
     </row>
     <row r="103" spans="1:2" s="16" customFormat="1">
       <c r="A103" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
       <c r="A108" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
       <c r="A113" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
       <c r="A118" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
       <c r="A123" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
       <c r="A128" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -747,24 +747,6 @@
     <t>4958#2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Task New 29062023</t>
-  </si>
-  <si>
-    <t>case no 5237519</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 30062023 new test</t>
-  </si>
-  <si>
-    <t>Automation  290623</t>
-  </si>
-  <si>
-    <t>New Task 30062023</t>
-  </si>
-  <si>
-    <t>Ref no-7453234</t>
-  </si>
-  <si>
     <t>Case No 986785453</t>
   </si>
   <si>
@@ -882,6 +864,24 @@
   </si>
   <si>
     <t>ASRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 24aug23</t>
+  </si>
+  <si>
+    <t>New Task 24aug23</t>
+  </si>
+  <si>
+    <t>Ref no-6849758</t>
+  </si>
+  <si>
+    <t>case no 25393647</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 25aug23 new test</t>
+  </si>
+  <si>
+    <t>Automation  250623</t>
   </si>
 </sst>
 </file>
@@ -2437,7 +2437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2453,7 +2453,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2676,7 +2676,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -2790,7 +2790,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>856467403</v>
+        <v>757474</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2858,7 +2858,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3099,7 +3099,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3174,7 +3174,7 @@
         <v>96</v>
       </c>
       <c r="B40">
-        <v>564</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3203,7 +3203,7 @@
         <v>100</v>
       </c>
       <c r="B45">
-        <v>876</v>
+        <v>64647</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3211,7 +3211,7 @@
         <v>101</v>
       </c>
       <c r="B46">
-        <v>45600</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3265,7 +3265,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -4717,7 +4717,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4785,7 +4785,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -4796,7 +4796,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -4905,7 +4905,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4942,7 +4942,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5083,7 +5083,7 @@
         <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5104,7 +5104,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5135,7 +5135,7 @@
         <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
         <v>234</v>
@@ -5157,7 +5157,7 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s">
         <v>236</v>
@@ -5168,7 +5168,7 @@
         <v>117</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C67" t="s">
         <v>237</v>
@@ -5179,7 +5179,7 @@
         <v>145</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5187,7 +5187,7 @@
         <v>162</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5195,7 +5195,7 @@
         <v>117</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5209,7 +5209,7 @@
         <v>121</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5217,7 +5217,7 @@
         <v>117</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5233,7 +5233,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5241,7 +5241,7 @@
         <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5257,7 +5257,7 @@
         <v>146</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5270,7 +5270,7 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5278,7 +5278,7 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5294,7 +5294,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5323,7 +5323,7 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5331,7 +5331,7 @@
         <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5344,7 +5344,7 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5352,7 +5352,7 @@
         <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5365,7 +5365,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>128</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5392,7 +5392,7 @@
         <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5400,7 +5400,7 @@
         <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5413,7 +5413,7 @@
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5421,7 +5421,7 @@
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5434,7 +5434,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5442,7 +5442,7 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5455,7 +5455,7 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5476,7 +5476,7 @@
         <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5484,7 +5484,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5497,7 +5497,7 @@
         <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5505,7 +5505,7 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="284">
   <si>
     <t>URL</t>
   </si>
@@ -540,9 +540,6 @@
     <t>Task as on 1520223</t>
   </si>
   <si>
-    <t>New Task 51287</t>
-  </si>
-  <si>
     <t>New Expected Outcome 153</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
     <t>Automate Testt</t>
   </si>
   <si>
-    <t>New Task  Description2043</t>
-  </si>
-  <si>
     <t>New Expected Outcome 405</t>
   </si>
   <si>
@@ -621,115 +615,13 @@
     <t>RefNo-104</t>
   </si>
   <si>
-    <t>Case 723415640</t>
-  </si>
-  <si>
     <t>Automation Test 432</t>
   </si>
   <si>
-    <t>No 5410976373</t>
-  </si>
-  <si>
-    <t>Ref-9609568657</t>
-  </si>
-  <si>
     <t>Shantanu</t>
   </si>
   <si>
-    <t>Bhosale</t>
-  </si>
-  <si>
-    <t>Kochin</t>
-  </si>
-  <si>
-    <t>Priyaanka</t>
-  </si>
-  <si>
-    <t>priynaka@itc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Munnar </t>
-  </si>
-  <si>
-    <t>PP Pvt Ltd</t>
-  </si>
-  <si>
-    <t>shubham@itc.com</t>
-  </si>
-  <si>
-    <t>Agama Law Associates. Kanpur</t>
-  </si>
-  <si>
-    <t>azan@yahoo.com</t>
-  </si>
-  <si>
-    <t>Pawar</t>
-  </si>
-  <si>
-    <t>Agrud Partners. Kanpur</t>
-  </si>
-  <si>
-    <t>sushmita@yahoocom</t>
-  </si>
-  <si>
     <t>Sushmita</t>
-  </si>
-  <si>
-    <t>Avirat Chavan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantasha </t>
-  </si>
-  <si>
-    <t>Chandrapur High Court</t>
-  </si>
-  <si>
-    <t>BSST</t>
-  </si>
-  <si>
-    <t>KSSL</t>
-  </si>
-  <si>
-    <t>NSST</t>
-  </si>
-  <si>
-    <t>RSSY</t>
-  </si>
-  <si>
-    <t>LSSTM</t>
-  </si>
-  <si>
-    <t>XSSXL</t>
-  </si>
-  <si>
-    <t>Automation Test 22</t>
-  </si>
-  <si>
-    <t>Case filing 22</t>
-  </si>
-  <si>
-    <t>Test Ordinal Criteris22</t>
-  </si>
-  <si>
-    <t>Test Interval Scales22</t>
-  </si>
-  <si>
-    <t>New write of Summon issues22</t>
-  </si>
-  <si>
-    <t>New Final hearing case22</t>
-  </si>
-  <si>
-    <t>New Notice Drafting Process22</t>
-  </si>
-  <si>
-    <t>New Documentation Step one22</t>
-  </si>
-  <si>
-    <t>VASIM HIGH COURT.</t>
-  </si>
-  <si>
-    <t>Automate Test 61</t>
   </si>
   <si>
     <t>RefNo-7657</t>
@@ -866,22 +758,134 @@
     <t>ASRD</t>
   </si>
   <si>
-    <t xml:space="preserve"> Task New 24aug23</t>
-  </si>
-  <si>
-    <t>New Task 24aug23</t>
-  </si>
-  <si>
-    <t>Ref no-6849758</t>
-  </si>
-  <si>
-    <t>case no 25393647</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 25aug23 new test</t>
-  </si>
-  <si>
-    <t>Automation  250623</t>
+    <t>Checks</t>
+  </si>
+  <si>
+    <t>Tekadi</t>
+  </si>
+  <si>
+    <t>Pagare</t>
+  </si>
+  <si>
+    <t>sushmita@itc.com</t>
+  </si>
+  <si>
+    <t>Avirat Sawant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durvank </t>
+  </si>
+  <si>
+    <t>CHHATTISGARH HIGH COURT.</t>
+  </si>
+  <si>
+    <t>ALLAHABAD HIGH COURT.</t>
+  </si>
+  <si>
+    <t>Constructive notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Implied notice,</t>
+  </si>
+  <si>
+    <t>Cryptocurrency</t>
+  </si>
+  <si>
+    <t>Autopay</t>
+  </si>
+  <si>
+    <t>Local Custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General custom </t>
+  </si>
+  <si>
+    <t>Case filing</t>
+  </si>
+  <si>
+    <t>Pre-admission hearing</t>
+  </si>
+  <si>
+    <t>GIF</t>
+  </si>
+  <si>
+    <t>Bitmap</t>
+  </si>
+  <si>
+    <t>interval scale</t>
+  </si>
+  <si>
+    <t>ordinal scale</t>
+  </si>
+  <si>
+    <t>Appearance of parties</t>
+  </si>
+  <si>
+    <t>Ludhiyana</t>
+  </si>
+  <si>
+    <t>Aarati</t>
+  </si>
+  <si>
+    <t>aarati@itc.com</t>
+  </si>
+  <si>
+    <t>PR Pvt Ltd</t>
+  </si>
+  <si>
+    <t>sunita@itc.com</t>
+  </si>
+  <si>
+    <t>Phoenix Legal</t>
+  </si>
+  <si>
+    <t>sakib@itc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+AZB &amp; Partners</t>
+  </si>
+  <si>
+    <t>No15344</t>
+  </si>
+  <si>
+    <t>New Task  Description2143</t>
+  </si>
+  <si>
+    <t>Automation  300623</t>
+  </si>
+  <si>
+    <t>Ref no-87652370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 31Dec23</t>
+  </si>
+  <si>
+    <t>case no 345687610</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 30Aug23 new test</t>
+  </si>
+  <si>
+    <t>Automate Test 63</t>
+  </si>
+  <si>
+    <t>New Task 29Sep23</t>
+  </si>
+  <si>
+    <t>Ref-8765234509</t>
+  </si>
+  <si>
+    <t>No 234567609</t>
+  </si>
+  <si>
+    <t>New Task Automate11062023</t>
+  </si>
+  <si>
+    <t>New Task 512387</t>
+  </si>
+  <si>
+    <t>Case 98765345</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1782,7 +1786,7 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -1793,7 +1797,7 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
@@ -1860,7 +1864,7 @@
         <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1893,7 +1897,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1913,7 +1917,7 @@
         <v>91</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1937,7 +1941,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2033,7 +2037,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2176,7 +2180,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2197,7 +2201,7 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2437,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2453,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2676,7 +2680,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -2687,7 +2691,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -2698,7 +2702,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -2758,7 +2762,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2790,7 +2794,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>757474</v>
+        <v>13456098</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2809,7 +2813,7 @@
         <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2840,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2858,7 +2862,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2954,7 +2958,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3099,7 +3103,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3110,7 +3114,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -3121,7 +3125,7 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -3161,7 +3165,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3174,7 +3178,7 @@
         <v>96</v>
       </c>
       <c r="B40">
-        <v>45322</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3182,7 +3186,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3203,7 +3207,7 @@
         <v>100</v>
       </c>
       <c r="B45">
-        <v>64647</v>
+        <v>89347</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3224,7 +3228,7 @@
         <v>100</v>
       </c>
       <c r="B53">
-        <v>5432</v>
+        <v>74432</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3233,6 +3237,14 @@
       </c>
       <c r="B54">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3276,7 +3288,7 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3347,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3397,7 +3409,7 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3413,7 +3425,7 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3421,7 +3433,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3429,7 +3441,7 @@
         <v>145</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3437,7 +3449,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3445,7 +3457,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3459,7 +3471,7 @@
         <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3467,7 +3479,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>209</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3483,7 +3495,7 @@
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3491,7 +3503,7 @@
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3502,12 +3514,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="25.5">
       <c r="A25" t="s">
         <v>146</v>
       </c>
-      <c r="B25" t="s">
-        <v>211</v>
+      <c r="B25" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3520,7 +3532,7 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3528,7 +3540,7 @@
         <v>124</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3544,7 +3556,7 @@
         <v>117</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3573,7 +3585,7 @@
         <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3581,7 +3593,7 @@
         <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3594,7 +3606,7 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3602,7 +3614,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3615,7 +3627,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3623,7 +3635,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3636,7 +3648,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3644,7 +3656,7 @@
         <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3657,7 +3669,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3665,7 +3677,7 @@
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3678,7 +3690,7 @@
         <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3686,7 +3698,7 @@
         <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3699,7 +3711,7 @@
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3707,7 +3719,7 @@
         <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3720,7 +3732,7 @@
         <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3728,7 +3740,7 @@
         <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3741,7 +3753,7 @@
         <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3749,7 +3761,7 @@
         <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3776,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3792,7 +3804,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4016,7 +4028,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -4027,7 +4039,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4038,7 +4050,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -4094,7 +4106,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4127,7 +4139,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4180,8 +4192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4196,7 +4208,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4292,7 +4304,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4437,7 +4449,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4448,7 +4460,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -4459,7 +4471,7 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -4499,7 +4511,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4512,7 +4524,7 @@
         <v>96</v>
       </c>
       <c r="B40">
-        <v>231234</v>
+        <v>2331234</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4520,7 +4532,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4604,7 +4616,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -4670,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4717,7 +4729,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4785,7 +4797,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -4796,7 +4808,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -4807,7 +4819,7 @@
         <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
@@ -4872,7 +4884,7 @@
         <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4880,7 +4892,7 @@
         <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4905,7 +4917,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4942,7 +4954,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5083,7 +5095,7 @@
         <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5104,7 +5116,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5135,10 +5147,10 @@
         <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5149,7 +5161,7 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5157,10 +5169,10 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5168,10 +5180,10 @@
         <v>117</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5179,7 +5191,7 @@
         <v>145</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5187,7 +5199,7 @@
         <v>162</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5195,7 +5207,7 @@
         <v>117</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5209,7 +5221,7 @@
         <v>121</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5217,7 +5229,7 @@
         <v>117</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5233,7 +5245,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5241,7 +5253,7 @@
         <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5257,7 +5269,7 @@
         <v>146</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5270,7 +5282,7 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5278,7 +5290,7 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5294,7 +5306,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5323,7 +5335,7 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5331,7 +5343,7 @@
         <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5344,7 +5356,7 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5352,7 +5364,7 @@
         <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5365,7 +5377,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5373,7 +5385,7 @@
         <v>128</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5392,7 +5404,7 @@
         <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5400,7 +5412,7 @@
         <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5413,7 +5425,7 @@
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5421,7 +5433,7 @@
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5434,7 +5446,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5442,7 +5454,7 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5455,7 +5467,7 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5463,7 +5475,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5476,7 +5488,7 @@
         <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5484,7 +5496,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5497,7 +5509,7 @@
         <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5505,7 +5517,7 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -855,15 +855,9 @@
     <t>Automation  300623</t>
   </si>
   <si>
-    <t>Ref no-87652370</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Task New 31Dec23</t>
   </si>
   <si>
-    <t>case no 345687610</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Automate 30Aug23 new test</t>
   </si>
   <si>
@@ -873,9 +867,6 @@
     <t>New Task 29Sep23</t>
   </si>
   <si>
-    <t>Ref-8765234509</t>
-  </si>
-  <si>
     <t>No 234567609</t>
   </si>
   <si>
@@ -886,6 +877,15 @@
   </si>
   <si>
     <t>Case 98765345</t>
+  </si>
+  <si>
+    <t>Ref-876435246</t>
+  </si>
+  <si>
+    <t>case no 473456776</t>
+  </si>
+  <si>
+    <t>Ref no-7897909</t>
   </si>
 </sst>
 </file>
@@ -2441,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2457,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2680,7 +2680,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -2846,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2862,7 +2862,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3103,7 +3103,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3165,7 +3165,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -3359,7 +3359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -3788,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3804,7 +3804,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4139,7 +4139,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4208,7 +4208,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4449,7 +4449,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4616,7 +4616,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="285">
   <si>
     <t>URL</t>
   </si>
@@ -607,9 +607,6 @@
   </si>
   <si>
     <t>New Task 2343231</t>
-  </si>
-  <si>
-    <t>New Task Automate01062023</t>
   </si>
   <si>
     <t>RefNo-104</t>
@@ -855,37 +852,43 @@
     <t>Automation  300623</t>
   </si>
   <si>
-    <t xml:space="preserve"> Task New 31Dec23</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 30Aug23 new test</t>
-  </si>
-  <si>
     <t>Automate Test 63</t>
   </si>
   <si>
-    <t>New Task 29Sep23</t>
-  </si>
-  <si>
-    <t>No 234567609</t>
-  </si>
-  <si>
-    <t>New Task Automate11062023</t>
-  </si>
-  <si>
-    <t>New Task 512387</t>
-  </si>
-  <si>
-    <t>Case 98765345</t>
-  </si>
-  <si>
-    <t>Ref-876435246</t>
-  </si>
-  <si>
-    <t>case no 473456776</t>
-  </si>
-  <si>
-    <t>Ref no-7897909</t>
+    <t xml:space="preserve"> Task New 31Jan23</t>
+  </si>
+  <si>
+    <t>case no 76523450</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 30Jan23 new test</t>
+  </si>
+  <si>
+    <t>New Task 29Jan23</t>
+  </si>
+  <si>
+    <t>Ref-8764335246</t>
+  </si>
+  <si>
+    <t>New Task Automate1062022</t>
+  </si>
+  <si>
+    <t>Case 8765445</t>
+  </si>
+  <si>
+    <t>No 2345467609</t>
+  </si>
+  <si>
+    <t>New Task Automate12062023</t>
+  </si>
+  <si>
+    <t>New Task 5123387</t>
+  </si>
+  <si>
+    <t>Ref no-76349008</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com/</t>
   </si>
 </sst>
 </file>
@@ -1528,14 +1531,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1543,8 +1546,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="15" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2258,6 +2261,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2441,7 +2445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2762,7 +2766,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2794,7 +2798,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>13456098</v>
+        <v>13456324</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2813,7 +2817,7 @@
         <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2846,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2862,7 +2866,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3103,7 +3107,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3165,7 +3169,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3178,7 +3182,7 @@
         <v>96</v>
       </c>
       <c r="B40">
-        <v>5643</v>
+        <v>56443</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3186,7 +3190,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3244,7 +3248,7 @@
         <v>104</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3413,7 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3425,7 +3429,7 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3433,7 +3437,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3441,7 +3445,7 @@
         <v>145</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3449,7 +3453,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3457,7 +3461,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3471,7 +3475,7 @@
         <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3479,7 +3483,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3495,7 +3499,7 @@
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3503,7 +3507,7 @@
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3519,7 +3523,7 @@
         <v>146</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3532,7 +3536,7 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3540,7 +3544,7 @@
         <v>124</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3556,7 +3560,7 @@
         <v>117</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3585,7 +3589,7 @@
         <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3593,7 +3597,7 @@
         <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3606,7 +3610,7 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3614,7 +3618,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3627,7 +3631,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3635,7 +3639,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3648,7 +3652,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3656,7 +3660,7 @@
         <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3669,7 +3673,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3677,7 +3681,7 @@
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3690,7 +3694,7 @@
         <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3698,7 +3702,7 @@
         <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3711,7 +3715,7 @@
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3719,7 +3723,7 @@
         <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3732,7 +3736,7 @@
         <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3740,7 +3744,7 @@
         <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3753,7 +3757,7 @@
         <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3761,7 +3765,7 @@
         <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3804,7 +3808,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4028,7 +4032,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>278</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -4039,7 +4043,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4106,7 +4110,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4139,7 +4143,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4192,7 +4196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -4208,7 +4212,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4449,7 +4453,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4524,7 +4528,7 @@
         <v>96</v>
       </c>
       <c r="B40">
-        <v>2331234</v>
+        <v>23312334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4532,7 +4536,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4616,7 +4620,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -4729,7 +4733,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4797,7 +4801,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -4808,7 +4812,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -4917,7 +4921,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4954,7 +4958,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5095,7 +5099,7 @@
         <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5116,7 +5120,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5147,10 +5151,10 @@
         <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5161,7 +5165,7 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5169,10 +5173,10 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5180,10 +5184,10 @@
         <v>117</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5191,7 +5195,7 @@
         <v>145</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5199,7 +5203,7 @@
         <v>162</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5207,7 +5211,7 @@
         <v>117</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5221,7 +5225,7 @@
         <v>121</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5229,7 +5233,7 @@
         <v>117</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5245,7 +5249,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5253,7 +5257,7 @@
         <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5269,7 +5273,7 @@
         <v>146</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5282,7 +5286,7 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5290,7 +5294,7 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5306,7 +5310,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5335,7 +5339,7 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5343,7 +5347,7 @@
         <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5356,7 +5360,7 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5364,7 +5368,7 @@
         <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5377,7 +5381,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5385,7 +5389,7 @@
         <v>128</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5404,7 +5408,7 @@
         <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5412,7 +5416,7 @@
         <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5425,7 +5429,7 @@
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5433,7 +5437,7 @@
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5446,7 +5450,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5454,7 +5458,7 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5467,7 +5471,7 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5475,7 +5479,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5488,7 +5492,7 @@
         <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5496,7 +5500,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5509,7 +5513,7 @@
         <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5517,7 +5521,7 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -852,43 +852,43 @@
     <t>Automation  300623</t>
   </si>
   <si>
-    <t>Automate Test 63</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task New 31Jan23</t>
-  </si>
-  <si>
-    <t>case no 76523450</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 30Jan23 new test</t>
-  </si>
-  <si>
-    <t>New Task 29Jan23</t>
-  </si>
-  <si>
-    <t>Ref-8764335246</t>
-  </si>
-  <si>
-    <t>New Task Automate1062022</t>
-  </si>
-  <si>
-    <t>Case 8765445</t>
-  </si>
-  <si>
-    <t>No 2345467609</t>
-  </si>
-  <si>
-    <t>New Task Automate12062023</t>
-  </si>
-  <si>
-    <t>New Task 5123387</t>
-  </si>
-  <si>
-    <t>Ref no-76349008</t>
-  </si>
-  <si>
     <t>https://login.teamleaseregtech.com/</t>
+  </si>
+  <si>
+    <t>Ref no-54645673</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 4apr23</t>
+  </si>
+  <si>
+    <t>case no 98765434</t>
+  </si>
+  <si>
+    <t>Ref-3452521</t>
+  </si>
+  <si>
+    <t>Case 7657464</t>
+  </si>
+  <si>
+    <t>No 76534567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 06Jan23 new test</t>
+  </si>
+  <si>
+    <t>Automate Test 623</t>
+  </si>
+  <si>
+    <t>New Task Automate14062067</t>
+  </si>
+  <si>
+    <t>New Task 02Jan23</t>
+  </si>
+  <si>
+    <t>New Task Automate1078056</t>
+  </si>
+  <si>
+    <t>New Task 4567341</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2445,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2461,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2684,7 +2684,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -2798,7 +2798,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>13456324</v>
+        <v>7684456443</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2850,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2866,7 +2866,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3107,7 +3107,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3169,7 +3169,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3182,7 +3182,7 @@
         <v>96</v>
       </c>
       <c r="B40">
-        <v>56443</v>
+        <v>25312</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3281,7 +3281,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -3792,8 +3792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3808,7 +3808,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4032,7 +4032,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -4143,7 +4143,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4197,7 +4197,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4212,7 +4212,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4528,7 +4528,7 @@
         <v>96</v>
       </c>
       <c r="B40">
-        <v>23312334</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4603,7 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4620,7 +4620,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -4686,8 +4686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4717,7 +4717,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>149</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5526,7 +5526,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B67" r:id="rId3"/>
     <hyperlink ref="B73" r:id="rId4"/>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="289">
   <si>
     <t>URL</t>
   </si>
@@ -613,12 +613,6 @@
   </si>
   <si>
     <t>Automation Test 432</t>
-  </si>
-  <si>
-    <t>Shantanu</t>
-  </si>
-  <si>
-    <t>Sushmita</t>
   </si>
   <si>
     <t>RefNo-7657</t>
@@ -758,137 +752,157 @@
     <t>Checks</t>
   </si>
   <si>
-    <t>Tekadi</t>
-  </si>
-  <si>
     <t>Pagare</t>
   </si>
   <si>
-    <t>sushmita@itc.com</t>
-  </si>
-  <si>
-    <t>Avirat Sawant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durvank </t>
-  </si>
-  <si>
-    <t>CHHATTISGARH HIGH COURT.</t>
-  </si>
-  <si>
-    <t>ALLAHABAD HIGH COURT.</t>
-  </si>
-  <si>
-    <t>Constructive notice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Implied notice,</t>
-  </si>
-  <si>
-    <t>Cryptocurrency</t>
-  </si>
-  <si>
-    <t>Autopay</t>
-  </si>
-  <si>
-    <t>Local Custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General custom </t>
-  </si>
-  <si>
-    <t>Case filing</t>
-  </si>
-  <si>
-    <t>Pre-admission hearing</t>
-  </si>
-  <si>
-    <t>GIF</t>
-  </si>
-  <si>
-    <t>Bitmap</t>
-  </si>
-  <si>
-    <t>interval scale</t>
-  </si>
-  <si>
-    <t>ordinal scale</t>
-  </si>
-  <si>
-    <t>Appearance of parties</t>
-  </si>
-  <si>
-    <t>Ludhiyana</t>
-  </si>
-  <si>
-    <t>Aarati</t>
-  </si>
-  <si>
-    <t>aarati@itc.com</t>
-  </si>
-  <si>
-    <t>PR Pvt Ltd</t>
-  </si>
-  <si>
-    <t>sunita@itc.com</t>
-  </si>
-  <si>
-    <t>Phoenix Legal</t>
-  </si>
-  <si>
-    <t>sakib@itc.com</t>
+    <t>No15344</t>
+  </si>
+  <si>
+    <t>New Task  Description2143</t>
+  </si>
+  <si>
+    <t>Automation  300623</t>
+  </si>
+  <si>
+    <t>https://login.teamleaseregtech.com/</t>
+  </si>
+  <si>
+    <t>Ref no-54645673</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 4apr23</t>
+  </si>
+  <si>
+    <t>case no 98765434</t>
+  </si>
+  <si>
+    <t>Ref-3452521</t>
+  </si>
+  <si>
+    <t>Case 7657464</t>
+  </si>
+  <si>
+    <t>No 76534567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 06Jan23 new test</t>
+  </si>
+  <si>
+    <t>Automate Test 623</t>
+  </si>
+  <si>
+    <t>New Task Automate14062067</t>
+  </si>
+  <si>
+    <t>New Task 02Jan23</t>
+  </si>
+  <si>
+    <t>New Task Automate1078056</t>
+  </si>
+  <si>
+    <t>New Task 4567341</t>
+  </si>
+  <si>
+    <t>AB Pvt Ltd</t>
+  </si>
+  <si>
+    <t>PFR Pvt Ltd</t>
+  </si>
+  <si>
+    <t>sunita@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">
-AZB &amp; Partners</t>
-  </si>
-  <si>
-    <t>No15344</t>
-  </si>
-  <si>
-    <t>New Task  Description2143</t>
-  </si>
-  <si>
-    <t>Automation  300623</t>
-  </si>
-  <si>
-    <t>https://login.teamleaseregtech.com/</t>
-  </si>
-  <si>
-    <t>Ref no-54645673</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task New 4apr23</t>
-  </si>
-  <si>
-    <t>case no 98765434</t>
-  </si>
-  <si>
-    <t>Ref-3452521</t>
-  </si>
-  <si>
-    <t>Case 7657464</t>
-  </si>
-  <si>
-    <t>No 76534567</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 06Jan23 new test</t>
-  </si>
-  <si>
-    <t>Automate Test 623</t>
-  </si>
-  <si>
-    <t>New Task Automate14062067</t>
-  </si>
-  <si>
-    <t>New Task 02Jan23</t>
-  </si>
-  <si>
-    <t>New Task Automate1078056</t>
-  </si>
-  <si>
-    <t>New Task 4567341</t>
+IndusLaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M.G.Kumar Law Firm</t>
+  </si>
+  <si>
+    <t>sakib@Yahoo.com</t>
+  </si>
+  <si>
+    <t>Shanvi</t>
+  </si>
+  <si>
+    <t>Reshma</t>
+  </si>
+  <si>
+    <t>Reshama@itc.com</t>
+  </si>
+  <si>
+    <t>Avirat Pawar</t>
+  </si>
+  <si>
+    <t>Durvank Chavan</t>
+  </si>
+  <si>
+    <t>ORISSA HIGH COURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNJAB &amp; HARYANA HIGH COURT
+</t>
+  </si>
+  <si>
+    <t>Notice of Assignment by Assignee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Notice Of Dissolution Of Partnership</t>
+  </si>
+  <si>
+    <t>Jio Money</t>
+  </si>
+  <si>
+    <t>HDFC PayZapp</t>
+  </si>
+  <si>
+    <t>New Local Custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New General custom </t>
+  </si>
+  <si>
+    <t>Criminal Trial</t>
+  </si>
+  <si>
+    <t>Framing of Charges</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Pqr</t>
+  </si>
+  <si>
+    <t>New ordinal scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New interval scale</t>
+  </si>
+  <si>
+    <t>Final disposal at Admission Stage</t>
+  </si>
+  <si>
+    <t>E-filing at High Courts</t>
+  </si>
+  <si>
+    <t>Yash Heritage Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Priyal</t>
+  </si>
+  <si>
+    <t>priyal@yahoo.com</t>
+  </si>
+  <si>
+    <t>Annual Budget</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1094,6 +1108,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1547,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2461,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2684,7 +2701,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -2766,7 +2783,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2817,7 +2834,7 @@
         <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2866,7 +2883,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3107,7 +3124,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3169,7 +3186,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3190,7 +3207,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3248,7 +3265,7 @@
         <v>104</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3281,7 +3298,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -3361,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3413,7 +3430,7 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3429,7 +3446,7 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3437,7 +3454,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3445,7 +3462,7 @@
         <v>145</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3453,7 +3470,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3461,7 +3478,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3470,12 +3487,12 @@
       </c>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="25.5">
       <c r="A19" t="s">
         <v>121</v>
       </c>
-      <c r="B19" t="s">
-        <v>266</v>
+      <c r="B19" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3483,7 +3500,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3499,7 +3516,7 @@
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3507,7 +3524,7 @@
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3523,7 +3540,7 @@
         <v>146</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3536,7 +3553,7 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3544,7 +3561,7 @@
         <v>124</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3560,7 +3577,7 @@
         <v>117</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3589,7 +3606,7 @@
         <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3597,7 +3614,7 @@
         <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3610,15 +3627,15 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="25.5">
       <c r="A38" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>247</v>
+      <c r="B38" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3631,7 +3648,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3639,7 +3656,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3652,7 +3669,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3660,7 +3677,7 @@
         <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3673,7 +3690,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3681,7 +3698,7 @@
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3694,7 +3711,7 @@
         <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3702,7 +3719,7 @@
         <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3715,7 +3732,7 @@
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3723,7 +3740,7 @@
         <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3736,7 +3753,7 @@
         <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3744,7 +3761,7 @@
         <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3757,7 +3774,7 @@
         <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3765,7 +3782,28 @@
         <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>286</v>
+      </c>
+      <c r="B62">
+        <v>500000</v>
       </c>
     </row>
   </sheetData>
@@ -3792,7 +3830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -3808,7 +3846,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4032,7 +4070,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -4043,7 +4081,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4143,7 +4181,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4212,7 +4250,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4453,7 +4491,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4603,7 +4641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4620,7 +4658,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -4686,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132:XFD135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4733,7 +4771,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4801,7 +4839,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -4812,7 +4850,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -4921,7 +4959,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4958,7 +4996,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5099,7 +5137,7 @@
         <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5120,7 +5158,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5151,10 +5189,10 @@
         <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5165,7 +5203,7 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5173,10 +5211,10 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5184,10 +5222,10 @@
         <v>117</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5195,7 +5233,7 @@
         <v>145</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5203,7 +5241,7 @@
         <v>162</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5211,7 +5249,7 @@
         <v>117</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5225,7 +5263,7 @@
         <v>121</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5233,7 +5271,7 @@
         <v>117</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5249,7 +5287,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5257,7 +5295,7 @@
         <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5273,7 +5311,7 @@
         <v>146</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5286,7 +5324,7 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5294,7 +5332,7 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5310,7 +5348,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5339,7 +5377,7 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5347,7 +5385,7 @@
         <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5360,7 +5398,7 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5368,7 +5406,7 @@
         <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5381,7 +5419,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5389,7 +5427,7 @@
         <v>128</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5408,7 +5446,7 @@
         <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5416,7 +5454,7 @@
         <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5429,7 +5467,7 @@
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5437,7 +5475,7 @@
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5450,7 +5488,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5458,7 +5496,7 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5471,7 +5509,7 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5479,7 +5517,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5492,7 +5530,7 @@
         <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5500,7 +5538,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5513,7 +5551,7 @@
         <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5521,7 +5559,7 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="290">
   <si>
     <t>URL</t>
   </si>
@@ -537,9 +537,6 @@
     <t xml:space="preserve">abc firm </t>
   </si>
   <si>
-    <t>Task as on 1520223</t>
-  </si>
-  <si>
     <t>New Expected Outcome 153</t>
   </si>
   <si>
@@ -630,25 +627,10 @@
     <t>4958#2</t>
   </si>
   <si>
-    <t>Case No 986785453</t>
-  </si>
-  <si>
-    <t>Case No 98678578</t>
-  </si>
-  <si>
-    <t>Ref no 73542451</t>
-  </si>
-  <si>
-    <t>Task as on date 544</t>
-  </si>
-  <si>
     <t>Task as on date 232</t>
   </si>
   <si>
     <t>Automate Test New 564</t>
-  </si>
-  <si>
-    <t>order 12july</t>
   </si>
   <si>
     <t>Sawant</t>
@@ -903,6 +885,27 @@
   </si>
   <si>
     <t>2022-2023</t>
+  </si>
+  <si>
+    <t>Case No 653409</t>
+  </si>
+  <si>
+    <t>Case No 435320</t>
+  </si>
+  <si>
+    <t>Ref no 65748576</t>
+  </si>
+  <si>
+    <t>Task as on 1820223</t>
+  </si>
+  <si>
+    <t>order 15Oct</t>
+  </si>
+  <si>
+    <t>Task as on date12Oct23</t>
+  </si>
+  <si>
+    <t>Task as on 1320223</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1588,7 +1591,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1806,7 +1809,7 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -1817,7 +1820,7 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
@@ -1884,7 +1887,7 @@
         <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1917,7 +1920,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1937,7 +1940,7 @@
         <v>91</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1961,7 +1964,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2057,7 +2060,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2200,7 +2203,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2221,7 +2224,7 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2478,7 +2481,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2701,7 +2704,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -2712,7 +2715,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -2723,7 +2726,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -2783,7 +2786,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2834,7 +2837,7 @@
         <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2883,7 +2886,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2979,7 +2982,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3124,7 +3127,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3135,7 +3138,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -3146,7 +3149,7 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -3186,7 +3189,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3207,7 +3210,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3265,7 +3268,7 @@
         <v>104</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3298,7 +3301,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -3309,7 +3312,7 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3380,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3430,7 +3433,7 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3446,7 +3449,7 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3454,7 +3457,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3462,7 +3465,7 @@
         <v>145</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3470,7 +3473,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3478,7 +3481,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3492,7 +3495,7 @@
         <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3500,7 +3503,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3516,7 +3519,7 @@
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3524,7 +3527,7 @@
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3540,7 +3543,7 @@
         <v>146</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3553,7 +3556,7 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3561,7 +3564,7 @@
         <v>124</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3577,7 +3580,7 @@
         <v>117</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3606,7 +3609,7 @@
         <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3614,7 +3617,7 @@
         <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3627,7 +3630,7 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
@@ -3635,7 +3638,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3648,7 +3651,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3656,7 +3659,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3669,7 +3672,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3677,7 +3680,7 @@
         <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3690,7 +3693,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3698,7 +3701,7 @@
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3711,7 +3714,7 @@
         <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3719,7 +3722,7 @@
         <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3732,7 +3735,7 @@
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3740,7 +3743,7 @@
         <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3753,7 +3756,7 @@
         <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3761,7 +3764,7 @@
         <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3774,7 +3777,7 @@
         <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3782,25 +3785,25 @@
         <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B62">
         <v>500000</v>
@@ -3846,7 +3849,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4070,7 +4073,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -4081,7 +4084,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4092,7 +4095,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -4148,7 +4151,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4181,7 +4184,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4250,7 +4253,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4346,7 +4349,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4491,7 +4494,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4502,7 +4505,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -4513,7 +4516,7 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -4553,7 +4556,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4574,7 +4577,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4658,7 +4661,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -4724,8 +4727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132:XFD135"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4771,7 +4774,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4839,7 +4842,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -4850,7 +4853,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -4861,7 +4864,7 @@
         <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
@@ -4896,7 +4899,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -4926,7 +4929,7 @@
         <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4934,7 +4937,7 @@
         <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4959,7 +4962,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4996,7 +4999,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5137,7 +5140,7 @@
         <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5150,7 +5153,7 @@
         <v>96</v>
       </c>
       <c r="B54">
-        <v>3242</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5158,7 +5161,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5189,10 +5192,10 @@
         <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5203,7 +5206,7 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5211,10 +5214,10 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5222,10 +5225,10 @@
         <v>117</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5233,7 +5236,7 @@
         <v>145</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5241,7 +5244,7 @@
         <v>162</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5249,7 +5252,7 @@
         <v>117</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5263,7 +5266,7 @@
         <v>121</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5271,7 +5274,7 @@
         <v>117</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5287,7 +5290,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5295,7 +5298,7 @@
         <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5311,7 +5314,7 @@
         <v>146</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5324,7 +5327,7 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5332,7 +5335,7 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5348,7 +5351,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5377,7 +5380,7 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5385,7 +5388,7 @@
         <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5398,7 +5401,7 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5406,7 +5409,7 @@
         <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5419,7 +5422,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5427,7 +5430,7 @@
         <v>128</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5446,7 +5449,7 @@
         <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5454,7 +5457,7 @@
         <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5467,7 +5470,7 @@
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5475,7 +5478,7 @@
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5488,7 +5491,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5496,7 +5499,7 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5509,7 +5512,7 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5517,7 +5520,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5530,7 +5533,7 @@
         <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5538,7 +5541,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5551,7 +5554,7 @@
         <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5559,7 +5562,7 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="289">
   <si>
     <t>URL</t>
   </si>
@@ -894,9 +894,6 @@
   </si>
   <si>
     <t>Ref no 65748576</t>
-  </si>
-  <si>
-    <t>Task as on 1820223</t>
   </si>
   <si>
     <t>order 15Oct</t>
@@ -2870,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3833,7 +3830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -4237,7 +4234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4727,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4842,7 +4839,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -4899,7 +4896,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -5161,7 +5158,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5175,6 +5172,14 @@
       </c>
       <c r="B59">
         <v>45167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="9" customFormat="1" ht="15.75">

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -636,101 +636,9 @@
     <t>Sawant</t>
   </si>
   <si>
-    <t>Chavan</t>
-  </si>
-  <si>
-    <t>Yashodha Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Vinit</t>
-  </si>
-  <si>
-    <t>vinit45@yahoo.com</t>
-  </si>
-  <si>
-    <t>Ashoka Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Hariyana</t>
-  </si>
-  <si>
-    <t>ashima783@itc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-AABC &amp; Partners</t>
-  </si>
-  <si>
-    <t>avnish75@gmail.com</t>
-  </si>
-  <si>
-    <t>Avirath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-NCDG associates</t>
-  </si>
-  <si>
-    <t>Prutviraj</t>
-  </si>
-  <si>
-    <t>pruthviraj56@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mr. Bhoyar</t>
-  </si>
-  <si>
-    <t>Mr. Arun</t>
-  </si>
-  <si>
-    <t>HPP High Court</t>
-  </si>
-  <si>
-    <t>Manipura High Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PQR </t>
-  </si>
-  <si>
-    <t>BGJFD</t>
-  </si>
-  <si>
-    <t>Aadhaar Enabled Payment System (AePS)</t>
-  </si>
-  <si>
-    <t>Immediate Payment Services (IMPS)</t>
-  </si>
-  <si>
-    <t>NHSJT</t>
-  </si>
-  <si>
-    <t>LIP</t>
-  </si>
-  <si>
-    <t>RTS</t>
-  </si>
-  <si>
-    <t>Acrobat PDF</t>
-  </si>
-  <si>
-    <t>GZIP Archive</t>
-  </si>
-  <si>
-    <t>GHTD</t>
-  </si>
-  <si>
-    <t>HDT</t>
-  </si>
-  <si>
-    <t>Ex-parte Decree</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Execution of Decree</t>
   </si>
   <si>
-    <t>ASRD</t>
-  </si>
-  <si>
     <t>Checks</t>
   </si>
   <si>
@@ -749,15 +657,6 @@
     <t>https://login.teamleaseregtech.com/</t>
   </si>
   <si>
-    <t>Ref no-54645673</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task New 4apr23</t>
-  </si>
-  <si>
-    <t>case no 98765434</t>
-  </si>
-  <si>
     <t>Ref-3452521</t>
   </si>
   <si>
@@ -767,16 +666,7 @@
     <t>No 76534567</t>
   </si>
   <si>
-    <t xml:space="preserve"> Automate 06Jan23 new test</t>
-  </si>
-  <si>
-    <t>Automate Test 623</t>
-  </si>
-  <si>
     <t>New Task Automate14062067</t>
-  </si>
-  <si>
-    <t>New Task 02Jan23</t>
   </si>
   <si>
     <t>New Task Automate1078056</t>
@@ -903,6 +793,115 @@
   </si>
   <si>
     <t>Task as on 1320223</t>
+  </si>
+  <si>
+    <t>ABC Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Vinay</t>
+  </si>
+  <si>
+    <t>vinay45@yahoo.com</t>
+  </si>
+  <si>
+    <t>SRS Pvt Ltd</t>
+  </si>
+  <si>
+    <t>sikkim</t>
+  </si>
+  <si>
+    <t>Aadi783@itc.com</t>
+  </si>
+  <si>
+    <t>swati75@gmail.com</t>
+  </si>
+  <si>
+    <t>MJ &amp; Partners</t>
+  </si>
+  <si>
+    <t>Gauri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DG associates</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Kumbhar</t>
+  </si>
+  <si>
+    <t>raj56@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mr. Mane</t>
+  </si>
+  <si>
+    <t>Mr. Ajay</t>
+  </si>
+  <si>
+    <t>HR High Court</t>
+  </si>
+  <si>
+    <t>Mizoram High Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Notice </t>
+  </si>
+  <si>
+    <t>Legal Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Payment Services (IMPS)</t>
+  </si>
+  <si>
+    <t>Aadhaar Enabled Payment  (AePS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judicial Notice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Judicial Notice</t>
+  </si>
+  <si>
+    <t>Final hearing</t>
+  </si>
+  <si>
+    <t>Pre-admission hearing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PDF File</t>
+  </si>
+  <si>
+    <t>ZIP Archive</t>
+  </si>
+  <si>
+    <t>interval scale.</t>
+  </si>
+  <si>
+    <t>ordinal scale</t>
+  </si>
+  <si>
+    <t>Ex-part Decree</t>
+  </si>
+  <si>
+    <t>Ref no-34234123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 5apr23</t>
+  </si>
+  <si>
+    <t>case no 6567456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 08Jan23 new test</t>
+  </si>
+  <si>
+    <t>Automate Test 6233</t>
+  </si>
+  <si>
+    <t>New Task 04Jan23</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2462,7 +2461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2478,7 +2477,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2701,7 +2700,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -2815,7 +2814,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>7684456443</v>
+        <v>456234123</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2834,7 +2833,7 @@
         <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2868,7 +2867,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2883,7 +2882,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3124,7 +3123,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3186,7 +3185,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3199,7 +3198,7 @@
         <v>96</v>
       </c>
       <c r="B40">
-        <v>25312</v>
+        <v>253312</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3207,7 +3206,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3249,7 +3248,7 @@
         <v>100</v>
       </c>
       <c r="B53">
-        <v>74432</v>
+        <v>734432</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3265,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3282,7 +3281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3298,7 +3297,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -3430,7 +3429,7 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3446,7 +3445,7 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3454,7 +3453,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3462,7 +3461,7 @@
         <v>145</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3470,7 +3469,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3478,7 +3477,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3492,7 +3491,7 @@
         <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3500,7 +3499,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3516,7 +3515,7 @@
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3524,7 +3523,7 @@
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3540,7 +3539,7 @@
         <v>146</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3553,7 +3552,7 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3561,7 +3560,7 @@
         <v>124</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3577,7 +3576,7 @@
         <v>117</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3606,7 +3605,7 @@
         <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3614,7 +3613,7 @@
         <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3627,7 +3626,7 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
@@ -3635,7 +3634,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3648,7 +3647,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3656,7 +3655,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3669,7 +3668,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3677,7 +3676,7 @@
         <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3690,7 +3689,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3698,7 +3697,7 @@
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3711,7 +3710,7 @@
         <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3719,7 +3718,7 @@
         <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3732,7 +3731,7 @@
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3740,7 +3739,7 @@
         <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3753,7 +3752,7 @@
         <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3761,7 +3760,7 @@
         <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3774,7 +3773,7 @@
         <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3782,25 +3781,25 @@
         <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B61" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B62">
         <v>500000</v>
@@ -3846,7 +3845,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4070,7 +4069,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -4081,7 +4080,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4181,7 +4180,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4250,7 +4249,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4491,7 +4490,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4658,7 +4657,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -4724,8 +4723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4771,7 +4770,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4839,7 +4838,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -4896,7 +4895,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -4959,7 +4958,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4996,7 +4995,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5158,7 +5157,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5179,7 +5178,7 @@
         <v>104</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="9" customFormat="1" ht="15.75">
@@ -5197,7 +5196,7 @@
         <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="C64" t="s">
         <v>194</v>
@@ -5219,7 +5218,7 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="C66" t="s">
         <v>196</v>
@@ -5230,7 +5229,7 @@
         <v>117</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="C67" t="s">
         <v>197</v>
@@ -5241,7 +5240,7 @@
         <v>145</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5249,7 +5248,7 @@
         <v>162</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5257,7 +5256,7 @@
         <v>117</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5266,12 +5265,12 @@
       </c>
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="1:3" ht="25.5">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>121</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5279,7 +5278,7 @@
         <v>117</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5295,7 +5294,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5319,7 +5318,7 @@
         <v>146</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5332,7 +5331,7 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5340,7 +5339,7 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5356,7 +5355,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5385,7 +5384,7 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5393,7 +5392,7 @@
         <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5406,7 +5405,7 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5414,7 +5413,7 @@
         <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5427,7 +5426,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5435,7 +5434,7 @@
         <v>128</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5454,7 +5453,7 @@
         <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5462,7 +5461,7 @@
         <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5475,7 +5474,7 @@
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5483,7 +5482,7 @@
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5496,7 +5495,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5504,7 +5503,7 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5517,7 +5516,7 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5525,7 +5524,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5538,7 +5537,7 @@
         <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5546,7 +5545,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5559,7 +5558,7 @@
         <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5567,7 +5566,7 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="289">
   <si>
     <t>URL</t>
   </si>
@@ -630,9 +630,6 @@
     <t>Task as on date 232</t>
   </si>
   <si>
-    <t>Automate Test New 564</t>
-  </si>
-  <si>
     <t>Sawant</t>
   </si>
   <si>
@@ -651,28 +648,7 @@
     <t>New Task  Description2143</t>
   </si>
   <si>
-    <t>Automation  300623</t>
-  </si>
-  <si>
     <t>https://login.teamleaseregtech.com/</t>
-  </si>
-  <si>
-    <t>Ref-3452521</t>
-  </si>
-  <si>
-    <t>Case 7657464</t>
-  </si>
-  <si>
-    <t>No 76534567</t>
-  </si>
-  <si>
-    <t>New Task Automate14062067</t>
-  </si>
-  <si>
-    <t>New Task Automate1078056</t>
-  </si>
-  <si>
-    <t>New Task 4567341</t>
   </si>
   <si>
     <t>AB Pvt Ltd</t>
@@ -777,18 +753,6 @@
     <t>2022-2023</t>
   </si>
   <si>
-    <t>Case No 653409</t>
-  </si>
-  <si>
-    <t>Case No 435320</t>
-  </si>
-  <si>
-    <t>Ref no 65748576</t>
-  </si>
-  <si>
-    <t>order 15Oct</t>
-  </si>
-  <si>
     <t>Task as on date12Oct23</t>
   </si>
   <si>
@@ -886,22 +850,58 @@
     <t>Ex-part Decree</t>
   </si>
   <si>
-    <t>Ref no-34234123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task New 5apr23</t>
-  </si>
-  <si>
-    <t>case no 6567456</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 08Jan23 new test</t>
-  </si>
-  <si>
     <t>Automate Test 6233</t>
   </si>
   <si>
+    <t>Case No 18720</t>
+  </si>
+  <si>
+    <t>Case No 738465</t>
+  </si>
+  <si>
+    <t>Automate Test New 5264</t>
+  </si>
+  <si>
+    <t>order 16Oct</t>
+  </si>
+  <si>
+    <t>Ref no2783152</t>
+  </si>
+  <si>
+    <t>Automation  309623</t>
+  </si>
+  <si>
+    <t>Ref no-23423512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task New 9aug23</t>
+  </si>
+  <si>
+    <t>case no 452365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automate 12Jan23 new test</t>
+  </si>
+  <si>
     <t>New Task 04Jan23</t>
+  </si>
+  <si>
+    <t>Ref-4346563</t>
+  </si>
+  <si>
+    <t>New Task Automate102056</t>
+  </si>
+  <si>
+    <t>Case 234241</t>
+  </si>
+  <si>
+    <t>No 5346356</t>
+  </si>
+  <si>
+    <t>New Task Automate140620</t>
+  </si>
+  <si>
+    <t>New Task 2312</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2461,7 +2461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2477,7 +2477,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2700,7 +2700,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -2814,7 +2814,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>456234123</v>
+        <v>763468955</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2833,7 +2833,7 @@
         <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2866,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2882,7 +2882,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -3123,7 +3123,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3185,7 +3185,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3198,7 +3198,7 @@
         <v>96</v>
       </c>
       <c r="B40">
-        <v>253312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3206,7 +3206,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3248,7 +3248,7 @@
         <v>100</v>
       </c>
       <c r="B53">
-        <v>734432</v>
+        <v>7234432</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3281,7 +3281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3297,7 +3297,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -3380,7 +3380,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3429,7 +3429,7 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>145</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3491,7 +3491,7 @@
         <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3499,7 +3499,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3515,7 +3515,7 @@
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3523,7 +3523,7 @@
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3539,7 +3539,7 @@
         <v>146</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3552,7 +3552,7 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3560,7 +3560,7 @@
         <v>124</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>117</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3626,7 +3626,7 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
@@ -3634,7 +3634,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3647,7 +3647,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3668,7 +3668,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3689,7 +3689,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3697,7 +3697,7 @@
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3710,7 +3710,7 @@
         <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3718,7 +3718,7 @@
         <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3731,7 +3731,7 @@
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3739,7 +3739,7 @@
         <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3752,7 +3752,7 @@
         <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3760,7 +3760,7 @@
         <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3773,7 +3773,7 @@
         <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3781,25 +3781,25 @@
         <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B62">
         <v>500000</v>
@@ -3829,8 +3829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3845,7 +3845,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4069,7 +4069,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -4080,7 +4080,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4180,7 +4180,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4233,7 +4233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -4249,7 +4249,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4490,7 +4490,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4640,7 +4640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4657,7 +4657,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -4723,8 +4723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4770,7 +4770,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4838,7 +4838,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -4895,7 +4895,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -4958,7 +4958,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4995,7 +4995,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5136,7 +5136,7 @@
         <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5149,7 +5149,7 @@
         <v>96</v>
       </c>
       <c r="B54">
-        <v>7476</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5157,7 +5157,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5170,7 +5170,7 @@
         <v>100</v>
       </c>
       <c r="B59">
-        <v>45167</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5178,7 +5178,7 @@
         <v>104</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="9" customFormat="1" ht="15.75">
@@ -5196,7 +5196,7 @@
         <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C64" t="s">
         <v>194</v>
@@ -5218,7 +5218,7 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C66" t="s">
         <v>196</v>
@@ -5229,7 +5229,7 @@
         <v>117</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C67" t="s">
         <v>197</v>
@@ -5240,7 +5240,7 @@
         <v>145</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5248,7 +5248,7 @@
         <v>162</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5256,7 +5256,7 @@
         <v>117</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5270,7 +5270,7 @@
         <v>121</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5278,7 +5278,7 @@
         <v>117</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5294,7 +5294,7 @@
         <v>123</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5302,7 +5302,7 @@
         <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5318,7 +5318,7 @@
         <v>146</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5331,7 +5331,7 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5339,7 +5339,7 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5355,7 +5355,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5384,7 +5384,7 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5392,7 +5392,7 @@
         <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5405,7 +5405,7 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5413,7 +5413,7 @@
         <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5426,7 +5426,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>128</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5453,7 +5453,7 @@
         <v>133</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5461,7 +5461,7 @@
         <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5474,7 +5474,7 @@
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5482,7 +5482,7 @@
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5495,7 +5495,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5503,7 +5503,7 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5516,7 +5516,7 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5524,7 +5524,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5537,7 +5537,7 @@
         <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5545,7 +5545,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5558,7 +5558,7 @@
         <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5566,7 +5566,7 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="260">
   <si>
     <t>URL</t>
   </si>
@@ -534,9 +534,6 @@
     <t>admin123</t>
   </si>
   <si>
-    <t xml:space="preserve">abc firm </t>
-  </si>
-  <si>
     <t>New Expected Outcome 153</t>
   </si>
   <si>
@@ -576,9 +573,6 @@
     <t>New Task  Description1760</t>
   </si>
   <si>
-    <t>order as on date 14april2023</t>
-  </si>
-  <si>
     <t>Automate Test New test</t>
   </si>
   <si>
@@ -591,30 +585,15 @@
     <t>No15643467</t>
   </si>
   <si>
-    <t>Ref-87674877807</t>
-  </si>
-  <si>
-    <t>Case 9638423510</t>
-  </si>
-  <si>
-    <t>No 834689203230</t>
-  </si>
-  <si>
     <t>New Task 75567 Description</t>
   </si>
   <si>
-    <t>New Task 2343231</t>
-  </si>
-  <si>
     <t>RefNo-104</t>
   </si>
   <si>
     <t>Automation Test 432</t>
   </si>
   <si>
-    <t>RefNo-7657</t>
-  </si>
-  <si>
     <t>45a#</t>
   </si>
   <si>
@@ -630,18 +609,9 @@
     <t>Task as on date 232</t>
   </si>
   <si>
-    <t>Sawant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Execution of Decree</t>
-  </si>
-  <si>
     <t>Checks</t>
   </si>
   <si>
-    <t>Pagare</t>
-  </si>
-  <si>
     <t>No15344</t>
   </si>
   <si>
@@ -651,257 +621,199 @@
     <t>https://login.teamleaseregtech.com/</t>
   </si>
   <si>
-    <t>AB Pvt Ltd</t>
-  </si>
-  <si>
-    <t>PFR Pvt Ltd</t>
-  </si>
-  <si>
-    <t>sunita@gmail.com</t>
+    <t>Shanvi</t>
+  </si>
+  <si>
+    <t>Reshma</t>
+  </si>
+  <si>
+    <t>Annual Budget</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>Task as on date12Oct23</t>
+  </si>
+  <si>
+    <t>Task as on 1320223</t>
+  </si>
+  <si>
+    <t>order 16Oct</t>
+  </si>
+  <si>
+    <t>Automation  309623</t>
+  </si>
+  <si>
+    <t>RefNo-233</t>
+  </si>
+  <si>
+    <t>Automate Test 62233</t>
+  </si>
+  <si>
+    <t>New Task 180823</t>
+  </si>
+  <si>
+    <t>New Task 6321</t>
+  </si>
+  <si>
+    <t>Apple.com</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>raju@yahoo.com</t>
+  </si>
+  <si>
+    <t>Limited Partnerships</t>
+  </si>
+  <si>
+    <t>Corporations</t>
+  </si>
+  <si>
+    <t>anita@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">
-IndusLaw</t>
+Kirkland &amp; Ellis</t>
+  </si>
+  <si>
+    <t>shoib@Yahoo.com</t>
+  </si>
+  <si>
+    <t>Arora</t>
   </si>
   <si>
     <t xml:space="preserve">
-M.G.Kumar Law Firm</t>
-  </si>
-  <si>
-    <t>sakib@Yahoo.com</t>
-  </si>
-  <si>
-    <t>Shanvi</t>
-  </si>
-  <si>
-    <t>Reshma</t>
-  </si>
-  <si>
-    <t>Reshama@itc.com</t>
-  </si>
-  <si>
-    <t>Avirat Pawar</t>
-  </si>
-  <si>
-    <t>Durvank Chavan</t>
-  </si>
-  <si>
-    <t>ORISSA HIGH COURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUNJAB &amp; HARYANA HIGH COURT
+Clifford Chance</t>
+  </si>
+  <si>
+    <t>Renuse</t>
+  </si>
+  <si>
+    <t>radha@itc.com</t>
+  </si>
+  <si>
+    <t>Avirat Gaikwad</t>
+  </si>
+  <si>
+    <t>Rudra Chavan</t>
+  </si>
+  <si>
+    <t>PATANA HIGH COURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGHALAY HIGH COURT
 </t>
   </si>
   <si>
-    <t>Notice of Assignment by Assignee</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Notice Of Dissolution Of Partnership</t>
-  </si>
-  <si>
-    <t>Jio Money</t>
-  </si>
-  <si>
-    <t>HDFC PayZapp</t>
-  </si>
-  <si>
-    <t>New Local Custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New General custom </t>
-  </si>
-  <si>
-    <t>Criminal Trial</t>
-  </si>
-  <si>
-    <t>Framing of Charges</t>
-  </si>
-  <si>
-    <t>Abc</t>
-  </si>
-  <si>
-    <t>Pqr</t>
-  </si>
-  <si>
-    <t>New ordinal scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New interval scale</t>
-  </si>
-  <si>
-    <t>Final disposal at Admission Stage</t>
-  </si>
-  <si>
-    <t>E-filing at High Courts</t>
-  </si>
-  <si>
-    <t>Yash Heritage Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Priyal</t>
-  </si>
-  <si>
-    <t>priyal@yahoo.com</t>
-  </si>
-  <si>
-    <t>Annual Budget</t>
-  </si>
-  <si>
-    <t>FY</t>
-  </si>
-  <si>
-    <t>2022-2023</t>
-  </si>
-  <si>
-    <t>Task as on date12Oct23</t>
-  </si>
-  <si>
-    <t>Task as on 1320223</t>
-  </si>
-  <si>
-    <t>ABC Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Vinay</t>
-  </si>
-  <si>
-    <t>vinay45@yahoo.com</t>
-  </si>
-  <si>
-    <t>SRS Pvt Ltd</t>
-  </si>
-  <si>
-    <t>sikkim</t>
-  </si>
-  <si>
-    <t>Aadi783@itc.com</t>
-  </si>
-  <si>
-    <t>swati75@gmail.com</t>
-  </si>
-  <si>
-    <t>MJ &amp; Partners</t>
-  </si>
-  <si>
-    <t>Gauri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DG associates</t>
-  </si>
-  <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Kumbhar</t>
-  </si>
-  <si>
-    <t>raj56@yahoo.com</t>
-  </si>
-  <si>
-    <t>Mr. Mane</t>
-  </si>
-  <si>
-    <t>Mr. Ajay</t>
-  </si>
-  <si>
-    <t>HR High Court</t>
-  </si>
-  <si>
-    <t>Mizoram High Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legal Notice </t>
-  </si>
-  <si>
-    <t>Legal Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Payment Services (IMPS)</t>
-  </si>
-  <si>
-    <t>Aadhaar Enabled Payment  (AePS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judicial Notice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Judicial Notice</t>
-  </si>
-  <si>
-    <t>Final hearing</t>
-  </si>
-  <si>
-    <t>Pre-admission hearing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PDF File</t>
-  </si>
-  <si>
-    <t>ZIP Archive</t>
-  </si>
-  <si>
-    <t>interval scale.</t>
-  </si>
-  <si>
-    <t>ordinal scale</t>
-  </si>
-  <si>
-    <t>Ex-part Decree</t>
-  </si>
-  <si>
-    <t>Automate Test 6233</t>
-  </si>
-  <si>
-    <t>Case No 18720</t>
-  </si>
-  <si>
-    <t>Case No 738465</t>
-  </si>
-  <si>
-    <t>Automate Test New 5264</t>
-  </si>
-  <si>
-    <t>order 16Oct</t>
-  </si>
-  <si>
-    <t>Ref no2783152</t>
-  </si>
-  <si>
-    <t>Automation  309623</t>
-  </si>
-  <si>
-    <t>Ref no-23423512</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task New 9aug23</t>
-  </si>
-  <si>
-    <t>case no 452365</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Automate 12Jan23 new test</t>
-  </si>
-  <si>
-    <t>New Task 04Jan23</t>
-  </si>
-  <si>
-    <t>Ref-4346563</t>
-  </si>
-  <si>
-    <t>New Task Automate102056</t>
-  </si>
-  <si>
-    <t>Case 234241</t>
-  </si>
-  <si>
-    <t>No 5346356</t>
-  </si>
-  <si>
-    <t>New Task Automate140620</t>
-  </si>
-  <si>
-    <t>New Task 2312</t>
+    <t>Notice of Assignment by Assignee Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Notice Of Dissolution Of Partnership Test</t>
+  </si>
+  <si>
+    <t>Jio Money PDF</t>
+  </si>
+  <si>
+    <t>HDFC PayZapp pdf</t>
+  </si>
+  <si>
+    <t>New Local Custom Test</t>
+  </si>
+  <si>
+    <t>New General custom  Test</t>
+  </si>
+  <si>
+    <t>Criminal Trial Test</t>
+  </si>
+  <si>
+    <t>Framing of Charges Test</t>
+  </si>
+  <si>
+    <t>PAF</t>
+  </si>
+  <si>
+    <t>PDFA</t>
+  </si>
+  <si>
+    <t>New ordinal scale Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New interval scale Test</t>
+  </si>
+  <si>
+    <t>Final disposal at Admission Stage Test</t>
+  </si>
+  <si>
+    <t>E-filing at High Courts Test</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc Pvt td </t>
+  </si>
+  <si>
+    <t>Case 42598</t>
+  </si>
+  <si>
+    <t>New Task 123423</t>
+  </si>
+  <si>
+    <t>Ref-3423453</t>
+  </si>
+  <si>
+    <t>No 432123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK &amp; Partners. New Delhi. </t>
+  </si>
+  <si>
+    <t>Tax Law</t>
+  </si>
+  <si>
+    <t>Ref no6985837</t>
+  </si>
+  <si>
+    <t>Case No 30940</t>
+  </si>
+  <si>
+    <t>Case No 675752</t>
+  </si>
+  <si>
+    <t>Automate Test New 665</t>
+  </si>
+  <si>
+    <t>Ref-87453</t>
+  </si>
+  <si>
+    <t>New Task 09</t>
+  </si>
+  <si>
+    <t>Case 654534</t>
+  </si>
+  <si>
+    <t>No 9089</t>
+  </si>
+  <si>
+    <t>order as on date 15april2023</t>
+  </si>
+  <si>
+    <t>Ref no-564450</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task 848</t>
+  </si>
+  <si>
+    <t>case no 82760</t>
+  </si>
+  <si>
+    <t>25Jan23 new Task</t>
+  </si>
+  <si>
+    <t>New Task 3212</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1408,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1547,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1563,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1587,7 +1499,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1805,7 +1717,7 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -1816,7 +1728,7 @@
         <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
@@ -1883,7 +1795,7 @@
         <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1916,7 +1828,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1936,7 +1848,7 @@
         <v>91</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1960,7 +1872,7 @@
         <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2056,7 +1968,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2199,7 +2111,7 @@
         <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2212,7 +2124,7 @@
         <v>96</v>
       </c>
       <c r="B83">
-        <v>84650</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2220,7 +2132,7 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2461,7 +2373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2477,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2671,7 +2583,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2700,7 +2612,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -2711,7 +2623,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -2722,7 +2634,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -2782,7 +2694,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2814,7 +2726,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4">
-        <v>763468955</v>
+        <v>534523</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2833,7 +2745,7 @@
         <v>91</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2866,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2882,7 +2794,7 @@
         <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2978,7 +2890,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3092,7 +3004,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3123,7 +3035,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -3134,7 +3046,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -3145,7 +3057,7 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -3185,7 +3097,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3198,7 +3110,7 @@
         <v>96</v>
       </c>
       <c r="B40">
-        <v>321</v>
+        <v>764</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3206,7 +3118,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3264,7 +3176,7 @@
         <v>104</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3281,7 +3193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3297,7 +3209,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -3308,7 +3220,7 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3379,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3429,7 +3341,7 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3445,7 +3357,7 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3453,7 +3365,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3461,7 +3373,7 @@
         <v>145</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3469,7 +3381,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3477,7 +3389,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3486,12 +3398,12 @@
       </c>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:2" ht="25.5">
+    <row r="19" spans="1:2" ht="38.25">
       <c r="A19" t="s">
         <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3499,7 +3411,7 @@
         <v>117</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3515,7 +3427,7 @@
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3523,7 +3435,7 @@
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3539,7 +3451,7 @@
         <v>146</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3552,7 +3464,7 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3560,7 +3472,7 @@
         <v>124</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3576,7 +3488,7 @@
         <v>117</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3605,7 +3517,7 @@
         <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3613,7 +3525,7 @@
         <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3626,7 +3538,7 @@
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
@@ -3634,7 +3546,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3647,7 +3559,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3655,7 +3567,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3668,7 +3580,7 @@
         <v>133</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3676,7 +3588,7 @@
         <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3689,7 +3601,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3697,7 +3609,7 @@
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3710,7 +3622,7 @@
         <v>137</v>
       </c>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3718,7 +3630,7 @@
         <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3731,7 +3643,7 @@
         <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3739,7 +3651,7 @@
         <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3752,7 +3664,7 @@
         <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3760,7 +3672,7 @@
         <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3773,7 +3685,7 @@
         <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3781,17 +3693,17 @@
         <v>141</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="B61" t="s">
         <v>238</v>
@@ -3799,7 +3711,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="B62">
         <v>500000</v>
@@ -3829,8 +3741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3845,7 +3757,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4039,7 +3951,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4069,7 +3981,7 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="C27" t="s">
         <v>67</v>
@@ -4080,7 +3992,7 @@
         <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4091,7 +4003,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -4147,7 +4059,7 @@
         <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4180,7 +4092,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -4233,8 +4145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4249,7 +4161,7 @@
         <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -4345,7 +4257,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4459,7 +4371,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4490,7 +4402,7 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -4501,7 +4413,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -4512,7 +4424,7 @@
         <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -4552,7 +4464,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4565,7 +4477,7 @@
         <v>96</v>
       </c>
       <c r="B40">
-        <v>6567</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4573,7 +4485,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4640,9 +4552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4657,7 +4567,7 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>288</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -4723,8 +4633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4770,7 +4680,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4830,7 +4740,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4838,7 +4748,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
         <v>67</v>
@@ -4849,7 +4759,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -4860,7 +4770,7 @@
         <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
@@ -4895,7 +4805,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s">
         <v>67</v>
@@ -4925,7 +4835,7 @@
         <v>86</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4933,7 +4843,7 @@
         <v>88</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4958,7 +4868,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -4995,7 +4905,7 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5056,7 +4966,7 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5136,7 +5046,7 @@
         <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5149,7 +5059,7 @@
         <v>96</v>
       </c>
       <c r="B54">
-        <v>2312</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5157,7 +5067,7 @@
         <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5178,7 +5088,7 @@
         <v>104</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="9" customFormat="1" ht="15.75">
@@ -5196,10 +5106,10 @@
         <v>114</v>
       </c>
       <c r="B64" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5210,7 +5120,7 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5218,10 +5128,10 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5229,10 +5139,10 @@
         <v>117</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5240,7 +5150,7 @@
         <v>145</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5248,7 +5158,7 @@
         <v>162</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5256,7 +5166,7 @@
         <v>117</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5265,12 +5175,12 @@
       </c>
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" ht="38.25">
       <c r="A72" t="s">
         <v>121</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5278,7 +5188,7 @@
         <v>117</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5286,15 +5196,15 @@
         <v>122</v>
       </c>
       <c r="B74">
-        <v>8796543294</v>
+        <v>7696524324</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>123</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>249</v>
+      <c r="B75" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5302,7 +5212,7 @@
         <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5318,7 +5228,7 @@
         <v>146</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5331,15 +5241,15 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>124</v>
       </c>
-      <c r="B82" t="s">
-        <v>252</v>
+      <c r="B82" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5355,7 +5265,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5371,7 +5281,7 @@
         <v>143</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="16" customFormat="1">
@@ -5384,7 +5294,7 @@
         <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5392,7 +5302,7 @@
         <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5405,15 +5315,15 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="25.5">
       <c r="A95" t="s">
         <v>127</v>
       </c>
-      <c r="B95" t="s">
-        <v>257</v>
+      <c r="B95" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5426,7 +5336,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5434,7 +5344,7 @@
         <v>128</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5452,8 +5362,8 @@
       <c r="A104" t="s">
         <v>133</v>
       </c>
-      <c r="B104" t="s">
-        <v>260</v>
+      <c r="B104" s="20" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5461,7 +5371,7 @@
         <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5474,7 +5384,7 @@
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5482,7 +5392,7 @@
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5495,7 +5405,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5503,7 +5413,7 @@
         <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5516,7 +5426,7 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5524,7 +5434,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5537,7 +5447,7 @@
         <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5545,7 +5455,7 @@
         <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5558,7 +5468,7 @@
         <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5566,7 +5476,7 @@
         <v>141</v>
       </c>
       <c r="B130" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5574,11 +5484,11 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B67" r:id="rId3"/>
-    <hyperlink ref="B73" r:id="rId4"/>
-    <hyperlink ref="B84" r:id="rId5"/>
-    <hyperlink ref="B100" r:id="rId6" display="ABCD@itc.com"/>
-    <hyperlink ref="B70" r:id="rId7"/>
-    <hyperlink ref="B75" r:id="rId8" display="siddhi@itc.com"/>
+    <hyperlink ref="B70" r:id="rId4"/>
+    <hyperlink ref="B73" r:id="rId5"/>
+    <hyperlink ref="B84" r:id="rId6"/>
+    <hyperlink ref="B82" r:id="rId7" display="jadhav@jtyf.com"/>
+    <hyperlink ref="B100" r:id="rId8" display="ABCD@itc.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="289">
   <si>
     <t>URL</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>performer@avantis.info</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
     <t>New Expected Outcome 4264</t>
   </si>
   <si>
-    <t>Automate Test83</t>
-  </si>
-  <si>
     <t>New Expected Outcome 4543</t>
   </si>
   <si>
@@ -588,9 +582,6 @@
     <t>New Task 75567 Description</t>
   </si>
   <si>
-    <t>RefNo-104</t>
-  </si>
-  <si>
     <t>Automation Test 432</t>
   </si>
   <si>
@@ -612,9 +603,6 @@
     <t>Checks</t>
   </si>
   <si>
-    <t>No15344</t>
-  </si>
-  <si>
     <t>New Task  Description2143</t>
   </si>
   <si>
@@ -636,43 +624,19 @@
     <t>Task as on date12Oct23</t>
   </si>
   <si>
-    <t>Task as on 1320223</t>
-  </si>
-  <si>
     <t>order 16Oct</t>
   </si>
   <si>
-    <t>Automation  309623</t>
-  </si>
-  <si>
-    <t>RefNo-233</t>
-  </si>
-  <si>
-    <t>Automate Test 62233</t>
-  </si>
-  <si>
-    <t>New Task 180823</t>
-  </si>
-  <si>
-    <t>New Task 6321</t>
-  </si>
-  <si>
     <t>Apple.com</t>
   </si>
   <si>
     <t>Raju</t>
   </si>
   <si>
-    <t>raju@yahoo.com</t>
-  </si>
-  <si>
     <t>Limited Partnerships</t>
   </si>
   <si>
     <t>Corporations</t>
-  </si>
-  <si>
-    <t>anita@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -692,128 +656,254 @@
     <t>Renuse</t>
   </si>
   <si>
-    <t>radha@itc.com</t>
-  </si>
-  <si>
     <t>Avirat Gaikwad</t>
   </si>
   <si>
     <t>Rudra Chavan</t>
   </si>
   <si>
-    <t>PATANA HIGH COURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEGHALAY HIGH COURT
+    <t>Notice of Assignment by Assignee Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Notice Of Dissolution Of Partnership Test</t>
+  </si>
+  <si>
+    <t>Jio Money PDF</t>
+  </si>
+  <si>
+    <t>HDFC PayZapp pdf</t>
+  </si>
+  <si>
+    <t>New Local Custom Test</t>
+  </si>
+  <si>
+    <t>New General custom  Test</t>
+  </si>
+  <si>
+    <t>Criminal Trial Test</t>
+  </si>
+  <si>
+    <t>Framing of Charges Test</t>
+  </si>
+  <si>
+    <t>PAF</t>
+  </si>
+  <si>
+    <t>PDFA</t>
+  </si>
+  <si>
+    <t>New ordinal scale Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New interval scale Test</t>
+  </si>
+  <si>
+    <t>Final disposal at Admission Stage Test</t>
+  </si>
+  <si>
+    <t>E-filing at High Courts Test</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc Pvt td </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK &amp; Partners. New Delhi. </t>
+  </si>
+  <si>
+    <t>Tax Law</t>
+  </si>
+  <si>
+    <t>Automate Test New 665</t>
+  </si>
+  <si>
+    <t>Ref-87453</t>
+  </si>
+  <si>
+    <t>New Task 09</t>
+  </si>
+  <si>
+    <t>Case 654534</t>
+  </si>
+  <si>
+    <t>No 9089</t>
+  </si>
+  <si>
+    <t>order as on date 15april2023</t>
+  </si>
+  <si>
+    <t>Ref no 2jan23</t>
+  </si>
+  <si>
+    <t>Case No 20123</t>
+  </si>
+  <si>
+    <t>Case No 2012023</t>
+  </si>
+  <si>
+    <t>Task as on 02012023</t>
+  </si>
+  <si>
+    <t>ABP Group</t>
+  </si>
+  <si>
+    <t>Shree</t>
+  </si>
+  <si>
+    <t>shree@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ashok Leyland</t>
+  </si>
+  <si>
+    <t>anita@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Business and Tax Law Firms</t>
+  </si>
+  <si>
+    <t>rohan@Yahoo.com</t>
+  </si>
+  <si>
+    <t>Lata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Agama Law Associates</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>atharv@itc.com</t>
+  </si>
+  <si>
+    <t>Avirat Shukla</t>
+  </si>
+  <si>
+    <t>Rudra Roy</t>
+  </si>
+  <si>
+    <t>MADHYA PRADESH HIGH COURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIPURA HIGH COURT
 </t>
   </si>
   <si>
-    <t>Notice of Assignment by Assignee Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Notice Of Dissolution Of Partnership Test</t>
-  </si>
-  <si>
-    <t>Jio Money PDF</t>
-  </si>
-  <si>
-    <t>HDFC PayZapp pdf</t>
-  </si>
-  <si>
-    <t>New Local Custom Test</t>
-  </si>
-  <si>
-    <t>New General custom  Test</t>
-  </si>
-  <si>
-    <t>Criminal Trial Test</t>
-  </si>
-  <si>
-    <t>Framing of Charges Test</t>
-  </si>
-  <si>
-    <t>PAF</t>
-  </si>
-  <si>
-    <t>PDFA</t>
-  </si>
-  <si>
-    <t>New ordinal scale Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New interval scale Test</t>
-  </si>
-  <si>
-    <t>Final disposal at Admission Stage Test</t>
-  </si>
-  <si>
-    <t>E-filing at High Courts Test</t>
-  </si>
-  <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abc Pvt td </t>
-  </si>
-  <si>
-    <t>Case 42598</t>
-  </si>
-  <si>
-    <t>New Task 123423</t>
-  </si>
-  <si>
-    <t>Ref-3423453</t>
-  </si>
-  <si>
-    <t>No 432123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AK &amp; Partners. New Delhi. </t>
-  </si>
-  <si>
-    <t>Tax Law</t>
-  </si>
-  <si>
-    <t>Ref no6985837</t>
-  </si>
-  <si>
-    <t>Case No 30940</t>
-  </si>
-  <si>
-    <t>Case No 675752</t>
-  </si>
-  <si>
-    <t>Automate Test New 665</t>
-  </si>
-  <si>
-    <t>Ref-87453</t>
-  </si>
-  <si>
-    <t>New Task 09</t>
-  </si>
-  <si>
-    <t>Case 654534</t>
-  </si>
-  <si>
-    <t>No 9089</t>
-  </si>
-  <si>
-    <t>order as on date 15april2023</t>
-  </si>
-  <si>
-    <t>Ref no-564450</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task 848</t>
-  </si>
-  <si>
-    <t>case no 82760</t>
-  </si>
-  <si>
-    <t>25Jan23 new Task</t>
-  </si>
-  <si>
-    <t>New Task 3212</t>
+    <t>EMPLOYMENT- SALARY</t>
+  </si>
+  <si>
+    <t>FAULTY PRODUCTS</t>
+  </si>
+  <si>
+    <t>Mobile Phones</t>
+  </si>
+  <si>
+    <t>Electronic Funds Transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Local Custom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New General custom  </t>
+  </si>
+  <si>
+    <t>Delivering a reply.</t>
+  </si>
+  <si>
+    <t>Setting down for trial.</t>
+  </si>
+  <si>
+    <t>Policy documents</t>
+  </si>
+  <si>
+    <t>Application forms</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Serving Summonses</t>
+  </si>
+  <si>
+    <t>Judgment</t>
+  </si>
+  <si>
+    <t>RefNo-123</t>
+  </si>
+  <si>
+    <t>No1537</t>
+  </si>
+  <si>
+    <t>Automate Test67</t>
+  </si>
+  <si>
+    <t>RefNo-7645</t>
+  </si>
+  <si>
+    <t>Automation  309624</t>
+  </si>
+  <si>
+    <t>New Task 16022</t>
+  </si>
+  <si>
+    <t>No 89706</t>
+  </si>
+  <si>
+    <t>Case 234123</t>
+  </si>
+  <si>
+    <t>Ref-712342</t>
+  </si>
+  <si>
+    <t>New Task 203</t>
+  </si>
+  <si>
+    <t>New Task 1231</t>
+  </si>
+  <si>
+    <t>case no 6JAN24</t>
+  </si>
+  <si>
+    <t>Ref no-60124</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task 2344</t>
+  </si>
+  <si>
+    <t>New Task 5jan24</t>
+  </si>
+  <si>
+    <t>7jan24 new Task</t>
+  </si>
+  <si>
+    <t>raju@itc.com</t>
+  </si>
+  <si>
+    <t>sunita@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mumbai HIGH COURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satara HIGH COURT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporations </t>
+  </si>
+  <si>
+    <t>riyaradha@itc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kantak.bhagyesh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1407,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1431,15 +1521,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1483,42 +1573,42 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
@@ -1526,179 +1616,179 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="25.5">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3">
         <v>20000</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
         <v>10000</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3">
         <v>5000</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
         <v>3000</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3">
         <v>2000</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3">
         <v>3</v>
@@ -1706,7 +1796,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -1714,204 +1804,204 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
         <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
         <v>102</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
         <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
         <v>47</v>
-      </c>
-      <c r="B53" t="s">
-        <v>253</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -1919,175 +2009,175 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
         <v>52</v>
-      </c>
-      <c r="B58" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>75000</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
         <v>57</v>
       </c>
-      <c r="B63" t="s">
-        <v>58</v>
-      </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
         <v>62</v>
-      </c>
-      <c r="B67" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" s="3">
         <v>10000</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" s="3">
         <v>5000</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" s="3">
         <v>3000</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="3">
         <v>2000</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B75" s="3">
         <v>3</v>
@@ -2095,7 +2185,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B76" s="3">
         <v>0</v>
@@ -2103,25 +2193,25 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>50</v>
@@ -2129,20 +2219,20 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" s="8">
         <v>44571</v>
@@ -2150,7 +2240,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B88">
         <v>6345578</v>
@@ -2158,7 +2248,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89">
         <v>49600</v>
@@ -2166,12 +2256,12 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>4567</v>
@@ -2179,7 +2269,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B97">
         <v>50000</v>
@@ -2221,15 +2311,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2267,15 +2357,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2313,15 +2403,15 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2329,15 +2419,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2345,15 +2435,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2373,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2386,29 +2476,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -2416,179 +2506,179 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3">
         <v>20000</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
         <v>10000</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3">
         <v>5000</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3">
         <v>3000</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3">
         <v>2000</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
@@ -2596,7 +2686,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -2604,64 +2694,64 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>256</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2669,99 +2759,99 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
         <v>102</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>534523</v>
+        <v>9012024</v>
       </c>
       <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
         <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2778,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2791,49 +2881,49 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2841,175 +2931,175 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>75000</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>10000</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3">
         <v>5000</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
         <v>3000</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3">
         <v>2000</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -3017,7 +3107,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -3025,110 +3115,110 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40">
-        <v>764</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="8">
         <v>44571</v>
@@ -3136,7 +3226,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45">
         <v>89347</v>
@@ -3144,7 +3234,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46">
         <v>47600</v>
@@ -3152,20 +3242,20 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53">
-        <v>7234432</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54">
         <v>50000</v>
@@ -3173,10 +3263,10 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3206,64 +3296,64 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="8">
         <v>44571</v>
@@ -3271,7 +3361,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="8">
         <v>44570</v>
@@ -3291,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3315,108 +3405,108 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="9" customFormat="1" ht="15.75">
       <c r="A9" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="16" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
       <c r="A18" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" ht="38.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21">
         <v>7696524324</v>
@@ -3424,76 +3514,76 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="25.5">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31">
         <v>9943234594</v>
@@ -3501,220 +3591,220 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
         <v>143</v>
-      </c>
-      <c r="B32" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="24" customFormat="1">
       <c r="A33" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
       <c r="A36" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
       <c r="A39" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
       <c r="A42" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
       <c r="A45" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
       <c r="A48" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
       <c r="A51" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
       <c r="A54" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
       <c r="A57" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B61" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B62">
-        <v>500000</v>
+        <v>9000000</v>
       </c>
     </row>
   </sheetData>
@@ -3741,8 +3831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3754,29 +3844,29 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
@@ -3784,179 +3874,179 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="25.5">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3">
         <v>20000</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
         <v>10000</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3">
         <v>5000</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3">
         <v>3000</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3">
         <v>2000</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
@@ -3964,7 +4054,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -3972,163 +4062,163 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
         <v>102</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
         <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4145,8 +4235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4158,49 +4248,49 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4208,175 +4298,175 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
         <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>75000</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>10000</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3">
         <v>5000</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
         <v>3000</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3">
         <v>2000</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -4384,7 +4474,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4392,110 +4482,110 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40">
-        <v>234</v>
+        <v>12321</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="8">
         <v>44571</v>
@@ -4503,7 +4593,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B45">
         <v>6578</v>
@@ -4511,7 +4601,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46">
         <v>45600</v>
@@ -4519,12 +4609,12 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53">
         <v>4567</v>
@@ -4532,7 +4622,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54">
         <v>50000</v>
@@ -4552,7 +4642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4564,59 +4656,59 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4633,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4656,20 +4748,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -4677,15 +4769,15 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
@@ -4693,43 +4785,43 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -4737,149 +4829,149 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
         <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" t="s">
-        <v>67</v>
-      </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
         <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
         <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="3"/>
     </row>
@@ -4889,62 +4981,62 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
       <c r="A34" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>47</v>
-      </c>
-      <c r="B35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -4952,85 +5044,85 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>75000</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
         <v>62</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="3">
         <v>3</v>
@@ -5038,46 +5130,46 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54">
-        <v>621</v>
+        <v>651</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59">
         <v>5464</v>
@@ -5085,115 +5177,115 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="9" customFormat="1" ht="15.75">
       <c r="A62" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="16" customFormat="1">
       <c r="A63" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
       <c r="A71" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="17"/>
     </row>
     <row r="72" spans="1:3" ht="38.25">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74">
         <v>7696524324</v>
@@ -5201,76 +5293,76 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25.5">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85">
         <v>9943234594</v>
@@ -5278,73 +5370,73 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" t="s">
         <v>143</v>
-      </c>
-      <c r="B86" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="16" customFormat="1">
       <c r="A88" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
       <c r="A93" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="25.5">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
       <c r="A98" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5355,128 +5447,128 @@
     </row>
     <row r="103" spans="1:2" s="16" customFormat="1">
       <c r="A103" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
       <c r="A108" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B109" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
       <c r="A113" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
       <c r="A118" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
       <c r="A123" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
       <c r="A128" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="288">
   <si>
     <t>URL</t>
   </si>
@@ -534,9 +534,6 @@
     <t>New Expected Outcome 153</t>
   </si>
   <si>
-    <t>RefNo-12463709</t>
-  </si>
-  <si>
     <t>Automate Testt</t>
   </si>
   <si>
@@ -609,9 +606,6 @@
     <t>https://login.teamleaseregtech.com/</t>
   </si>
   <si>
-    <t>Shanvi</t>
-  </si>
-  <si>
     <t>Reshma</t>
   </si>
   <si>
@@ -621,16 +615,7 @@
     <t>FY</t>
   </si>
   <si>
-    <t>Task as on date12Oct23</t>
-  </si>
-  <si>
-    <t>order 16Oct</t>
-  </si>
-  <si>
     <t>Apple.com</t>
-  </si>
-  <si>
-    <t>Raju</t>
   </si>
   <si>
     <t>Limited Partnerships</t>
@@ -716,9 +701,6 @@
     <t>Tax Law</t>
   </si>
   <si>
-    <t>Automate Test New 665</t>
-  </si>
-  <si>
     <t>Ref-87453</t>
   </si>
   <si>
@@ -732,15 +714,6 @@
   </si>
   <si>
     <t>order as on date 15april2023</t>
-  </si>
-  <si>
-    <t>Ref no 2jan23</t>
-  </si>
-  <si>
-    <t>Case No 20123</t>
-  </si>
-  <si>
-    <t>Case No 2012023</t>
   </si>
   <si>
     <t>Task as on 02012023</t>
@@ -848,48 +821,6 @@
     <t>RefNo-7645</t>
   </si>
   <si>
-    <t>Automation  309624</t>
-  </si>
-  <si>
-    <t>New Task 16022</t>
-  </si>
-  <si>
-    <t>No 89706</t>
-  </si>
-  <si>
-    <t>Case 234123</t>
-  </si>
-  <si>
-    <t>Ref-712342</t>
-  </si>
-  <si>
-    <t>New Task 203</t>
-  </si>
-  <si>
-    <t>New Task 1231</t>
-  </si>
-  <si>
-    <t>case no 6JAN24</t>
-  </si>
-  <si>
-    <t>Ref no-60124</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task 2344</t>
-  </si>
-  <si>
-    <t>New Task 5jan24</t>
-  </si>
-  <si>
-    <t>7jan24 new Task</t>
-  </si>
-  <si>
-    <t>raju@itc.com</t>
-  </si>
-  <si>
-    <t>sunita@yahoo.com</t>
-  </si>
-  <si>
     <t>Mumbai HIGH COURT</t>
   </si>
   <si>
@@ -903,7 +834,73 @@
     <t>riyaradha@itc.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> kantak.bhagyesh@gmail.com</t>
+    <t>Jayashree</t>
+  </si>
+  <si>
+    <t>jayshree@itc.com</t>
+  </si>
+  <si>
+    <t>jaya@yahoo.com</t>
+  </si>
+  <si>
+    <t>implementation.avantis@gmail.com</t>
+  </si>
+  <si>
+    <t>https://test.avantisregtec.in/DIYProduction/Login.aspx</t>
+  </si>
+  <si>
+    <t>Case No 17012024</t>
+  </si>
+  <si>
+    <t>Ref no 17jan24</t>
+  </si>
+  <si>
+    <t>Automate Test New 3</t>
+  </si>
+  <si>
+    <t>order 17Oct</t>
+  </si>
+  <si>
+    <t>Task as on 17jan2024</t>
+  </si>
+  <si>
+    <t>RefNo-627</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kantak.bhagyesh2@gmail.com</t>
+  </si>
+  <si>
+    <t>Automation  24012024</t>
+  </si>
+  <si>
+    <t>Ref no-27012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task 25012024</t>
+  </si>
+  <si>
+    <t>case no 26JAN24</t>
+  </si>
+  <si>
+    <t>25jan24 new Task</t>
+  </si>
+  <si>
+    <t>New Task 27jan24</t>
+  </si>
+  <si>
+    <t>Ref-27012024</t>
+  </si>
+  <si>
+    <t>New Task 25012024</t>
+  </si>
+  <si>
+    <t>Case 28012024</t>
+  </si>
+  <si>
+    <t>No 27012024</t>
+  </si>
+  <si>
+    <t>New Task 28012024</t>
   </si>
 </sst>
 </file>
@@ -1497,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1521,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1565,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1589,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1807,7 +1804,7 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -1818,7 +1815,7 @@
         <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -1885,7 +1882,7 @@
         <v>85</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1918,7 +1915,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1938,7 +1935,7 @@
         <v>90</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1962,7 +1959,7 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2058,7 +2055,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2201,7 +2198,7 @@
         <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2222,7 +2219,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2463,7 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2673,7 +2670,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2713,7 +2710,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -2724,7 +2721,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -2784,7 +2781,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2816,7 +2813,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>9012024</v>
+        <v>25012024</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2835,7 +2832,7 @@
         <v>90</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2868,8 +2865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2884,7 +2881,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -2980,7 +2977,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3094,7 +3091,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3136,7 +3133,7 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -3147,7 +3144,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -3200,7 +3197,7 @@
         <v>95</v>
       </c>
       <c r="B40">
-        <v>8456</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3208,7 +3205,7 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3266,7 +3263,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3299,7 +3296,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
         <v>66</v>
@@ -3310,7 +3307,7 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -3381,8 +3378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3416,6 +3413,30 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" s="9" customFormat="1" ht="15.75">
       <c r="A9" s="19" t="s">
         <v>117</v>
@@ -3431,7 +3452,7 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3447,7 +3468,7 @@
         <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3455,7 +3476,7 @@
         <v>116</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3463,7 +3484,7 @@
         <v>144</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3471,7 +3492,7 @@
         <v>161</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3479,7 +3500,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3493,7 +3514,7 @@
         <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3501,7 +3522,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3517,7 +3538,7 @@
         <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3525,7 +3546,7 @@
         <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3541,7 +3562,7 @@
         <v>145</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3554,7 +3575,7 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3562,7 +3583,7 @@
         <v>123</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3578,7 +3599,7 @@
         <v>116</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3607,7 +3628,7 @@
         <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3615,7 +3636,7 @@
         <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3628,7 +3649,7 @@
         <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
@@ -3636,7 +3657,7 @@
         <v>126</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3649,7 +3670,7 @@
         <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3657,7 +3678,7 @@
         <v>127</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3670,7 +3691,7 @@
         <v>132</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3678,7 +3699,7 @@
         <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3691,7 +3712,7 @@
         <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3699,7 +3720,7 @@
         <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3712,7 +3733,7 @@
         <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3720,7 +3741,7 @@
         <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3733,7 +3754,7 @@
         <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3741,7 +3762,7 @@
         <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3754,7 +3775,7 @@
         <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3762,7 +3783,7 @@
         <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3775,7 +3796,7 @@
         <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3783,25 +3804,25 @@
         <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B62">
         <v>9000000</v>
@@ -3817,9 +3838,12 @@
     <hyperlink ref="B41" r:id="rId6" display="ABCD@itc.com"/>
     <hyperlink ref="B17" r:id="rId7"/>
     <hyperlink ref="B28" r:id="rId8" display="jadhav@jtyf.com"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="B7" r:id="rId10"/>
+    <hyperlink ref="B5" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3832,7 +3856,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3847,7 +3871,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -4041,7 +4065,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4071,7 +4095,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -4082,7 +4106,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -4093,7 +4117,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -4149,7 +4173,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4182,7 +4206,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -4235,8 +4259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4251,7 +4275,7 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -4347,7 +4371,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4461,7 +4485,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4492,7 +4516,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -4503,7 +4527,7 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -4514,7 +4538,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -4554,7 +4578,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4567,7 +4591,7 @@
         <v>95</v>
       </c>
       <c r="B40">
-        <v>12321</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4575,7 +4599,7 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4642,7 +4666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4659,7 +4683,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C1" t="s">
         <v>66</v>
@@ -4725,8 +4749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4772,7 +4796,7 @@
         <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4832,7 +4856,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4840,7 +4864,7 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -4851,7 +4875,7 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -4897,7 +4921,7 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -4927,7 +4951,7 @@
         <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4935,7 +4959,7 @@
         <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4960,7 +4984,7 @@
         <v>45</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -4997,7 +5021,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -5058,7 +5082,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5138,7 +5162,7 @@
         <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5151,7 +5175,7 @@
         <v>95</v>
       </c>
       <c r="B54">
-        <v>651</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5159,7 +5183,7 @@
         <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5172,7 +5196,7 @@
         <v>99</v>
       </c>
       <c r="B59">
-        <v>5464</v>
+        <v>768</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5180,7 +5204,7 @@
         <v>103</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="9" customFormat="1" ht="15.75">
@@ -5198,10 +5222,10 @@
         <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5212,7 +5236,7 @@
         <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5220,10 +5244,10 @@
         <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5231,10 +5255,10 @@
         <v>116</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5242,7 +5266,7 @@
         <v>144</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5250,7 +5274,7 @@
         <v>161</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5258,7 +5282,7 @@
         <v>116</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5272,7 +5296,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5280,7 +5304,7 @@
         <v>116</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5296,7 +5320,7 @@
         <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5304,7 +5328,7 @@
         <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5320,7 +5344,7 @@
         <v>145</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5333,7 +5357,7 @@
         <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5341,7 +5365,7 @@
         <v>123</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5357,7 +5381,7 @@
         <v>116</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5386,7 +5410,7 @@
         <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5394,7 +5418,7 @@
         <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5407,7 +5431,7 @@
         <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="25.5">
@@ -5415,7 +5439,7 @@
         <v>126</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5428,7 +5452,7 @@
         <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5436,7 +5460,7 @@
         <v>127</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5455,7 +5479,7 @@
         <v>132</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5463,7 +5487,7 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5476,7 +5500,7 @@
         <v>134</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5484,7 +5508,7 @@
         <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5497,7 +5521,7 @@
         <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5505,7 +5529,7 @@
         <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5518,7 +5542,7 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5526,7 +5550,7 @@
         <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5539,7 +5563,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5547,7 +5571,7 @@
         <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5560,7 +5584,7 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5568,7 +5592,7 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="269">
   <si>
     <t>URL</t>
   </si>
@@ -606,92 +606,18 @@
     <t>https://login.teamleaseregtech.com/</t>
   </si>
   <si>
-    <t>Reshma</t>
-  </si>
-  <si>
     <t>Annual Budget</t>
   </si>
   <si>
     <t>FY</t>
   </si>
   <si>
-    <t>Apple.com</t>
-  </si>
-  <si>
-    <t>Limited Partnerships</t>
-  </si>
-  <si>
-    <t>Corporations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Kirkland &amp; Ellis</t>
-  </si>
-  <si>
-    <t>shoib@Yahoo.com</t>
-  </si>
-  <si>
     <t>Arora</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Clifford Chance</t>
-  </si>
-  <si>
     <t>Renuse</t>
   </si>
   <si>
-    <t>Avirat Gaikwad</t>
-  </si>
-  <si>
-    <t>Rudra Chavan</t>
-  </si>
-  <si>
-    <t>Notice of Assignment by Assignee Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Notice Of Dissolution Of Partnership Test</t>
-  </si>
-  <si>
-    <t>Jio Money PDF</t>
-  </si>
-  <si>
-    <t>HDFC PayZapp pdf</t>
-  </si>
-  <si>
-    <t>New Local Custom Test</t>
-  </si>
-  <si>
-    <t>New General custom  Test</t>
-  </si>
-  <si>
-    <t>Criminal Trial Test</t>
-  </si>
-  <si>
-    <t>Framing of Charges Test</t>
-  </si>
-  <si>
-    <t>PAF</t>
-  </si>
-  <si>
-    <t>PDFA</t>
-  </si>
-  <si>
-    <t>New ordinal scale Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New interval scale Test</t>
-  </si>
-  <si>
-    <t>Final disposal at Admission Stage Test</t>
-  </si>
-  <si>
-    <t>E-filing at High Courts Test</t>
-  </si>
-  <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">abc Pvt td </t>
   </si>
   <si>
@@ -717,21 +643,6 @@
   </si>
   <si>
     <t>Task as on 02012023</t>
-  </si>
-  <si>
-    <t>ABP Group</t>
-  </si>
-  <si>
-    <t>Shree</t>
-  </si>
-  <si>
-    <t>shree@yahoo.com</t>
-  </si>
-  <si>
-    <t>Ashok Leyland</t>
-  </si>
-  <si>
-    <t>anita@yahoo.com</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -754,153 +665,184 @@
     <t>atharv@itc.com</t>
   </si>
   <si>
-    <t>Avirat Shukla</t>
-  </si>
-  <si>
-    <t>Rudra Roy</t>
-  </si>
-  <si>
-    <t>MADHYA PRADESH HIGH COURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIPURA HIGH COURT
+    <t>No1537</t>
+  </si>
+  <si>
+    <t>Automate Test67</t>
+  </si>
+  <si>
+    <t>implementation.avantis@gmail.com</t>
+  </si>
+  <si>
+    <t>https://test.avantisregtec.in/DIYProduction/Login.aspx</t>
+  </si>
+  <si>
+    <t>Automate Test New 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kantak.bhagyesh@gmail.com</t>
+  </si>
+  <si>
+    <t>shrisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHHATTISGARH HIGH COURT.
 </t>
   </si>
   <si>
-    <t>EMPLOYMENT- SALARY</t>
-  </si>
-  <si>
-    <t>FAULTY PRODUCTS</t>
-  </si>
-  <si>
-    <t>Mobile Phones</t>
-  </si>
-  <si>
-    <t>Electronic Funds Transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Local Custom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New General custom  </t>
-  </si>
-  <si>
-    <t>Delivering a reply.</t>
-  </si>
-  <si>
-    <t>Setting down for trial.</t>
-  </si>
-  <si>
-    <t>Policy documents</t>
-  </si>
-  <si>
-    <t>Application forms</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Serving Summonses</t>
-  </si>
-  <si>
-    <t>Judgment</t>
-  </si>
-  <si>
-    <t>RefNo-123</t>
-  </si>
-  <si>
-    <t>No1537</t>
-  </si>
-  <si>
-    <t>Automate Test67</t>
-  </si>
-  <si>
-    <t>RefNo-7645</t>
-  </si>
-  <si>
-    <t>Mumbai HIGH COURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satara HIGH COURT
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporations </t>
-  </si>
-  <si>
-    <t>riyaradha@itc.com</t>
-  </si>
-  <si>
-    <t>Jayashree</t>
-  </si>
-  <si>
-    <t>jayshree@itc.com</t>
-  </si>
-  <si>
-    <t>jaya@yahoo.com</t>
-  </si>
-  <si>
-    <t>implementation.avantis@gmail.com</t>
-  </si>
-  <si>
-    <t>https://test.avantisregtec.in/DIYProduction/Login.aspx</t>
-  </si>
-  <si>
-    <t>Case No 17012024</t>
-  </si>
-  <si>
-    <t>Ref no 17jan24</t>
-  </si>
-  <si>
-    <t>Automate Test New 3</t>
-  </si>
-  <si>
-    <t>order 17Oct</t>
-  </si>
-  <si>
-    <t>Task as on 17jan2024</t>
-  </si>
-  <si>
-    <t>RefNo-627</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kantak.bhagyesh2@gmail.com</t>
-  </si>
-  <si>
-    <t>Automation  24012024</t>
-  </si>
-  <si>
-    <t>Ref no-27012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task 25012024</t>
-  </si>
-  <si>
-    <t>case no 26JAN24</t>
-  </si>
-  <si>
-    <t>25jan24 new Task</t>
-  </si>
-  <si>
-    <t>New Task 27jan24</t>
-  </si>
-  <si>
-    <t>Ref-27012024</t>
-  </si>
-  <si>
-    <t>New Task 25012024</t>
-  </si>
-  <si>
-    <t>Case 28012024</t>
-  </si>
-  <si>
-    <t>No 27012024</t>
-  </si>
-  <si>
-    <t>New Task 28012024</t>
+    <t>Automation  06feb24</t>
+  </si>
+  <si>
+    <t>Public Limited Company</t>
+  </si>
+  <si>
+    <t>Nitu</t>
+  </si>
+  <si>
+    <t>nitu@itc.com</t>
+  </si>
+  <si>
+    <t>Limited Liability Partnership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporations 1 </t>
+  </si>
+  <si>
+    <t>riyu@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dave and Associates</t>
+  </si>
+  <si>
+    <t>shoib@gmail.com</t>
+  </si>
+  <si>
+    <t>Kadam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Actionable attorneys</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>komal@yahoo.com</t>
+  </si>
+  <si>
+    <t>Prasad Gaikwad</t>
+  </si>
+  <si>
+    <t>Piyush Chavan</t>
+  </si>
+  <si>
+    <t>Satara HIGH COURT.</t>
+  </si>
+  <si>
+    <t>Legal Notice format on Money Recovery</t>
+  </si>
+  <si>
+    <t>Legal Notice format on Eviction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digital Wallets</t>
+  </si>
+  <si>
+    <t>Pre Paid Cards.</t>
+  </si>
+  <si>
+    <t>Local Custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judicial notice of a Custom </t>
+  </si>
+  <si>
+    <t>Judgement/Decree</t>
+  </si>
+  <si>
+    <t>Execution of Decree</t>
+  </si>
+  <si>
+    <t>PAAF</t>
+  </si>
+  <si>
+    <t>PDAF</t>
+  </si>
+  <si>
+    <t>Automation Test</t>
+  </si>
+  <si>
+    <t>Final disposal at Admission Stage  One</t>
+  </si>
+  <si>
+    <t>E-filing at High Courts Test one</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>Ref-7feb24</t>
+  </si>
+  <si>
+    <t>New Task 318</t>
+  </si>
+  <si>
+    <t>Case 7feb24</t>
+  </si>
+  <si>
+    <t>No7feb24</t>
+  </si>
+  <si>
+    <t>New Task 67</t>
+  </si>
+  <si>
+    <t>RefNo-1323</t>
+  </si>
+  <si>
+    <t>Ref no 8FEB24</t>
+  </si>
+  <si>
+    <t>Case No 8FEB24</t>
+  </si>
+  <si>
+    <t>Case No 8FEB2024</t>
+  </si>
+  <si>
+    <t>RefNo-6267</t>
+  </si>
+  <si>
+    <t>Task as on 8FEB24</t>
+  </si>
+  <si>
+    <t>order 8FEB24</t>
+  </si>
+  <si>
+    <t>New Task 35176</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>Very very excellent</t>
+  </si>
+  <si>
+    <t>Ref no-13feb24</t>
+  </si>
+  <si>
+    <t>case no 13feb24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Task 15feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> new Task 15feb24</t>
+  </si>
+  <si>
+    <t>New Task 15022024</t>
+  </si>
+  <si>
+    <t>RefNo-15feb2024</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1437,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1518,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1586,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1804,7 +1746,7 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -1915,7 +1857,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1959,7 +1901,7 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2219,7 +2161,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2460,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2476,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -2670,7 +2612,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2699,7 +2641,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -2781,7 +2723,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2813,7 +2755,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>25012024</v>
+        <v>15022024</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2832,7 +2774,7 @@
         <v>90</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2865,7 +2807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2881,7 +2823,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -3091,7 +3033,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3122,7 +3064,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -3197,7 +3139,7 @@
         <v>95</v>
       </c>
       <c r="B40">
-        <v>476</v>
+        <v>8723</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3205,7 +3147,7 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3296,7 +3238,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C1" t="s">
         <v>66</v>
@@ -3378,8 +3320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3418,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3426,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>268</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3452,7 +3394,7 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3468,7 +3410,7 @@
         <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3476,7 +3418,7 @@
         <v>116</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3484,7 +3426,7 @@
         <v>144</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3492,7 +3434,7 @@
         <v>161</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3500,7 +3442,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3514,7 +3456,7 @@
         <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3522,7 +3464,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3538,7 +3480,7 @@
         <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3546,7 +3488,7 @@
         <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3562,7 +3504,7 @@
         <v>145</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3575,7 +3517,7 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3583,7 +3525,7 @@
         <v>123</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3599,7 +3541,7 @@
         <v>116</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3628,7 +3570,7 @@
         <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3636,7 +3578,7 @@
         <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3649,7 +3591,7 @@
         <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
@@ -3657,7 +3599,7 @@
         <v>126</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3670,7 +3612,7 @@
         <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3678,7 +3620,7 @@
         <v>127</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3691,7 +3633,7 @@
         <v>132</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3699,7 +3641,7 @@
         <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3712,7 +3654,7 @@
         <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3720,7 +3662,7 @@
         <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3733,7 +3675,7 @@
         <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3741,7 +3683,7 @@
         <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3754,7 +3696,7 @@
         <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3762,7 +3704,7 @@
         <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3775,7 +3717,7 @@
         <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3783,7 +3725,7 @@
         <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3796,7 +3738,7 @@
         <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3804,25 +3746,25 @@
         <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B61" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B62">
         <v>9000000</v>
@@ -3855,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3871,7 +3813,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -4065,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4095,7 +4037,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -4173,7 +4115,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4206,7 +4148,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -4259,7 +4201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -4275,7 +4217,7 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -4485,7 +4427,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4516,7 +4458,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -4578,7 +4520,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4591,7 +4533,7 @@
         <v>95</v>
       </c>
       <c r="B40">
-        <v>426</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4666,8 +4608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4683,7 +4625,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
         <v>66</v>
@@ -4749,8 +4691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4796,7 +4738,7 @@
         <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4856,7 +4798,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4864,7 +4806,7 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -4921,7 +4863,7 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -4951,7 +4893,7 @@
         <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4984,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -5021,7 +4963,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -5082,7 +5024,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5162,7 +5104,7 @@
         <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5175,7 +5117,7 @@
         <v>95</v>
       </c>
       <c r="B54">
-        <v>451</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5183,7 +5125,7 @@
         <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5222,7 +5164,7 @@
         <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C64" t="s">
         <v>183</v>
@@ -5244,7 +5186,7 @@
         <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s">
         <v>185</v>
@@ -5255,7 +5197,7 @@
         <v>116</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
         <v>186</v>
@@ -5266,7 +5208,7 @@
         <v>144</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5274,7 +5216,7 @@
         <v>161</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5282,7 +5224,7 @@
         <v>116</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="16" customFormat="1">
@@ -5296,7 +5238,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5304,7 +5246,7 @@
         <v>116</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5320,7 +5262,7 @@
         <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5328,7 +5270,7 @@
         <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5344,7 +5286,7 @@
         <v>145</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5357,7 +5299,7 @@
         <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5365,7 +5307,7 @@
         <v>123</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5381,7 +5323,7 @@
         <v>116</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5410,7 +5352,7 @@
         <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5418,7 +5360,7 @@
         <v>156</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5431,7 +5373,7 @@
         <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="25.5">
@@ -5439,7 +5381,7 @@
         <v>126</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5452,7 +5394,7 @@
         <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5460,7 +5402,7 @@
         <v>127</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5479,7 +5421,7 @@
         <v>132</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5487,7 +5429,7 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5500,7 +5442,7 @@
         <v>134</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5508,7 +5450,7 @@
         <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5521,7 +5463,7 @@
         <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5529,7 +5471,7 @@
         <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5542,7 +5484,7 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5550,7 +5492,7 @@
         <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5563,7 +5505,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5571,7 +5513,7 @@
         <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5584,7 +5526,7 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5592,18 +5534,18 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B67" r:id="rId3"/>
-    <hyperlink ref="B70" r:id="rId4"/>
-    <hyperlink ref="B73" r:id="rId5"/>
-    <hyperlink ref="B84" r:id="rId6"/>
-    <hyperlink ref="B82" r:id="rId7" display="jadhav@jtyf.com"/>
+    <hyperlink ref="B84" r:id="rId3"/>
+    <hyperlink ref="B82" r:id="rId4" display="jadhav@jtyf.com"/>
+    <hyperlink ref="B67" r:id="rId5"/>
+    <hyperlink ref="B70" r:id="rId6"/>
+    <hyperlink ref="B73" r:id="rId7"/>
     <hyperlink ref="B100" r:id="rId8" display="ABCD@itc.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="287">
   <si>
     <t>URL</t>
   </si>
@@ -501,9 +501,6 @@
     <t>Deepali Dev</t>
   </si>
   <si>
-    <t>Edit Opponent Name</t>
-  </si>
-  <si>
     <t>High Court of Gujarat</t>
   </si>
   <si>
@@ -582,21 +579,6 @@
     <t>Automation Test 432</t>
   </si>
   <si>
-    <t>45a#</t>
-  </si>
-  <si>
-    <t>SF%^2</t>
-  </si>
-  <si>
-    <t>234#a</t>
-  </si>
-  <si>
-    <t>4958#2</t>
-  </si>
-  <si>
-    <t>Task as on date 232</t>
-  </si>
-  <si>
     <t>Checks</t>
   </si>
   <si>
@@ -612,12 +594,6 @@
     <t>FY</t>
   </si>
   <si>
-    <t>Arora</t>
-  </si>
-  <si>
-    <t>Renuse</t>
-  </si>
-  <si>
     <t xml:space="preserve">abc Pvt td </t>
   </si>
   <si>
@@ -642,207 +618,286 @@
     <t>order as on date 15april2023</t>
   </si>
   <si>
-    <t>Task as on 02012023</t>
+    <t>No1537</t>
+  </si>
+  <si>
+    <t>Automate Test67</t>
+  </si>
+  <si>
+    <t>implementation.avantis@gmail.com</t>
+  </si>
+  <si>
+    <t>https://test.avantisregtec.in/DIYProduction/Login.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kantak.bhagyesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Automation  06feb24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporations 1 </t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>riya@yahoo.com</t>
+  </si>
+  <si>
+    <t>Cryptocurrency</t>
+  </si>
+  <si>
+    <t>Task as on date 2132</t>
+  </si>
+  <si>
+    <t>Task as on 05012024</t>
+  </si>
+  <si>
+    <t>jadhav</t>
+  </si>
+  <si>
+    <t>debit cards For SBI</t>
+  </si>
+  <si>
+    <t>general partnership</t>
+  </si>
+  <si>
+    <t>Nitish</t>
+  </si>
+  <si>
+    <t>nitish@itc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sole proprietorship</t>
   </si>
   <si>
     <t xml:space="preserve">
-Business and Tax Law Firms</t>
-  </si>
-  <si>
-    <t>rohan@Yahoo.com</t>
-  </si>
-  <si>
-    <t>Lata</t>
+ Assessment Group</t>
   </si>
   <si>
     <t xml:space="preserve">
-Agama Law Associates</t>
-  </si>
-  <si>
-    <t>Komal</t>
-  </si>
-  <si>
-    <t>atharv@itc.com</t>
-  </si>
-  <si>
-    <t>No1537</t>
-  </si>
-  <si>
-    <t>Automate Test67</t>
-  </si>
-  <si>
-    <t>implementation.avantis@gmail.com</t>
-  </si>
-  <si>
-    <t>https://test.avantisregtec.in/DIYProduction/Login.aspx</t>
-  </si>
-  <si>
-    <t>Automate Test New 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kantak.bhagyesh@gmail.com</t>
-  </si>
-  <si>
-    <t>shrisha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHHATTISGARH HIGH COURT.
+ B2B Law Associates</t>
+  </si>
+  <si>
+    <t>rajvveer@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhanshri</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>pooja@yahoo.com</t>
+  </si>
+  <si>
+    <t>Sonu Roy</t>
+  </si>
+  <si>
+    <t>Piyusha dagade</t>
+  </si>
+  <si>
+    <t>Allahabad High Court. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauhati High Court.
 </t>
   </si>
   <si>
-    <t>Automation  06feb24</t>
-  </si>
-  <si>
-    <t>Public Limited Company</t>
-  </si>
-  <si>
-    <t>Nitu</t>
-  </si>
-  <si>
-    <t>nitu@itc.com</t>
-  </si>
-  <si>
-    <t>Limited Liability Partnership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corporations 1 </t>
-  </si>
-  <si>
-    <t>riyu@yahoo.com</t>
+    <t xml:space="preserve">ELECTION PETITION </t>
+  </si>
+  <si>
+    <t>COMPANY PETITION</t>
+  </si>
+  <si>
+    <t>BHIM UPI</t>
+  </si>
+  <si>
+    <t>Phone Pe UPI</t>
+  </si>
+  <si>
+    <t>Invariable and continuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not opposed to any law </t>
+  </si>
+  <si>
+    <t>Originating summons.</t>
+  </si>
+  <si>
+    <t>Statement of claim.</t>
+  </si>
+  <si>
+    <t>Legal Forms for Advocates</t>
+  </si>
+  <si>
+    <t>Sale Documents Formats</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Hearing Of Suits And Examination Of Witnesses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Appeal, Review, Revision</t>
+  </si>
+  <si>
+    <t>Nisha</t>
+  </si>
+  <si>
+    <t>Dhanshree</t>
+  </si>
+  <si>
+    <t>Very very good</t>
+  </si>
+  <si>
+    <t>Ref-67521030</t>
+  </si>
+  <si>
+    <t>Task as  12113</t>
+  </si>
+  <si>
+    <t>RefNo-81</t>
+  </si>
+  <si>
+    <t>Case as on 5190149</t>
+  </si>
+  <si>
+    <t>Case 8921118</t>
+  </si>
+  <si>
+    <t>Task 31</t>
+  </si>
+  <si>
+    <t>Ref no-Notice No 51014</t>
+  </si>
+  <si>
+    <t>RefNo-111</t>
+  </si>
+  <si>
+    <t>case no 22034</t>
+  </si>
+  <si>
+    <t>Task Test 011</t>
+  </si>
+  <si>
+    <t>New Task 133</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Task 2122</t>
+  </si>
+  <si>
+    <t>general partnership  Ltd</t>
+  </si>
+  <si>
+    <t>nisha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sole proprietorship  ltd</t>
+  </si>
+  <si>
+    <t>Corporations 2</t>
   </si>
   <si>
     <t xml:space="preserve">
-Dave and Associates</t>
-  </si>
-  <si>
-    <t>shoib@gmail.com</t>
-  </si>
-  <si>
-    <t>Kadam</t>
+ Assessment Group ltd</t>
+  </si>
+  <si>
+    <t>rajvveer@yahoo.com</t>
+  </si>
+  <si>
+    <t>patil</t>
   </si>
   <si>
     <t xml:space="preserve">
-Actionable attorneys</t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t>komal@yahoo.com</t>
-  </si>
-  <si>
-    <t>Prasad Gaikwad</t>
-  </si>
-  <si>
-    <t>Piyush Chavan</t>
-  </si>
-  <si>
-    <t>Satara HIGH COURT.</t>
-  </si>
-  <si>
-    <t>Legal Notice format on Money Recovery</t>
-  </si>
-  <si>
-    <t>Legal Notice format on Eviction</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Digital Wallets</t>
-  </si>
-  <si>
-    <t>Pre Paid Cards.</t>
-  </si>
-  <si>
-    <t>Local Custom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judicial notice of a Custom </t>
-  </si>
-  <si>
-    <t>Judgement/Decree</t>
-  </si>
-  <si>
-    <t>Execution of Decree</t>
-  </si>
-  <si>
-    <t>PAAF</t>
-  </si>
-  <si>
-    <t>PDAF</t>
-  </si>
-  <si>
-    <t>Automation Test</t>
-  </si>
-  <si>
-    <t>Final disposal at Admission Stage  One</t>
-  </si>
-  <si>
-    <t>E-filing at High Courts Test one</t>
-  </si>
-  <si>
-    <t>2024-2025</t>
-  </si>
-  <si>
-    <t>Ref-7feb24</t>
-  </si>
-  <si>
-    <t>New Task 318</t>
-  </si>
-  <si>
-    <t>Case 7feb24</t>
-  </si>
-  <si>
-    <t>No7feb24</t>
-  </si>
-  <si>
-    <t>New Task 67</t>
-  </si>
-  <si>
-    <t>RefNo-1323</t>
-  </si>
-  <si>
-    <t>Ref no 8FEB24</t>
-  </si>
-  <si>
-    <t>Case No 8FEB24</t>
-  </si>
-  <si>
-    <t>Case No 8FEB2024</t>
-  </si>
-  <si>
-    <t>RefNo-6267</t>
-  </si>
-  <si>
-    <t>Task as on 8FEB24</t>
-  </si>
-  <si>
-    <t>order 8FEB24</t>
-  </si>
-  <si>
-    <t>New Task 35176</t>
-  </si>
-  <si>
-    <t>Very Good</t>
-  </si>
-  <si>
-    <t>Very very excellent</t>
-  </si>
-  <si>
-    <t>Ref no-13feb24</t>
-  </si>
-  <si>
-    <t>case no 13feb24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Task 15feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> new Task 15feb24</t>
-  </si>
-  <si>
-    <t>New Task 15022024</t>
-  </si>
-  <si>
-    <t>RefNo-15feb2024</t>
+ B3B Law Associates pvt ltd</t>
+  </si>
+  <si>
+    <t>Jadhav</t>
+  </si>
+  <si>
+    <t>pooja@itc.com</t>
+  </si>
+  <si>
+    <t>Sonu Dagade</t>
+  </si>
+  <si>
+    <t>sneha dagade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauhati  High Court.
+</t>
+  </si>
+  <si>
+    <t>New ELECTION PETITION  1</t>
+  </si>
+  <si>
+    <t>New COMPANY PETITION 1</t>
+  </si>
+  <si>
+    <t>BHIM UPIII</t>
+  </si>
+  <si>
+    <t>Phone Pe UPIII</t>
+  </si>
+  <si>
+    <t>New Invariable and continuous 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Not opposed to any law 1</t>
+  </si>
+  <si>
+    <t>New Originating summons.1</t>
+  </si>
+  <si>
+    <t>New Statement of claim.1</t>
+  </si>
+  <si>
+    <t>New Legal Forms for Advocates 1</t>
+  </si>
+  <si>
+    <t>New Sale Documents Formats 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Very Excellent </t>
+  </si>
+  <si>
+    <t>New Hearing Of Suit</t>
+  </si>
+  <si>
+    <t>New  Appeal, Review</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t>Task as on 16FEB24</t>
+  </si>
+  <si>
+    <t>Automate Test New 4</t>
+  </si>
+  <si>
+    <t>order 26FEB24</t>
+  </si>
+  <si>
+    <t>Ref no 28march2024</t>
+  </si>
+  <si>
+    <t>RefNo-6mar</t>
+  </si>
+  <si>
+    <t>Case No 27mar24</t>
+  </si>
+  <si>
+    <t>Case No 27mar2024</t>
+  </si>
+  <si>
+    <t>New Task 4256</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1051,6 +1106,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1460,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1504,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1512,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1528,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1746,7 +1802,7 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -1757,7 +1813,7 @@
         <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
         <v>66</v>
@@ -1768,7 +1824,7 @@
         <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
@@ -1824,7 +1880,7 @@
         <v>85</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1857,7 +1913,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1877,7 +1933,7 @@
         <v>90</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1901,7 +1957,7 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1997,7 +2053,7 @@
         <v>55</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2140,7 +2196,7 @@
         <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2161,7 +2217,7 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2250,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2296,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2342,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2358,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2374,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2382,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2402,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2418,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -2612,7 +2668,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2641,7 +2697,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -2652,7 +2708,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -2663,7 +2719,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -2723,7 +2779,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2755,7 +2811,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>15022024</v>
+        <v>6841511</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2774,7 +2830,7 @@
         <v>90</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2782,7 +2838,7 @@
         <v>103</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2807,7 +2863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2823,7 +2879,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -2919,7 +2975,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3033,7 +3089,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3064,7 +3120,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -3075,7 +3131,7 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -3086,7 +3142,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -3139,7 +3195,7 @@
         <v>95</v>
       </c>
       <c r="B40">
-        <v>8723</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3147,7 +3203,7 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3205,7 +3261,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3238,7 +3294,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C1" t="s">
         <v>66</v>
@@ -3249,7 +3305,7 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -3320,8 +3376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:B59"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3360,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3368,7 +3424,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3394,7 +3450,7 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3410,7 +3466,7 @@
         <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3418,7 +3474,7 @@
         <v>116</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3426,15 +3482,15 @@
         <v>144</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3442,7 +3498,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3456,7 +3512,7 @@
         <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3464,7 +3520,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3480,7 +3536,7 @@
         <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3488,7 +3544,7 @@
         <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3504,7 +3560,7 @@
         <v>145</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3517,7 +3573,7 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3525,7 +3581,7 @@
         <v>123</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3541,7 +3597,7 @@
         <v>116</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3570,7 +3626,7 @@
         <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3578,7 +3634,7 @@
         <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3591,7 +3647,7 @@
         <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
@@ -3599,7 +3655,7 @@
         <v>126</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3612,7 +3668,7 @@
         <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3620,7 +3676,7 @@
         <v>127</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3633,7 +3689,7 @@
         <v>132</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3641,7 +3697,7 @@
         <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3654,7 +3710,7 @@
         <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3662,7 +3718,7 @@
         <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3675,7 +3731,7 @@
         <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3683,7 +3739,7 @@
         <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3696,7 +3752,7 @@
         <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3704,7 +3760,7 @@
         <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3717,7 +3773,7 @@
         <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3725,7 +3781,7 @@
         <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3738,7 +3794,7 @@
         <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3746,25 +3802,25 @@
         <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B62">
         <v>9000000</v>
@@ -3798,7 +3854,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3813,7 +3869,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -4007,7 +4063,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4037,7 +4093,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -4048,7 +4104,7 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -4059,7 +4115,7 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -4115,7 +4171,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4148,7 +4204,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -4176,7 +4232,7 @@
         <v>103</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4201,7 +4257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -4216,8 +4272,8 @@
       <c r="A1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
-        <v>251</v>
+      <c r="B1" s="26" t="s">
+        <v>244</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -4313,7 +4369,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4427,7 +4483,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4458,7 +4514,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -4469,7 +4525,7 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
         <v>66</v>
@@ -4480,7 +4536,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
         <v>66</v>
@@ -4520,7 +4576,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4533,7 +4589,7 @@
         <v>95</v>
       </c>
       <c r="B40">
-        <v>3346</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4541,7 +4597,7 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4608,8 +4664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4625,7 +4681,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
         <v>66</v>
@@ -4691,8 +4747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4738,7 +4794,7 @@
         <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4798,7 +4854,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4806,7 +4862,7 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -4817,7 +4873,7 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -4828,7 +4884,7 @@
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
@@ -4863,7 +4919,7 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -4893,7 +4949,7 @@
         <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4901,7 +4957,7 @@
         <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4926,7 +4982,7 @@
         <v>45</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -4950,7 +5006,7 @@
         <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
@@ -4963,7 +5019,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -5024,7 +5080,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5059,7 +5115,7 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5094,162 +5150,150 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>95</v>
       </c>
       <c r="B54">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>99</v>
       </c>
       <c r="B59">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="9" customFormat="1" ht="15.75">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="9" customFormat="1" ht="15.75">
       <c r="A62" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="16" customFormat="1">
+    <row r="63" spans="1:2" s="16" customFormat="1">
       <c r="A63" s="18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
       </c>
-      <c r="C65" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>116</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>116</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="16" customFormat="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="16" customFormat="1">
       <c r="A71" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="1:3" ht="38.25">
+    <row r="72" spans="1:2" ht="38.25">
       <c r="A72" t="s">
         <v>120</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>116</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -5257,23 +5301,23 @@
         <v>7696524324</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -5281,15 +5325,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="25.5">
+    <row r="78" spans="1:2" ht="25.5">
       <c r="A78" t="s">
         <v>145</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="16" customFormat="1" ht="14.45" customHeight="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="16" customFormat="1" ht="14.45" customHeight="1">
       <c r="A80" s="16" t="s">
         <v>141</v>
       </c>
@@ -5299,7 +5343,7 @@
         <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5307,7 +5351,7 @@
         <v>123</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5323,7 +5367,7 @@
         <v>116</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5352,15 +5396,15 @@
         <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5373,7 +5417,7 @@
         <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="25.5">
@@ -5381,7 +5425,7 @@
         <v>126</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5394,7 +5438,7 @@
         <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5402,7 +5446,7 @@
         <v>127</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5421,7 +5465,7 @@
         <v>132</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5429,7 +5473,7 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5442,7 +5486,7 @@
         <v>134</v>
       </c>
       <c r="B109" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5450,7 +5494,7 @@
         <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5463,7 +5507,7 @@
         <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5471,7 +5515,7 @@
         <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5484,7 +5528,7 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5492,7 +5536,7 @@
         <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5505,7 +5549,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5513,7 +5557,7 @@
         <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5526,7 +5570,7 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5534,18 +5578,18 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B84" r:id="rId3"/>
-    <hyperlink ref="B82" r:id="rId4" display="jadhav@jtyf.com"/>
-    <hyperlink ref="B67" r:id="rId5"/>
-    <hyperlink ref="B70" r:id="rId6"/>
-    <hyperlink ref="B73" r:id="rId7"/>
+    <hyperlink ref="B67" r:id="rId3"/>
+    <hyperlink ref="B70" r:id="rId4"/>
+    <hyperlink ref="B73" r:id="rId5"/>
+    <hyperlink ref="B84" r:id="rId6"/>
+    <hyperlink ref="B82" r:id="rId7" display="jadhav@jtyf.com"/>
     <hyperlink ref="B100" r:id="rId8" display="ABCD@itc.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="290">
   <si>
     <t>URL</t>
   </si>
@@ -621,283 +621,292 @@
     <t>No1537</t>
   </si>
   <si>
-    <t>Automate Test67</t>
-  </si>
-  <si>
     <t>implementation.avantis@gmail.com</t>
   </si>
   <si>
     <t>https://test.avantisregtec.in/DIYProduction/Login.aspx</t>
   </si>
   <si>
-    <t xml:space="preserve"> kantak.bhagyesh@gmail.com</t>
-  </si>
-  <si>
     <t>Automation  06feb24</t>
   </si>
   <si>
-    <t xml:space="preserve">Corporations 1 </t>
-  </si>
-  <si>
-    <t>Patil</t>
-  </si>
-  <si>
-    <t>riya@yahoo.com</t>
-  </si>
-  <si>
     <t>Cryptocurrency</t>
   </si>
   <si>
     <t>Task as on date 2132</t>
   </si>
   <si>
-    <t>Task as on 05012024</t>
-  </si>
-  <si>
-    <t>jadhav</t>
-  </si>
-  <si>
     <t>debit cards For SBI</t>
   </si>
   <si>
-    <t>general partnership</t>
-  </si>
-  <si>
-    <t>Nitish</t>
-  </si>
-  <si>
-    <t>nitish@itc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sole proprietorship</t>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>order 26FEB24</t>
+  </si>
+  <si>
+    <t>Case as on 513249</t>
+  </si>
+  <si>
+    <t>RefNo-8211</t>
+  </si>
+  <si>
+    <t>Task as  123</t>
+  </si>
+  <si>
+    <t>Ref-6710301</t>
+  </si>
+  <si>
+    <t>Case 811118</t>
+  </si>
+  <si>
+    <t>Task 311</t>
+  </si>
+  <si>
+    <t>Automate Test671</t>
+  </si>
+  <si>
+    <t>New Task 466</t>
+  </si>
+  <si>
+    <t>Jadhav</t>
+  </si>
+  <si>
+    <t>Automate Test New 3</t>
+  </si>
+  <si>
+    <t>Shreesha</t>
+  </si>
+  <si>
+    <t>New Hearing Of Suits And Examination Of Witnesses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Appeal, Review, Revision</t>
+  </si>
+  <si>
+    <t>Task as on 8may24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performer@avantis.info</t>
+  </si>
+  <si>
+    <t>Adhiraj</t>
+  </si>
+  <si>
+    <t>shreyansh</t>
+  </si>
+  <si>
+    <t>Pravin</t>
+  </si>
+  <si>
+    <t>2019-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent One </t>
+  </si>
+  <si>
+    <t>Very very good</t>
+  </si>
+  <si>
+    <t>Case No 1jun24</t>
+  </si>
+  <si>
+    <t>Case No 12may2024</t>
+  </si>
+  <si>
+    <t>RefNo-12may</t>
+  </si>
+  <si>
+    <t>Task as on 10052024</t>
+  </si>
+  <si>
+    <t>LLP Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Nilofar</t>
+  </si>
+  <si>
+    <t>nilofar@itc.com</t>
+  </si>
+  <si>
+    <t>LLLP Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Corporations 4</t>
+  </si>
+  <si>
+    <t>riya@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">
- Assessment Group</t>
+  Assessment Group2</t>
+  </si>
+  <si>
+    <t>suja@gmail.com</t>
+  </si>
+  <si>
+    <t>Pawar</t>
   </si>
   <si>
     <t xml:space="preserve">
- B2B Law Associates</t>
-  </si>
-  <si>
-    <t>rajvveer@gmail.com</t>
-  </si>
-  <si>
-    <t>Dhanshri</t>
-  </si>
-  <si>
-    <t>Pooja</t>
-  </si>
-  <si>
-    <t>pooja@yahoo.com</t>
-  </si>
-  <si>
-    <t>Sonu Roy</t>
-  </si>
-  <si>
-    <t>Piyusha dagade</t>
-  </si>
-  <si>
-    <t>Allahabad High Court. .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gauhati High Court.
+ B5B Law Associates</t>
+  </si>
+  <si>
+    <t>Chavan</t>
+  </si>
+  <si>
+    <t>poojac@yahoo.com</t>
+  </si>
+  <si>
+    <t>SANGRAM Pawar</t>
+  </si>
+  <si>
+    <t>Mahesh Pawar</t>
+  </si>
+  <si>
+    <t>Lakhnauv High   Court. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noida High court.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ELECTION PETITION </t>
-  </si>
-  <si>
-    <t>COMPANY PETITION</t>
-  </si>
-  <si>
-    <t>BHIM UPI</t>
-  </si>
-  <si>
-    <t>Phone Pe UPI</t>
-  </si>
-  <si>
-    <t>Invariable and continuous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not opposed to any law </t>
-  </si>
-  <si>
-    <t>Originating summons.</t>
-  </si>
-  <si>
-    <t>Statement of claim.</t>
-  </si>
-  <si>
-    <t>Legal Forms for Advocates</t>
-  </si>
-  <si>
-    <t>Sale Documents Formats</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Very good</t>
-  </si>
-  <si>
-    <t>Hearing Of Suits And Examination Of Witnesses</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Appeal, Review, Revision</t>
-  </si>
-  <si>
-    <t>Nisha</t>
-  </si>
-  <si>
-    <t>Dhanshree</t>
-  </si>
-  <si>
-    <t>Very very good</t>
-  </si>
-  <si>
-    <t>Ref-67521030</t>
-  </si>
-  <si>
-    <t>Task as  12113</t>
-  </si>
-  <si>
-    <t>RefNo-81</t>
-  </si>
-  <si>
-    <t>Case as on 5190149</t>
-  </si>
-  <si>
-    <t>Case 8921118</t>
-  </si>
-  <si>
-    <t>Task 31</t>
-  </si>
-  <si>
-    <t>Ref no-Notice No 51014</t>
-  </si>
-  <si>
-    <t>RefNo-111</t>
-  </si>
-  <si>
-    <t>case no 22034</t>
-  </si>
-  <si>
-    <t>Task Test 011</t>
-  </si>
-  <si>
-    <t>New Task 133</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Task 2122</t>
-  </si>
-  <si>
-    <t>general partnership  Ltd</t>
-  </si>
-  <si>
-    <t>nisha@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sole proprietorship  ltd</t>
-  </si>
-  <si>
-    <t>Corporations 2</t>
+    <t xml:space="preserve"> ELECTION PETITION  Two</t>
+  </si>
+  <si>
+    <t>COMPANY PETITION  Two</t>
+  </si>
+  <si>
+    <t>BIM MIII</t>
+  </si>
+  <si>
+    <t>Phone Pe MI</t>
+  </si>
+  <si>
+    <t>New Invariable test</t>
+  </si>
+  <si>
+    <t>Not opposed to any law test</t>
+  </si>
+  <si>
+    <t>New Originating summons.</t>
+  </si>
+  <si>
+    <t>New Statement of claim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Legal Forms for Advocates doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sale Documents Formats doc</t>
+  </si>
+  <si>
+    <t>Ref no 2jun2024</t>
+  </si>
+  <si>
+    <t>Task Test 191</t>
+  </si>
+  <si>
+    <t>VF Pvt Ltd</t>
+  </si>
+  <si>
+    <t>adhi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cde ltd </t>
+  </si>
+  <si>
+    <t>Corporations 8</t>
+  </si>
+  <si>
+    <t>sudip@yahoo.com</t>
   </si>
   <si>
     <t xml:space="preserve">
- Assessment Group ltd</t>
-  </si>
-  <si>
-    <t>rajvveer@yahoo.com</t>
-  </si>
-  <si>
-    <t>patil</t>
+Shreya Law Firm 1</t>
+  </si>
+  <si>
+    <t>shreya@itc.com</t>
   </si>
   <si>
     <t xml:space="preserve">
- B3B Law Associates pvt ltd</t>
-  </si>
-  <si>
-    <t>Jadhav</t>
-  </si>
-  <si>
-    <t>pooja@itc.com</t>
-  </si>
-  <si>
-    <t>Sonu Dagade</t>
-  </si>
-  <si>
-    <t>sneha dagade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gauhati  High Court.
+ B9B Law Associates pvt ltd</t>
+  </si>
+  <si>
+    <t>Sawant</t>
+  </si>
+  <si>
+    <t>pravin@yahoo.com</t>
+  </si>
+  <si>
+    <t>Niranjan Patil</t>
+  </si>
+  <si>
+    <t>Gita jadhav</t>
+  </si>
+  <si>
+    <t>Mumbai High Court. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noida  High Court.
 </t>
   </si>
   <si>
-    <t>New ELECTION PETITION  1</t>
-  </si>
-  <si>
-    <t>New COMPANY PETITION 1</t>
-  </si>
-  <si>
-    <t>BHIM UPIII</t>
-  </si>
-  <si>
-    <t>Phone Pe UPIII</t>
-  </si>
-  <si>
-    <t>New Invariable and continuous 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Not opposed to any law 1</t>
-  </si>
-  <si>
-    <t>New Originating summons.1</t>
-  </si>
-  <si>
-    <t>New Statement of claim.1</t>
-  </si>
-  <si>
-    <t>New Legal Forms for Advocates 1</t>
-  </si>
-  <si>
-    <t>New Sale Documents Formats 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very Very Excellent </t>
-  </si>
-  <si>
-    <t>New Hearing Of Suit</t>
-  </si>
-  <si>
-    <t>New  Appeal, Review</t>
-  </si>
-  <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
-    <t>Task as on 16FEB24</t>
-  </si>
-  <si>
-    <t>Automate Test New 4</t>
-  </si>
-  <si>
-    <t>order 26FEB24</t>
-  </si>
-  <si>
-    <t>Ref no 28march2024</t>
-  </si>
-  <si>
-    <t>RefNo-6mar</t>
-  </si>
-  <si>
-    <t>Case No 27mar24</t>
-  </si>
-  <si>
-    <t>Case No 27mar2024</t>
-  </si>
-  <si>
-    <t>New Task 4256</t>
+    <t>Casetype10</t>
+  </si>
+  <si>
+    <t>CaseType9</t>
+  </si>
+  <si>
+    <t>POBTT</t>
+  </si>
+  <si>
+    <t>Phone Pay 4</t>
+  </si>
+  <si>
+    <t>New Invariable and continuous ABCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Not opposed to any law ABCD</t>
+  </si>
+  <si>
+    <t>New Originating summons abcd</t>
+  </si>
+  <si>
+    <t>New Statement of claim abcd</t>
+  </si>
+  <si>
+    <t>Legal Form Test abcd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documents Formats Test abcd </t>
+  </si>
+  <si>
+    <t>GOODD</t>
+  </si>
+  <si>
+    <t>EXLLENTT</t>
+  </si>
+  <si>
+    <t>New Hearing Of Suit 5</t>
+  </si>
+  <si>
+    <t>New  Appeal, Review 6</t>
+  </si>
+  <si>
+    <t>Notice No 04062024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Task 611</t>
+  </si>
+  <si>
+    <t>RefNo-9245</t>
+  </si>
+  <si>
+    <t>case no3098402</t>
+  </si>
+  <si>
+    <t>New Task 113</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1502,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1516,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1544,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -2459,7 +2468,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2474,7 +2483,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -2697,7 +2706,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -2779,7 +2788,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2811,7 +2820,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>6841511</v>
+        <v>1976592</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2838,7 +2847,7 @@
         <v>103</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2863,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2874,12 +2883,12 @@
     <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -3120,7 +3129,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -3195,7 +3204,7 @@
         <v>95</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3203,7 +3212,7 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3261,7 +3270,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3294,7 +3303,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="C1" t="s">
         <v>66</v>
@@ -3376,8 +3385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3416,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3424,7 +3433,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3450,7 +3459,7 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3466,7 +3475,7 @@
         <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3474,7 +3483,7 @@
         <v>116</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3482,7 +3491,7 @@
         <v>144</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3490,7 +3499,7 @@
         <v>160</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3498,7 +3507,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -3507,12 +3516,12 @@
       </c>
       <c r="B18" s="17"/>
     </row>
-    <row r="19" spans="1:2" ht="38.25">
+    <row r="19" spans="1:2" ht="25.5">
       <c r="A19" t="s">
         <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3520,7 +3529,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3536,7 +3545,7 @@
         <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3544,7 +3553,7 @@
         <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3560,7 +3569,7 @@
         <v>145</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.45" customHeight="1">
@@ -3573,7 +3582,7 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3581,7 +3590,7 @@
         <v>123</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3597,7 +3606,7 @@
         <v>116</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3626,7 +3635,7 @@
         <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3634,7 +3643,7 @@
         <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -3647,7 +3656,7 @@
         <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5">
@@ -3655,7 +3664,7 @@
         <v>126</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -3668,7 +3677,7 @@
         <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3676,7 +3685,7 @@
         <v>127</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -3689,7 +3698,7 @@
         <v>132</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3697,7 +3706,7 @@
         <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -3710,7 +3719,7 @@
         <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3718,7 +3727,7 @@
         <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -3731,7 +3740,7 @@
         <v>136</v>
       </c>
       <c r="B49" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3739,7 +3748,7 @@
         <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -3752,7 +3761,7 @@
         <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3760,7 +3769,7 @@
         <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -3773,7 +3782,7 @@
         <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3781,7 +3790,7 @@
         <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -3794,7 +3803,7 @@
         <v>140</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3802,7 +3811,7 @@
         <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3815,7 +3824,7 @@
         <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3853,8 +3862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3869,7 +3878,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -4093,7 +4102,7 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
@@ -4171,7 +4180,7 @@
         <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4204,7 +4213,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -4232,7 +4241,7 @@
         <v>103</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4257,7 +4266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -4273,7 +4282,7 @@
         <v>46</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -4514,7 +4523,7 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
@@ -4576,7 +4585,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4589,7 +4598,7 @@
         <v>95</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4664,7 +4673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4681,7 +4690,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
         <v>66</v>
@@ -4747,8 +4756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4794,7 +4803,7 @@
         <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4862,7 +4871,7 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
         <v>66</v>
@@ -4873,7 +4882,7 @@
         <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -4919,7 +4928,7 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
         <v>66</v>
@@ -4949,7 +4958,7 @@
         <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4982,7 +4991,7 @@
         <v>45</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -5006,7 +5015,7 @@
         <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="9" customFormat="1">
@@ -5019,7 +5028,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -5160,7 +5169,7 @@
         <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5173,7 +5182,7 @@
         <v>95</v>
       </c>
       <c r="B54">
-        <v>414</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5181,7 +5190,7 @@
         <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5220,7 +5229,7 @@
         <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5236,7 +5245,7 @@
         <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5244,7 +5253,7 @@
         <v>116</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5252,7 +5261,7 @@
         <v>144</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5260,7 +5269,7 @@
         <v>160</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5268,7 +5277,7 @@
         <v>116</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -5282,7 +5291,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5290,7 +5299,7 @@
         <v>116</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5306,7 +5315,7 @@
         <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5314,7 +5323,7 @@
         <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5330,7 +5339,7 @@
         <v>145</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.45" customHeight="1">
@@ -5343,7 +5352,7 @@
         <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5351,7 +5360,7 @@
         <v>123</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5367,7 +5376,7 @@
         <v>116</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5396,7 +5405,7 @@
         <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5404,7 +5413,7 @@
         <v>146</v>
       </c>
       <c r="B90" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -5417,7 +5426,7 @@
         <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="25.5">
@@ -5425,7 +5434,7 @@
         <v>126</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -5438,7 +5447,7 @@
         <v>127</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5446,7 +5455,7 @@
         <v>127</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5465,7 +5474,7 @@
         <v>132</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5473,7 +5482,7 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -5486,7 +5495,7 @@
         <v>134</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5494,7 +5503,7 @@
         <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -5507,7 +5516,7 @@
         <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5515,7 +5524,7 @@
         <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -5528,7 +5537,7 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5536,7 +5545,7 @@
         <v>137</v>
       </c>
       <c r="B120" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -5549,7 +5558,7 @@
         <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5557,7 +5566,7 @@
         <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="18" customFormat="1">
@@ -5570,7 +5579,7 @@
         <v>140</v>
       </c>
       <c r="B129" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5578,7 +5587,7 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
